--- a/Documents/prices.xlsx
+++ b/Documents/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="271">
   <si>
     <t>دلار به تومن</t>
   </si>
@@ -818,6 +818,15 @@
   </si>
   <si>
     <t>شماره بسته تخفیف</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>our game:</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2071,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -2108,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2134,7 +2143,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2.0833333333333814E-3</v>
       </c>
@@ -2158,12 +2167,8 @@
       </c>
       <c r="H19" s="1"/>
       <c r="L19" s="7"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -2192,12 +2197,8 @@
         <v>1</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -2227,12 +2228,8 @@
         <v>45</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2256,12 +2253,8 @@
       </c>
       <c r="H22" s="1"/>
       <c r="L22" s="7"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -2287,34 +2280,8 @@
         <v>1</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2">
-        <v>125000</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R23" s="2">
-        <v>15</v>
-      </c>
-      <c r="S23" s="2">
-        <v>8</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U23" s="2">
-        <v>10</v>
-      </c>
-      <c r="V23" s="2">
-        <v>4</v>
-      </c>
-      <c r="X23" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -2343,34 +2310,8 @@
         <v>1</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2">
-        <v>75000</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R24" s="2">
-        <v>15</v>
-      </c>
-      <c r="S24" s="2">
-        <v>5</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24" s="2">
-        <v>10</v>
-      </c>
-      <c r="V24" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -2397,7 +2338,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2424,7 +2365,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2.0833333333333259E-3</v>
       </c>
@@ -2449,7 +2390,7 @@
       <c r="H27" s="1"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2477,7 +2418,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -2501,24 +2442,11 @@
         <v>233</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="N29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="S29" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N29" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -2542,24 +2470,26 @@
       </c>
       <c r="H30" s="1"/>
       <c r="L30" s="7"/>
-      <c r="N30" s="2" t="s">
-        <v>26</v>
+      <c r="N30" s="2">
+        <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>90</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2">
-        <v>85</v>
-      </c>
-      <c r="S30" s="2">
-        <v>94</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="P30" s="2">
+        <v>150000</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1900</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -2588,24 +2518,26 @@
         <v>1</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="N31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="2"/>
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>120</v>
+      </c>
       <c r="P31" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>58</v>
-      </c>
-      <c r="S31" s="2">
-        <v>200</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="X31" s="2">
+        <v>3900</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2634,22 +2566,26 @@
         <v>1</v>
       </c>
       <c r="L32" s="7"/>
-      <c r="N32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="S32" s="2">
-        <v>850</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2">
+        <v>200</v>
+      </c>
+      <c r="P32" s="2">
+        <v>300000</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="2">
+        <v>4900</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2672,16 +2608,26 @@
       <c r="L33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>176</v>
+      <c r="N33" s="2">
+        <v>4</v>
       </c>
       <c r="O33" s="2">
-        <v>35</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="P33" s="2">
+        <v>250000</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X33" s="2">
+        <v>9900</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -2705,18 +2651,26 @@
         <v>235</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="N34" s="2" t="s">
-        <v>29</v>
+      <c r="N34" s="2">
+        <v>5</v>
       </c>
       <c r="O34" s="2">
-        <v>20</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="P34" s="2">
+        <v>450000</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2.0833333333333814E-3</v>
       </c>
@@ -2740,16 +2694,26 @@
       </c>
       <c r="H35" s="1"/>
       <c r="L35" s="7"/>
-      <c r="N35" s="2" t="s">
-        <v>208</v>
+      <c r="N35" s="2">
+        <v>6</v>
       </c>
       <c r="O35" s="2">
-        <v>25</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="P35" s="2">
+        <v>450000</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X35" s="2">
+        <v>9900</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -2771,12 +2735,26 @@
       </c>
       <c r="H36" s="1"/>
       <c r="L36" s="7"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N36" s="2">
+        <v>7</v>
+      </c>
+      <c r="O36" s="2">
+        <v>180</v>
+      </c>
+      <c r="P36" s="2">
+        <v>350000</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X36" s="2">
+        <v>19000</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -2798,8 +2776,26 @@
       </c>
       <c r="H37" s="1"/>
       <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N37" s="2">
+        <v>8</v>
+      </c>
+      <c r="O37" s="2">
+        <v>180</v>
+      </c>
+      <c r="P37" s="2">
+        <v>300000</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X37" s="2">
+        <v>29000</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -2821,8 +2817,26 @@
       </c>
       <c r="H38" s="1"/>
       <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N38" s="2">
+        <v>9</v>
+      </c>
+      <c r="O38" s="2">
+        <v>200</v>
+      </c>
+      <c r="P38" s="2">
+        <v>300000</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X38" s="2">
+        <v>29000</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>0</v>
       </c>
@@ -2844,8 +2858,26 @@
       </c>
       <c r="H39" s="1"/>
       <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N39" s="2">
+        <v>10</v>
+      </c>
+      <c r="O39" s="2">
+        <v>200</v>
+      </c>
+      <c r="P39" s="2">
+        <v>400000</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X39" s="2">
+        <v>29000</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -2869,21 +2901,8 @@
       <c r="L40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2904,23 +2923,8 @@
       </c>
       <c r="H41" s="1"/>
       <c r="L41" s="7"/>
-      <c r="N41" s="2">
-        <v>2</v>
-      </c>
-      <c r="O41" s="4">
-        <f t="shared" ref="O41:O46" si="3">N41*$S$29</f>
-        <v>2000</v>
-      </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="2">
-        <v>50</v>
-      </c>
-      <c r="R41" s="1">
-        <f t="shared" ref="R41:R46" si="4">O41/Q41</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -2944,23 +2948,8 @@
       </c>
       <c r="H42" s="1"/>
       <c r="L42" s="7"/>
-      <c r="N42" s="2">
-        <v>5</v>
-      </c>
-      <c r="O42" s="4">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="2">
-        <v>140</v>
-      </c>
-      <c r="R42" s="1">
-        <f t="shared" si="4"/>
-        <v>35.714285714285715</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -2984,23 +2973,8 @@
       </c>
       <c r="H43" s="1"/>
       <c r="L43" s="7"/>
-      <c r="N43" s="2">
-        <v>10</v>
-      </c>
-      <c r="O43" s="4">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="2">
-        <v>290</v>
-      </c>
-      <c r="R43" s="1">
-        <f t="shared" si="4"/>
-        <v>34.482758620689658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -3029,23 +3003,8 @@
         <v>1</v>
       </c>
       <c r="L44" s="7"/>
-      <c r="N44" s="2">
-        <v>20</v>
-      </c>
-      <c r="O44" s="4">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="2">
-        <v>600</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -3075,23 +3034,8 @@
         <v>45</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="N45" s="2">
-        <v>50</v>
-      </c>
-      <c r="O45" s="4">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="2">
-        <v>1630</v>
-      </c>
-      <c r="R45" s="1">
-        <f t="shared" si="4"/>
-        <v>30.674846625766872</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -3117,23 +3061,8 @@
         <v>1</v>
       </c>
       <c r="L46" s="7"/>
-      <c r="N46" s="2">
-        <v>100</v>
-      </c>
-      <c r="O46" s="4">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="2">
-        <v>3750</v>
-      </c>
-      <c r="R46" s="1">
-        <f t="shared" si="4"/>
-        <v>26.666666666666668</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -3162,12 +3091,8 @@
         <v>1</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -3193,12 +3118,8 @@
         <v>1</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -3224,9 +3145,8 @@
         <v>26</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -3250,9 +3170,8 @@
       </c>
       <c r="H50" s="1"/>
       <c r="L50" s="7"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -3280,8 +3199,11 @@
       </c>
       <c r="L51" s="7"/>
       <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -3308,8 +3230,33 @@
       </c>
       <c r="L52" s="7"/>
       <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2">
+        <v>125000</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="2">
+        <v>15</v>
+      </c>
+      <c r="S52" s="2">
+        <v>8</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U52" s="2">
+        <v>10</v>
+      </c>
+      <c r="V52" s="2">
+        <v>4</v>
+      </c>
+      <c r="X52" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -3334,8 +3281,33 @@
       </c>
       <c r="L53" s="7"/>
       <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="2"/>
+      <c r="P53" s="2">
+        <v>75000</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R53" s="2">
+        <v>15</v>
+      </c>
+      <c r="S53" s="2">
+        <v>5</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U53" s="2">
+        <v>10</v>
+      </c>
+      <c r="V53" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -3359,9 +3331,8 @@
       </c>
       <c r="H54" s="1"/>
       <c r="L54" s="7"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>0</v>
       </c>
@@ -3383,9 +3354,8 @@
       </c>
       <c r="H55" s="1"/>
       <c r="L55" s="7"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0</v>
       </c>
@@ -3409,9 +3379,8 @@
       </c>
       <c r="H56" s="1"/>
       <c r="L56" s="7"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -3436,9 +3405,8 @@
       <c r="H57" s="1"/>
       <c r="J57" s="6"/>
       <c r="L57" s="7"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -3462,9 +3430,24 @@
         <v>241</v>
       </c>
       <c r="L58" s="7"/>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="S58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -3488,9 +3471,24 @@
         <v>242</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" s="2">
+        <v>90</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2">
+        <v>85</v>
+      </c>
+      <c r="S59" s="2">
+        <v>94</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -3514,9 +3512,24 @@
       </c>
       <c r="H60" s="1"/>
       <c r="L60" s="7"/>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>58</v>
+      </c>
+      <c r="S60" s="2">
+        <v>200</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>0</v>
       </c>
@@ -3538,9 +3551,22 @@
       </c>
       <c r="H61" s="1"/>
       <c r="L61" s="7"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="S61" s="2">
+        <v>850</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -3562,9 +3588,16 @@
       </c>
       <c r="H62" s="1"/>
       <c r="L62" s="7"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O62" s="2">
+        <v>35</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0</v>
       </c>
@@ -3586,9 +3619,18 @@
       </c>
       <c r="H63" s="1"/>
       <c r="L63" s="7"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="2">
+        <v>20</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -3612,9 +3654,16 @@
         <v>243</v>
       </c>
       <c r="L64" s="7"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O64" s="2">
+        <v>25</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -3639,8 +3688,11 @@
       <c r="H65" s="1"/>
       <c r="L65" s="7"/>
       <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>1.3888888888889395E-3</v>
       </c>
@@ -3664,9 +3716,8 @@
       </c>
       <c r="H66" s="1"/>
       <c r="L66" s="7"/>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -3690,14 +3741,13 @@
       </c>
       <c r="H67" s="1"/>
       <c r="L67" s="7"/>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" ref="B68:B131" si="5">B67+A68</f>
+        <f t="shared" ref="B68:B131" si="3">B67+A68</f>
         <v>5.3472222222222254E-2</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3716,48 +3766,59 @@
       </c>
       <c r="H68" s="1"/>
       <c r="L68" s="7"/>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" ref="E69:E132" si="6">E68+D69</f>
+        <f t="shared" ref="E69:E132" si="4">E68+D69</f>
         <v>33800</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G132" si="7">G68+F69</f>
+        <f t="shared" ref="G69:G132" si="5">G68+F69</f>
         <v>155</v>
       </c>
       <c r="H69" s="1"/>
       <c r="L69" s="7"/>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.4861111111111138E-2</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33800</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H70" s="1"/>
@@ -3765,37 +3826,65 @@
         <v>244</v>
       </c>
       <c r="L70" s="7"/>
-      <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="2">
+        <v>2</v>
+      </c>
+      <c r="O70" s="4">
+        <f>N70*$S$58</f>
+        <v>2000</v>
+      </c>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="2">
+        <v>50</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" ref="R70:R75" si="6">O70/Q70</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>0</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.4861111111111138E-2</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33800</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H71" s="1"/>
       <c r="L71" s="7"/>
-      <c r="N71" s="2"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="2">
+        <v>5</v>
+      </c>
+      <c r="O71" s="4">
+        <f>N71*$S$58</f>
+        <v>5000</v>
+      </c>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="2">
+        <v>140</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="6"/>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3805,23 +3894,37 @@
         <v>-735</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33065</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H72" s="1"/>
       <c r="L72" s="7"/>
-      <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="2">
+        <v>10</v>
+      </c>
+      <c r="O72" s="4">
+        <f>N72*$S$58</f>
+        <v>10000</v>
+      </c>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="2">
+        <v>290</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="6"/>
+        <v>34.482758620689658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>0</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="C73" s="4"/>
@@ -3829,46 +3932,74 @@
         <v>-1470</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31595</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H73" s="1"/>
       <c r="L73" s="7"/>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="2">
+        <v>20</v>
+      </c>
+      <c r="O73" s="4">
+        <f>N73*$S$58</f>
+        <v>20000</v>
+      </c>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="2">
+        <v>600</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="6"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.7638888888888906E-2</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31595</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H74" s="1"/>
       <c r="L74" s="7"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="2">
+        <v>50</v>
+      </c>
+      <c r="O74" s="4">
+        <f>N74*$S$58</f>
+        <v>50000</v>
+      </c>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="2">
+        <v>1630</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="6"/>
+        <v>30.674846625766872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.8333333333333348E-2</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3878,11 +4009,11 @@
         <v>1070</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32665</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -3894,37 +4025,54 @@
       <c r="L75" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N75" s="2">
+        <v>100</v>
+      </c>
+      <c r="O75" s="4">
+        <f>N75*$S$58</f>
+        <v>100000</v>
+      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="2">
+        <v>3750</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="6"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32665</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H76" s="1"/>
       <c r="L76" s="7"/>
       <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.041666666666673E-2</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3934,11 +4082,11 @@
         <v>256</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32921</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -3949,47 +4097,50 @@
       </c>
       <c r="L77" s="7"/>
       <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32921</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H78" s="1"/>
       <c r="L78" s="7"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.1805555555555614E-2</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32921</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H79" s="1"/>
@@ -3999,12 +4150,12 @@
       <c r="L79" s="7"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>0</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.1805555555555614E-2</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -4014,11 +4165,11 @@
         <v>1022</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33943</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -4035,7 +4186,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -4045,11 +4196,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33943</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H81" s="1"/>
@@ -4061,7 +4212,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -4071,11 +4222,11 @@
         <v>1301</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>35244</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H82" s="1"/>
@@ -4087,18 +4238,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.4583333333333381E-2</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>35244</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H83" s="1"/>
@@ -4110,18 +4261,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.5277777777777768E-2</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>35244</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H84" s="1"/>
@@ -4133,7 +4284,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -4143,11 +4294,11 @@
         <v>-350</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>34894</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H85" s="1"/>
@@ -4159,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C86" s="4"/>
@@ -4167,11 +4318,11 @@
         <v>-350</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>34544</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H86" s="1"/>
@@ -4183,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C87" s="4"/>
@@ -4191,11 +4342,11 @@
         <v>-350</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>34194</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H87" s="1"/>
@@ -4207,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -4217,11 +4368,11 @@
         <v>1150</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>35344</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H88" s="1"/>
@@ -4233,7 +4384,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -4243,11 +4394,11 @@
         <v>1797</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>37141</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -4264,21 +4415,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>37141</v>
       </c>
       <c r="F90" s="2">
         <v>15</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H90" s="1"/>
@@ -4293,18 +4444,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.8750000000000033E-2</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>37141</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -4321,7 +4472,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -4331,11 +4482,11 @@
         <v>2164</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>39305</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H92" s="1"/>
@@ -4347,7 +4498,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0138888888888917E-2</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -4357,11 +4508,11 @@
         <v>655</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>39960</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -4378,18 +4529,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0833333333333415E-2</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>39960</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H94" s="1"/>
@@ -4401,7 +4552,7 @@
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="B95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -4411,11 +4562,11 @@
         <v>0</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>39960</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H95" s="1"/>
@@ -4427,7 +4578,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -4437,11 +4588,11 @@
         <v>1073</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>41033</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -4458,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -4468,11 +4619,11 @@
         <v>1190</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>42223</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H97" s="1"/>
@@ -4484,18 +4635,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.7777777777777835E-2</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>42223</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H98" s="1"/>
@@ -4510,18 +4661,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>42223</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H99" s="1"/>
@@ -4536,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4546,11 +4697,11 @@
         <v>-123</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>42100</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H100" s="1"/>
@@ -4562,18 +4713,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>42100</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H101" s="1"/>
@@ -4585,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -4595,11 +4746,11 @@
         <v>1354</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>43454</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H102" s="1"/>
@@ -4611,7 +4762,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.986111111111116E-2</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -4621,11 +4772,11 @@
         <v>798</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44252</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="H103" s="1"/>
@@ -4637,21 +4788,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.0555555555555602E-2</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44252</v>
       </c>
       <c r="F104" s="2">
         <v>15</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H104" s="1"/>
@@ -4668,7 +4819,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.1250000000000044E-2</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -4678,11 +4829,11 @@
         <v>1576</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45828</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H105" s="1"/>
@@ -4694,18 +4845,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.1944444444444486E-2</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45828</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H106" s="1"/>
@@ -4720,18 +4871,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.2638888888888928E-2</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45828</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H107" s="1"/>
@@ -4746,18 +4897,18 @@
         <v>0</v>
       </c>
       <c r="B108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.2638888888888928E-2</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45828</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H108" s="1"/>
@@ -4772,18 +4923,18 @@
         <v>0</v>
       </c>
       <c r="B109" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.2638888888888928E-2</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45828</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H109" s="1"/>
@@ -4798,7 +4949,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="B110" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4808,11 +4959,11 @@
         <v>-350</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45478</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H110" s="1"/>
@@ -4824,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C111" s="4"/>
@@ -4832,11 +4983,11 @@
         <v>-123</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45355</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H111" s="1"/>
@@ -4848,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C112" s="4"/>
@@ -4856,11 +5007,11 @@
         <v>-123</v>
       </c>
       <c r="E112" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45232</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H112" s="1"/>
@@ -4872,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="B113" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C113" s="4"/>
@@ -4880,11 +5031,11 @@
         <v>-350</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44882</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H113" s="1"/>
@@ -4896,7 +5047,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B114" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.6111111111111138E-2</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -4906,11 +5057,11 @@
         <v>658</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45540</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H114" s="1"/>
@@ -4922,7 +5073,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B115" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.7500000000000022E-2</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -4932,11 +5083,11 @@
         <v>688</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>46228</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H115" s="1"/>
@@ -4948,7 +5099,7 @@
         <v>1.388888888888995E-3</v>
       </c>
       <c r="B116" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.8888888888889017E-2</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -4958,11 +5109,11 @@
         <v>744</v>
       </c>
       <c r="E116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>46972</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H116" s="1"/>
@@ -4974,7 +5125,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B117" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.0277777777777901E-2</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -4984,11 +5135,11 @@
         <v>1423</v>
       </c>
       <c r="E117" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>48395</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H117" s="1"/>
@@ -5000,21 +5151,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B118" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.1666666666666785E-2</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E118" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>48395</v>
       </c>
       <c r="F118" s="2">
         <v>15</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H118" s="1"/>
@@ -5029,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.1666666666666785E-2</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>48395</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H119" s="1"/>
@@ -5055,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.1666666666666785E-2</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -5065,11 +5216,11 @@
         <v>915</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>49310</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H120" s="1"/>
@@ -5081,7 +5232,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.3055555555555669E-2</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -5091,11 +5242,11 @@
         <v>1189</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>50499</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H121" s="1"/>
@@ -5107,7 +5258,7 @@
         <v>6.9444444444433095E-4</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.375E-2</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -5117,11 +5268,11 @@
         <v>1006</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>51505</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H122" s="1"/>
@@ -5133,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.375E-2</v>
       </c>
       <c r="C123" s="4"/>
@@ -5141,11 +5292,11 @@
         <v>2500</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54005</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="H123" s="1"/>
@@ -5157,21 +5308,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B124" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54005</v>
       </c>
       <c r="F124" s="2">
         <v>15</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H124" s="1"/>
@@ -5186,18 +5337,18 @@
         <v>0</v>
       </c>
       <c r="B125" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54005</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H125" s="1"/>
@@ -5209,18 +5360,18 @@
         <v>4.1666666666667629E-3</v>
       </c>
       <c r="B126" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.9305555555555647E-2</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54005</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H126" s="1"/>
@@ -5232,7 +5383,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B127" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -5242,11 +5393,11 @@
         <v>805</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54810</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H127" s="1"/>
@@ -5258,7 +5409,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B128" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.10069444444444453</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -5268,11 +5419,11 @@
         <v>1224</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56034</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H128" s="1"/>
@@ -5284,18 +5435,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.10208333333333341</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56034</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H129" s="1"/>
@@ -5310,18 +5461,18 @@
         <v>0</v>
       </c>
       <c r="B130" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.10208333333333341</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56034</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H130" s="1"/>
@@ -5336,7 +5487,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.1034722222222223</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -5346,11 +5497,11 @@
         <v>-735</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55299</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H131" s="1"/>
@@ -5362,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" ref="B132:B195" si="8">B131+A132</f>
+        <f t="shared" ref="B132:B195" si="7">B131+A132</f>
         <v>0.1034722222222223</v>
       </c>
       <c r="C132" s="4"/>
@@ -5370,11 +5521,11 @@
         <v>-1470</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53829</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>215</v>
       </c>
       <c r="H132" s="1"/>
@@ -5386,7 +5537,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10416666666666674</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -5396,11 +5547,11 @@
         <v>937</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" ref="E133:E196" si="9">E132+D133</f>
+        <f t="shared" ref="E133:E196" si="8">E132+D133</f>
         <v>54766</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G196" si="10">G132+F133</f>
+        <f t="shared" ref="G133:G196" si="9">G132+F133</f>
         <v>215</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -5417,18 +5568,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E134" s="7">
+        <f t="shared" si="8"/>
+        <v>54766</v>
+      </c>
+      <c r="G134" s="2">
         <f t="shared" si="9"/>
-        <v>54766</v>
-      </c>
-      <c r="G134" s="2">
-        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -5445,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -5455,11 +5606,11 @@
         <v>1065</v>
       </c>
       <c r="E135" s="7">
+        <f t="shared" si="8"/>
+        <v>55831</v>
+      </c>
+      <c r="G135" s="2">
         <f t="shared" si="9"/>
-        <v>55831</v>
-      </c>
-      <c r="G135" s="2">
-        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="H135" s="1"/>
@@ -5471,21 +5622,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10763888888888895</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>55831</v>
       </c>
       <c r="F136" s="2">
         <v>15</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>230</v>
       </c>
       <c r="H136" s="1"/>
@@ -5500,7 +5651,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -5510,11 +5661,11 @@
         <v>2739</v>
       </c>
       <c r="E137" s="7">
+        <f t="shared" si="8"/>
+        <v>58570</v>
+      </c>
+      <c r="G137" s="2">
         <f t="shared" si="9"/>
-        <v>58570</v>
-      </c>
-      <c r="G137" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H137" s="1"/>
@@ -5526,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C138" s="4"/>
@@ -5534,11 +5685,11 @@
         <v>30</v>
       </c>
       <c r="E138" s="7">
+        <f t="shared" si="8"/>
+        <v>58600</v>
+      </c>
+      <c r="G138" s="2">
         <f t="shared" si="9"/>
-        <v>58600</v>
-      </c>
-      <c r="G138" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H138" s="1"/>
@@ -5550,18 +5701,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E139" s="7">
+        <f t="shared" si="8"/>
+        <v>58600</v>
+      </c>
+      <c r="G139" s="2">
         <f t="shared" si="9"/>
-        <v>58600</v>
-      </c>
-      <c r="G139" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H139" s="1"/>
@@ -5573,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5583,11 +5734,11 @@
         <v>-735</v>
       </c>
       <c r="E140" s="7">
+        <f t="shared" si="8"/>
+        <v>57865</v>
+      </c>
+      <c r="G140" s="2">
         <f t="shared" si="9"/>
-        <v>57865</v>
-      </c>
-      <c r="G140" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H140" s="1"/>
@@ -5599,7 +5750,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -5609,11 +5760,11 @@
         <v>1624</v>
       </c>
       <c r="E141" s="7">
+        <f t="shared" si="8"/>
+        <v>59489</v>
+      </c>
+      <c r="G141" s="2">
         <f t="shared" si="9"/>
-        <v>59489</v>
-      </c>
-      <c r="G141" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -5630,7 +5781,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5640,11 +5791,11 @@
         <v>1553</v>
       </c>
       <c r="E142" s="7">
+        <f t="shared" si="8"/>
+        <v>61042</v>
+      </c>
+      <c r="G142" s="2">
         <f t="shared" si="9"/>
-        <v>61042</v>
-      </c>
-      <c r="G142" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H142" s="1"/>
@@ -5656,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C143" s="4"/>
@@ -5664,11 +5815,11 @@
         <v>1000</v>
       </c>
       <c r="E143" s="7">
+        <f t="shared" si="8"/>
+        <v>62042</v>
+      </c>
+      <c r="G143" s="2">
         <f t="shared" si="9"/>
-        <v>62042</v>
-      </c>
-      <c r="G143" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H143" s="1"/>
@@ -5680,7 +5831,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11319444444444449</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -5690,11 +5841,11 @@
         <v>778</v>
       </c>
       <c r="E144" s="7">
+        <f t="shared" si="8"/>
+        <v>62820</v>
+      </c>
+      <c r="G144" s="2">
         <f t="shared" si="9"/>
-        <v>62820</v>
-      </c>
-      <c r="G144" s="2">
-        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H144" s="1"/>
@@ -5706,21 +5857,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>62820</v>
       </c>
       <c r="F145" s="2">
         <v>15</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>245</v>
       </c>
       <c r="H145" s="1"/>
@@ -5735,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5745,11 +5896,11 @@
         <v>1131</v>
       </c>
       <c r="E146" s="7">
+        <f t="shared" si="8"/>
+        <v>63951</v>
+      </c>
+      <c r="G146" s="2">
         <f t="shared" si="9"/>
-        <v>63951</v>
-      </c>
-      <c r="G146" s="2">
-        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H146" s="1"/>
@@ -5761,7 +5912,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11527777777777781</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -5771,11 +5922,11 @@
         <v>656</v>
       </c>
       <c r="E147" s="7">
+        <f t="shared" si="8"/>
+        <v>64607</v>
+      </c>
+      <c r="G147" s="2">
         <f t="shared" si="9"/>
-        <v>64607</v>
-      </c>
-      <c r="G147" s="2">
-        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H147" s="1"/>
@@ -5787,7 +5938,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11597222222222225</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -5797,11 +5948,11 @@
         <v>849</v>
       </c>
       <c r="E148" s="7">
+        <f t="shared" si="8"/>
+        <v>65456</v>
+      </c>
+      <c r="G148" s="2">
         <f t="shared" si="9"/>
-        <v>65456</v>
-      </c>
-      <c r="G148" s="2">
-        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H148" s="1"/>
@@ -5813,7 +5964,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11736111111111114</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -5823,11 +5974,11 @@
         <v>-735</v>
       </c>
       <c r="E149" s="7">
+        <f t="shared" si="8"/>
+        <v>64721</v>
+      </c>
+      <c r="G149" s="2">
         <f t="shared" si="9"/>
-        <v>64721</v>
-      </c>
-      <c r="G149" s="2">
-        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H149" s="1"/>
@@ -5839,7 +5990,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11805555555555558</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -5849,11 +6000,11 @@
         <v>-2100</v>
       </c>
       <c r="E150" s="7">
+        <f t="shared" si="8"/>
+        <v>62621</v>
+      </c>
+      <c r="G150" s="2">
         <f t="shared" si="9"/>
-        <v>62621</v>
-      </c>
-      <c r="G150" s="2">
-        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H150" s="1"/>
@@ -5865,7 +6016,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11875000000000002</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -5875,11 +6026,11 @@
         <v>911</v>
       </c>
       <c r="E151" s="7">
+        <f t="shared" si="8"/>
+        <v>63532</v>
+      </c>
+      <c r="G151" s="2">
         <f t="shared" si="9"/>
-        <v>63532</v>
-      </c>
-      <c r="G151" s="2">
-        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H151" s="1"/>
@@ -5891,7 +6042,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12013888888888891</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -5901,11 +6052,11 @@
         <v>948</v>
       </c>
       <c r="E152" s="7">
+        <f t="shared" si="8"/>
+        <v>64480</v>
+      </c>
+      <c r="G152" s="2">
         <f t="shared" si="9"/>
-        <v>64480</v>
-      </c>
-      <c r="G152" s="2">
-        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -5922,21 +6073,21 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E153" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>64480</v>
       </c>
       <c r="F153" s="2">
         <v>15</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="H153" s="1"/>
@@ -5951,18 +6102,18 @@
         <v>0</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E154" s="7">
+        <f t="shared" si="8"/>
+        <v>64480</v>
+      </c>
+      <c r="G154" s="2">
         <f t="shared" si="9"/>
-        <v>64480</v>
-      </c>
-      <c r="G154" s="2">
-        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H154" s="1"/>
@@ -5977,7 +6128,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12222222222222225</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -5987,11 +6138,11 @@
         <v>1085</v>
       </c>
       <c r="E155" s="7">
+        <f t="shared" si="8"/>
+        <v>65565</v>
+      </c>
+      <c r="G155" s="2">
         <f t="shared" si="9"/>
-        <v>65565</v>
-      </c>
-      <c r="G155" s="2">
-        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H155" s="1"/>
@@ -6003,7 +6154,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12291666666666669</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -6013,11 +6164,11 @@
         <v>-560</v>
       </c>
       <c r="E156" s="7">
+        <f t="shared" si="8"/>
+        <v>65005</v>
+      </c>
+      <c r="G156" s="2">
         <f t="shared" si="9"/>
-        <v>65005</v>
-      </c>
-      <c r="G156" s="2">
-        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H156" s="1"/>
@@ -6029,7 +6180,7 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -6039,11 +6190,11 @@
         <v>499</v>
       </c>
       <c r="E157" s="7">
+        <f t="shared" si="8"/>
+        <v>65504</v>
+      </c>
+      <c r="G157" s="2">
         <f t="shared" si="9"/>
-        <v>65504</v>
-      </c>
-      <c r="G157" s="2">
-        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H157" s="1"/>
@@ -6055,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C158" s="4"/>
@@ -6063,11 +6214,11 @@
         <v>2500</v>
       </c>
       <c r="E158" s="7">
+        <f t="shared" si="8"/>
+        <v>68004</v>
+      </c>
+      <c r="G158" s="2">
         <f t="shared" si="9"/>
-        <v>68004</v>
-      </c>
-      <c r="G158" s="2">
-        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H158" s="1"/>
@@ -6079,21 +6230,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E159" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>68004</v>
       </c>
       <c r="F159" s="2">
         <v>10</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="H159" s="1"/>
@@ -6105,7 +6256,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12638888888888891</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -6115,11 +6266,11 @@
         <v>2236</v>
       </c>
       <c r="E160" s="7">
+        <f t="shared" si="8"/>
+        <v>70240</v>
+      </c>
+      <c r="G160" s="2">
         <f t="shared" si="9"/>
-        <v>70240</v>
-      </c>
-      <c r="G160" s="2">
-        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="H160" s="1"/>
@@ -6131,7 +6282,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1277777777777778</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -6141,11 +6292,11 @@
         <v>946</v>
       </c>
       <c r="E161" s="7">
+        <f t="shared" si="8"/>
+        <v>71186</v>
+      </c>
+      <c r="G161" s="2">
         <f t="shared" si="9"/>
-        <v>71186</v>
-      </c>
-      <c r="G161" s="2">
-        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="H161" s="1"/>
@@ -6158,7 +6309,7 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12916666666666671</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -6168,11 +6319,11 @@
         <v>1970</v>
       </c>
       <c r="E162" s="7">
+        <f t="shared" si="8"/>
+        <v>73156</v>
+      </c>
+      <c r="G162" s="2">
         <f t="shared" si="9"/>
-        <v>73156</v>
-      </c>
-      <c r="G162" s="2">
-        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -6190,21 +6341,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12986111111111115</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E163" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>73156</v>
       </c>
       <c r="F163" s="2">
         <v>15</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>285</v>
       </c>
       <c r="H163" s="1"/>
@@ -6220,7 +6371,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13055555555555559</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -6230,11 +6381,11 @@
         <v>1075</v>
       </c>
       <c r="E164" s="7">
+        <f t="shared" si="8"/>
+        <v>74231</v>
+      </c>
+      <c r="G164" s="2">
         <f t="shared" si="9"/>
-        <v>74231</v>
-      </c>
-      <c r="G164" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H164" s="1"/>
@@ -6247,7 +6398,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -6257,11 +6408,11 @@
         <v>1401</v>
       </c>
       <c r="E165" s="7">
+        <f t="shared" si="8"/>
+        <v>75632</v>
+      </c>
+      <c r="G165" s="2">
         <f t="shared" si="9"/>
-        <v>75632</v>
-      </c>
-      <c r="G165" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H165" s="1"/>
@@ -6274,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C166" s="4"/>
@@ -6282,11 +6433,11 @@
         <v>1000</v>
       </c>
       <c r="E166" s="7">
+        <f t="shared" si="8"/>
+        <v>76632</v>
+      </c>
+      <c r="G166" s="2">
         <f t="shared" si="9"/>
-        <v>76632</v>
-      </c>
-      <c r="G166" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H166" s="1"/>
@@ -6299,7 +6450,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13333333333333336</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -6309,11 +6460,11 @@
         <v>-735</v>
       </c>
       <c r="E167" s="7">
+        <f t="shared" si="8"/>
+        <v>75897</v>
+      </c>
+      <c r="G167" s="2">
         <f t="shared" si="9"/>
-        <v>75897</v>
-      </c>
-      <c r="G167" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H167" s="1"/>
@@ -6326,18 +6477,18 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E168" s="7">
+        <f t="shared" si="8"/>
+        <v>75897</v>
+      </c>
+      <c r="G168" s="2">
         <f t="shared" si="9"/>
-        <v>75897</v>
-      </c>
-      <c r="G168" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H168" s="1"/>
@@ -6350,16 +6501,16 @@
         <v>0</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C169" s="4"/>
       <c r="E169" s="7">
+        <f t="shared" si="8"/>
+        <v>75897</v>
+      </c>
+      <c r="G169" s="2">
         <f t="shared" si="9"/>
-        <v>75897</v>
-      </c>
-      <c r="G169" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H169" s="1"/>
@@ -6372,18 +6523,18 @@
         <v>0</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E170" s="7">
+        <f t="shared" si="8"/>
+        <v>75897</v>
+      </c>
+      <c r="G170" s="2">
         <f t="shared" si="9"/>
-        <v>75897</v>
-      </c>
-      <c r="G170" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H170" s="1"/>
@@ -6396,7 +6547,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -6406,11 +6557,11 @@
         <v>-123</v>
       </c>
       <c r="E171" s="7">
+        <f t="shared" si="8"/>
+        <v>75774</v>
+      </c>
+      <c r="G171" s="2">
         <f t="shared" si="9"/>
-        <v>75774</v>
-      </c>
-      <c r="G171" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H171" s="1"/>
@@ -6423,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C172" s="4"/>
@@ -6431,11 +6582,11 @@
         <v>-123</v>
       </c>
       <c r="E172" s="7">
+        <f t="shared" si="8"/>
+        <v>75651</v>
+      </c>
+      <c r="G172" s="2">
         <f t="shared" si="9"/>
-        <v>75651</v>
-      </c>
-      <c r="G172" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H172" s="1"/>
@@ -6448,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C173" s="4"/>
@@ -6456,11 +6607,11 @@
         <v>-350</v>
       </c>
       <c r="E173" s="7">
+        <f t="shared" si="8"/>
+        <v>75301</v>
+      </c>
+      <c r="G173" s="2">
         <f t="shared" si="9"/>
-        <v>75301</v>
-      </c>
-      <c r="G173" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H173" s="1"/>
@@ -6473,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C174" s="4"/>
@@ -6481,11 +6632,11 @@
         <v>-1000</v>
       </c>
       <c r="E174" s="7">
+        <f t="shared" si="8"/>
+        <v>74301</v>
+      </c>
+      <c r="G174" s="2">
         <f t="shared" si="9"/>
-        <v>74301</v>
-      </c>
-      <c r="G174" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H174" s="1"/>
@@ -6498,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C175" s="4"/>
@@ -6506,11 +6657,11 @@
         <v>-123</v>
       </c>
       <c r="E175" s="7">
+        <f t="shared" si="8"/>
+        <v>74178</v>
+      </c>
+      <c r="G175" s="2">
         <f t="shared" si="9"/>
-        <v>74178</v>
-      </c>
-      <c r="G175" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H175" s="1"/>
@@ -6523,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C176" s="4"/>
@@ -6531,11 +6682,11 @@
         <v>-350</v>
       </c>
       <c r="E176" s="7">
+        <f t="shared" si="8"/>
+        <v>73828</v>
+      </c>
+      <c r="G176" s="2">
         <f t="shared" si="9"/>
-        <v>73828</v>
-      </c>
-      <c r="G176" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H176" s="1"/>
@@ -6548,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C177" s="4"/>
@@ -6556,11 +6707,11 @@
         <v>-1500</v>
       </c>
       <c r="E177" s="7">
+        <f t="shared" si="8"/>
+        <v>72328</v>
+      </c>
+      <c r="G177" s="2">
         <f t="shared" si="9"/>
-        <v>72328</v>
-      </c>
-      <c r="G177" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H177" s="1"/>
@@ -6573,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C178" s="4"/>
@@ -6581,11 +6732,11 @@
         <v>-196</v>
       </c>
       <c r="E178" s="7">
+        <f t="shared" si="8"/>
+        <v>72132</v>
+      </c>
+      <c r="G178" s="2">
         <f t="shared" si="9"/>
-        <v>72132</v>
-      </c>
-      <c r="G178" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H178" s="1"/>
@@ -6598,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C179" s="4"/>
@@ -6606,11 +6757,11 @@
         <v>-350</v>
       </c>
       <c r="E179" s="7">
+        <f t="shared" si="8"/>
+        <v>71782</v>
+      </c>
+      <c r="G179" s="2">
         <f t="shared" si="9"/>
-        <v>71782</v>
-      </c>
-      <c r="G179" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H179" s="1"/>
@@ -6623,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C180" s="4"/>
@@ -6631,11 +6782,11 @@
         <v>-350</v>
       </c>
       <c r="E180" s="7">
+        <f t="shared" si="8"/>
+        <v>71432</v>
+      </c>
+      <c r="G180" s="2">
         <f t="shared" si="9"/>
-        <v>71432</v>
-      </c>
-      <c r="G180" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H180" s="1"/>
@@ -6648,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C181" s="4"/>
@@ -6656,11 +6807,11 @@
         <v>-350</v>
       </c>
       <c r="E181" s="7">
+        <f t="shared" si="8"/>
+        <v>71082</v>
+      </c>
+      <c r="G181" s="2">
         <f t="shared" si="9"/>
-        <v>71082</v>
-      </c>
-      <c r="G181" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H181" s="1"/>
@@ -6673,7 +6824,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13819444444444445</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -6683,11 +6834,11 @@
         <v>1638</v>
       </c>
       <c r="E182" s="7">
+        <f t="shared" si="8"/>
+        <v>72720</v>
+      </c>
+      <c r="G182" s="2">
         <f t="shared" si="9"/>
-        <v>72720</v>
-      </c>
-      <c r="G182" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H182" s="1"/>
@@ -6700,7 +6851,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13958333333333334</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -6710,11 +6861,11 @@
         <v>1478</v>
       </c>
       <c r="E183" s="7">
+        <f t="shared" si="8"/>
+        <v>74198</v>
+      </c>
+      <c r="G183" s="2">
         <f t="shared" si="9"/>
-        <v>74198</v>
-      </c>
-      <c r="G183" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -6732,7 +6883,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14097222222222222</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -6742,11 +6893,11 @@
         <v>0</v>
       </c>
       <c r="E184" s="7">
+        <f t="shared" si="8"/>
+        <v>74198</v>
+      </c>
+      <c r="G184" s="2">
         <f t="shared" si="9"/>
-        <v>74198</v>
-      </c>
-      <c r="G184" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H184" s="1"/>
@@ -6759,7 +6910,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1423611111111111</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -6769,11 +6920,11 @@
         <v>2138</v>
       </c>
       <c r="E185" s="7">
+        <f t="shared" si="8"/>
+        <v>76336</v>
+      </c>
+      <c r="G185" s="2">
         <f t="shared" si="9"/>
-        <v>76336</v>
-      </c>
-      <c r="G185" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H185" s="1"/>
@@ -6786,7 +6937,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14374999999999999</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -6796,11 +6947,11 @@
         <v>-350</v>
       </c>
       <c r="E186" s="7">
+        <f t="shared" si="8"/>
+        <v>75986</v>
+      </c>
+      <c r="G186" s="2">
         <f t="shared" si="9"/>
-        <v>75986</v>
-      </c>
-      <c r="G186" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H186" s="1"/>
@@ -6813,7 +6964,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14444444444444449</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -6823,11 +6974,11 @@
         <v>501</v>
       </c>
       <c r="E187" s="7">
+        <f t="shared" si="8"/>
+        <v>76487</v>
+      </c>
+      <c r="G187" s="2">
         <f t="shared" si="9"/>
-        <v>76487</v>
-      </c>
-      <c r="G187" s="2">
-        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -6845,21 +6996,21 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14513888888888887</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E188" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>76487</v>
       </c>
       <c r="F188" s="2">
         <v>15</v>
       </c>
       <c r="G188" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="H188" s="1"/>
@@ -6875,7 +7026,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -6885,11 +7036,11 @@
         <v>681</v>
       </c>
       <c r="E189" s="7">
+        <f t="shared" si="8"/>
+        <v>77168</v>
+      </c>
+      <c r="G189" s="2">
         <f t="shared" si="9"/>
-        <v>77168</v>
-      </c>
-      <c r="G189" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H189" s="1"/>
@@ -6902,18 +7053,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14652777777777776</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E190" s="7">
+        <f t="shared" si="8"/>
+        <v>77168</v>
+      </c>
+      <c r="G190" s="2">
         <f t="shared" si="9"/>
-        <v>77168</v>
-      </c>
-      <c r="G190" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -6931,18 +7082,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14722222222222225</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E191" s="7">
+        <f t="shared" si="8"/>
+        <v>77168</v>
+      </c>
+      <c r="G191" s="2">
         <f t="shared" si="9"/>
-        <v>77168</v>
-      </c>
-      <c r="G191" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H191" s="1"/>
@@ -6958,18 +7109,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1479166666666667</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E192" s="7">
+        <f t="shared" si="8"/>
+        <v>77168</v>
+      </c>
+      <c r="G192" s="2">
         <f t="shared" si="9"/>
-        <v>77168</v>
-      </c>
-      <c r="G192" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H192" s="1"/>
@@ -6982,7 +7133,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -6992,11 +7143,11 @@
         <v>1858</v>
       </c>
       <c r="E193" s="7">
+        <f t="shared" si="8"/>
+        <v>79026</v>
+      </c>
+      <c r="G193" s="2">
         <f t="shared" si="9"/>
-        <v>79026</v>
-      </c>
-      <c r="G193" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H193" s="1"/>
@@ -7009,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -7019,11 +7170,11 @@
         <v>1488</v>
       </c>
       <c r="E194" s="7">
+        <f t="shared" si="8"/>
+        <v>80514</v>
+      </c>
+      <c r="G194" s="2">
         <f t="shared" si="9"/>
-        <v>80514</v>
-      </c>
-      <c r="G194" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H194" s="1"/>
@@ -7036,7 +7187,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14930555555555558</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -7046,11 +7197,11 @@
         <v>1313</v>
       </c>
       <c r="E195" s="7">
+        <f t="shared" si="8"/>
+        <v>81827</v>
+      </c>
+      <c r="G195" s="2">
         <f t="shared" si="9"/>
-        <v>81827</v>
-      </c>
-      <c r="G195" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H195" s="1"/>
@@ -7063,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" ref="B196:B259" si="11">B195+A196</f>
+        <f t="shared" ref="B196:B259" si="10">B195+A196</f>
         <v>0.14930555555555558</v>
       </c>
       <c r="C196" s="4"/>
@@ -7071,11 +7222,11 @@
         <v>2500</v>
       </c>
       <c r="E196" s="7">
+        <f t="shared" si="8"/>
+        <v>84327</v>
+      </c>
+      <c r="G196" s="2">
         <f t="shared" si="9"/>
-        <v>84327</v>
-      </c>
-      <c r="G196" s="2">
-        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H196" s="1"/>
@@ -7088,7 +7239,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C197" s="4" t="s">
@@ -7098,11 +7249,11 @@
         <v>-1500</v>
       </c>
       <c r="E197" s="7">
-        <f t="shared" ref="E197:E260" si="12">E196+D197</f>
+        <f t="shared" ref="E197:E260" si="11">E196+D197</f>
         <v>82827</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G260" si="13">G196+F197</f>
+        <f t="shared" ref="G197:G260" si="12">G196+F197</f>
         <v>300</v>
       </c>
       <c r="H197" s="1"/>
@@ -7115,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -7125,11 +7276,11 @@
         <v>1298</v>
       </c>
       <c r="E198" s="7">
+        <f t="shared" si="11"/>
+        <v>84125</v>
+      </c>
+      <c r="G198" s="2">
         <f t="shared" si="12"/>
-        <v>84125</v>
-      </c>
-      <c r="G198" s="2">
-        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H198" s="1"/>
@@ -7142,7 +7293,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15208333333333335</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -7152,11 +7303,11 @@
         <v>763</v>
       </c>
       <c r="E199" s="7">
+        <f t="shared" si="11"/>
+        <v>84888</v>
+      </c>
+      <c r="G199" s="2">
         <f t="shared" si="12"/>
-        <v>84888</v>
-      </c>
-      <c r="G199" s="2">
-        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -7174,7 +7325,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -7184,11 +7335,11 @@
         <v>1919</v>
       </c>
       <c r="E200" s="7">
+        <f t="shared" si="11"/>
+        <v>86807</v>
+      </c>
+      <c r="G200" s="2">
         <f t="shared" si="12"/>
-        <v>86807</v>
-      </c>
-      <c r="G200" s="2">
-        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H200" s="1"/>
@@ -7201,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C201" s="4"/>
@@ -7209,11 +7360,11 @@
         <v>2500</v>
       </c>
       <c r="E201" s="7">
+        <f t="shared" si="11"/>
+        <v>89307</v>
+      </c>
+      <c r="G201" s="2">
         <f t="shared" si="12"/>
-        <v>89307</v>
-      </c>
-      <c r="G201" s="2">
-        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H201" s="1"/>
@@ -7226,21 +7377,21 @@
         <v>0</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E202" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>89307</v>
       </c>
       <c r="F202" s="2">
         <v>15</v>
       </c>
       <c r="G202" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>315</v>
       </c>
       <c r="H202" s="1"/>
@@ -7256,7 +7407,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B203" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15347222222222223</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -7266,11 +7417,11 @@
         <v>813</v>
       </c>
       <c r="E203" s="7">
+        <f t="shared" si="11"/>
+        <v>90120</v>
+      </c>
+      <c r="G203" s="2">
         <f t="shared" si="12"/>
-        <v>90120</v>
-      </c>
-      <c r="G203" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -7288,18 +7439,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B204" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15486111111111112</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E204" s="7">
+        <f t="shared" si="11"/>
+        <v>90120</v>
+      </c>
+      <c r="G204" s="2">
         <f t="shared" si="12"/>
-        <v>90120</v>
-      </c>
-      <c r="G204" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -7317,7 +7468,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -7327,11 +7478,11 @@
         <v>1861</v>
       </c>
       <c r="E205" s="7">
+        <f t="shared" si="11"/>
+        <v>91981</v>
+      </c>
+      <c r="G205" s="2">
         <f t="shared" si="12"/>
-        <v>91981</v>
-      </c>
-      <c r="G205" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -7349,18 +7500,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E206" s="7">
+        <f t="shared" si="11"/>
+        <v>91981</v>
+      </c>
+      <c r="G206" s="2">
         <f t="shared" si="12"/>
-        <v>91981</v>
-      </c>
-      <c r="G206" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -7378,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -7388,11 +7539,11 @@
         <v>494</v>
       </c>
       <c r="E207" s="7">
+        <f t="shared" si="11"/>
+        <v>92475</v>
+      </c>
+      <c r="G207" s="2">
         <f t="shared" si="12"/>
-        <v>92475</v>
-      </c>
-      <c r="G207" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H207" s="1"/>
@@ -7405,7 +7556,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15902777777777777</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -7415,11 +7566,11 @@
         <v>0</v>
       </c>
       <c r="E208" s="7">
+        <f t="shared" si="11"/>
+        <v>92475</v>
+      </c>
+      <c r="G208" s="2">
         <f t="shared" si="12"/>
-        <v>92475</v>
-      </c>
-      <c r="G208" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H208" s="1"/>
@@ -7432,7 +7583,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C209" s="4" t="s">
@@ -7442,11 +7593,11 @@
         <v>1854</v>
       </c>
       <c r="E209" s="7">
+        <f t="shared" si="11"/>
+        <v>94329</v>
+      </c>
+      <c r="G209" s="2">
         <f t="shared" si="12"/>
-        <v>94329</v>
-      </c>
-      <c r="G209" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H209" s="1"/>
@@ -7459,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -7469,11 +7620,11 @@
         <v>1322</v>
       </c>
       <c r="E210" s="7">
+        <f t="shared" si="11"/>
+        <v>95651</v>
+      </c>
+      <c r="G210" s="2">
         <f t="shared" si="12"/>
-        <v>95651</v>
-      </c>
-      <c r="G210" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H210" s="1"/>
@@ -7486,7 +7637,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16111111111111115</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -7496,11 +7647,11 @@
         <v>1217</v>
       </c>
       <c r="E211" s="7">
+        <f t="shared" si="11"/>
+        <v>96868</v>
+      </c>
+      <c r="G211" s="2">
         <f t="shared" si="12"/>
-        <v>96868</v>
-      </c>
-      <c r="G211" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -7518,18 +7669,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16250000000000003</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E212" s="7">
+        <f t="shared" si="11"/>
+        <v>96868</v>
+      </c>
+      <c r="G212" s="2">
         <f t="shared" si="12"/>
-        <v>96868</v>
-      </c>
-      <c r="G212" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H212" s="1"/>
@@ -7542,18 +7693,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E213" s="7">
+        <f t="shared" si="11"/>
+        <v>96868</v>
+      </c>
+      <c r="G213" s="2">
         <f t="shared" si="12"/>
-        <v>96868</v>
-      </c>
-      <c r="G213" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H213" s="1"/>
@@ -7566,18 +7717,18 @@
         <v>0</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E214" s="7">
+        <f t="shared" si="11"/>
+        <v>96868</v>
+      </c>
+      <c r="G214" s="2">
         <f t="shared" si="12"/>
-        <v>96868</v>
-      </c>
-      <c r="G214" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H214" s="1"/>
@@ -7590,18 +7741,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.1645833333333333</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E215" s="7">
+        <f t="shared" si="11"/>
+        <v>96868</v>
+      </c>
+      <c r="G215" s="2">
         <f t="shared" si="12"/>
-        <v>96868</v>
-      </c>
-      <c r="G215" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H215" s="1"/>
@@ -7614,7 +7765,7 @@
         <v>3.4722222222222654E-3</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -7624,11 +7775,11 @@
         <v>-840</v>
       </c>
       <c r="E216" s="7">
+        <f t="shared" si="11"/>
+        <v>96028</v>
+      </c>
+      <c r="G216" s="2">
         <f t="shared" si="12"/>
-        <v>96028</v>
-      </c>
-      <c r="G216" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H216" s="1"/>
@@ -7641,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -7651,11 +7802,11 @@
         <v>-525</v>
       </c>
       <c r="E217" s="7">
+        <f t="shared" si="11"/>
+        <v>95503</v>
+      </c>
+      <c r="G217" s="2">
         <f t="shared" si="12"/>
-        <v>95503</v>
-      </c>
-      <c r="G217" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H217" s="1"/>
@@ -7668,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C218" s="4"/>
@@ -7676,11 +7827,11 @@
         <v>-392</v>
       </c>
       <c r="E218" s="7">
+        <f t="shared" si="11"/>
+        <v>95111</v>
+      </c>
+      <c r="G218" s="2">
         <f t="shared" si="12"/>
-        <v>95111</v>
-      </c>
-      <c r="G218" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H218" s="1"/>
@@ -7693,18 +7844,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16944444444444445</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E219" s="7">
+        <f t="shared" si="11"/>
+        <v>95111</v>
+      </c>
+      <c r="G219" s="2">
         <f t="shared" si="12"/>
-        <v>95111</v>
-      </c>
-      <c r="G219" s="2">
-        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H219" s="1"/>
@@ -7717,21 +7868,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17013888888888895</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E220" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>95111</v>
       </c>
       <c r="F220" s="2">
         <v>7</v>
       </c>
       <c r="G220" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>322</v>
       </c>
       <c r="H220" s="1"/>
@@ -7744,16 +7895,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17083333333333334</v>
       </c>
       <c r="C221" s="4"/>
       <c r="E221" s="7">
+        <f t="shared" si="11"/>
+        <v>95111</v>
+      </c>
+      <c r="G221" s="2">
         <f t="shared" si="12"/>
-        <v>95111</v>
-      </c>
-      <c r="G221" s="2">
-        <f t="shared" si="13"/>
         <v>322</v>
       </c>
       <c r="H221" s="1"/>
@@ -7766,21 +7917,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17152777777777783</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E222" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>95111</v>
       </c>
       <c r="F222" s="2">
         <v>15</v>
       </c>
       <c r="G222" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>337</v>
       </c>
       <c r="H222" s="1"/>
@@ -7796,16 +7947,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17222222222222222</v>
       </c>
       <c r="C223" s="4"/>
       <c r="E223" s="7">
+        <f t="shared" si="11"/>
+        <v>95111</v>
+      </c>
+      <c r="G223" s="2">
         <f t="shared" si="12"/>
-        <v>95111</v>
-      </c>
-      <c r="G223" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H223" s="1"/>
@@ -7818,7 +7969,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -7828,11 +7979,11 @@
         <v>-350</v>
       </c>
       <c r="E224" s="7">
+        <f t="shared" si="11"/>
+        <v>94761</v>
+      </c>
+      <c r="G224" s="2">
         <f t="shared" si="12"/>
-        <v>94761</v>
-      </c>
-      <c r="G224" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H224" s="1"/>
@@ -7845,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C225" s="4"/>
@@ -7853,11 +8004,11 @@
         <v>-350</v>
       </c>
       <c r="E225" s="7">
+        <f t="shared" si="11"/>
+        <v>94411</v>
+      </c>
+      <c r="G225" s="2">
         <f t="shared" si="12"/>
-        <v>94411</v>
-      </c>
-      <c r="G225" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H225" s="1"/>
@@ -7870,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C226" s="4"/>
@@ -7878,11 +8029,11 @@
         <v>-1000</v>
       </c>
       <c r="E226" s="7">
+        <f t="shared" si="11"/>
+        <v>93411</v>
+      </c>
+      <c r="G226" s="2">
         <f t="shared" si="12"/>
-        <v>93411</v>
-      </c>
-      <c r="G226" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H226" s="1"/>
@@ -7895,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C227" s="4"/>
@@ -7903,11 +8054,11 @@
         <v>-350</v>
       </c>
       <c r="E227" s="7">
+        <f t="shared" si="11"/>
+        <v>93061</v>
+      </c>
+      <c r="G227" s="2">
         <f t="shared" si="12"/>
-        <v>93061</v>
-      </c>
-      <c r="G227" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H227" s="1"/>
@@ -7920,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C228" s="4"/>
@@ -7928,11 +8079,11 @@
         <v>-1000</v>
       </c>
       <c r="E228" s="7">
+        <f t="shared" si="11"/>
+        <v>92061</v>
+      </c>
+      <c r="G228" s="2">
         <f t="shared" si="12"/>
-        <v>92061</v>
-      </c>
-      <c r="G228" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H228" s="1"/>
@@ -7945,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C229" s="4"/>
@@ -7953,11 +8104,11 @@
         <v>-1000</v>
       </c>
       <c r="E229" s="7">
+        <f t="shared" si="11"/>
+        <v>91061</v>
+      </c>
+      <c r="G229" s="2">
         <f t="shared" si="12"/>
-        <v>91061</v>
-      </c>
-      <c r="G229" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H229" s="1"/>
@@ -7970,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C230" s="4"/>
@@ -7978,11 +8129,11 @@
         <v>-350</v>
       </c>
       <c r="E230" s="7">
+        <f t="shared" si="11"/>
+        <v>90711</v>
+      </c>
+      <c r="G230" s="2">
         <f t="shared" si="12"/>
-        <v>90711</v>
-      </c>
-      <c r="G230" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H230" s="1"/>
@@ -7995,7 +8146,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -8005,11 +8156,11 @@
         <v>-1000</v>
       </c>
       <c r="E231" s="7">
+        <f t="shared" si="11"/>
+        <v>89711</v>
+      </c>
+      <c r="G231" s="2">
         <f t="shared" si="12"/>
-        <v>89711</v>
-      </c>
-      <c r="G231" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H231" s="1"/>
@@ -8022,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C232" s="4"/>
@@ -8030,11 +8181,11 @@
         <v>-350</v>
       </c>
       <c r="E232" s="7">
+        <f t="shared" si="11"/>
+        <v>89361</v>
+      </c>
+      <c r="G232" s="2">
         <f t="shared" si="12"/>
-        <v>89361</v>
-      </c>
-      <c r="G232" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H232" s="1"/>
@@ -8047,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C233" s="4"/>
@@ -8055,11 +8206,11 @@
         <v>-350</v>
       </c>
       <c r="E233" s="7">
+        <f t="shared" si="11"/>
+        <v>89011</v>
+      </c>
+      <c r="G233" s="2">
         <f t="shared" si="12"/>
-        <v>89011</v>
-      </c>
-      <c r="G233" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H233" s="1"/>
@@ -8072,7 +8223,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17777777777777776</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -8082,11 +8233,11 @@
         <v>-1000</v>
       </c>
       <c r="E234" s="7">
+        <f t="shared" si="11"/>
+        <v>88011</v>
+      </c>
+      <c r="G234" s="2">
         <f t="shared" si="12"/>
-        <v>88011</v>
-      </c>
-      <c r="G234" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H234" s="1"/>
@@ -8099,7 +8250,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17847222222222225</v>
       </c>
       <c r="C235" s="4" t="s">
@@ -8109,11 +8260,11 @@
         <v>541</v>
       </c>
       <c r="E235" s="7">
+        <f t="shared" si="11"/>
+        <v>88552</v>
+      </c>
+      <c r="G235" s="2">
         <f t="shared" si="12"/>
-        <v>88552</v>
-      </c>
-      <c r="G235" s="2">
-        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H235" s="1"/>
@@ -8126,21 +8277,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.1791666666666667</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E236" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>88552</v>
       </c>
       <c r="F236" s="2">
         <v>10</v>
       </c>
       <c r="G236" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>347</v>
       </c>
       <c r="H236" s="1"/>
@@ -8153,7 +8304,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17986111111111114</v>
       </c>
       <c r="C237" s="4" t="s">
@@ -8163,11 +8314,11 @@
         <v>-350</v>
       </c>
       <c r="E237" s="7">
+        <f t="shared" si="11"/>
+        <v>88202</v>
+      </c>
+      <c r="G237" s="2">
         <f t="shared" si="12"/>
-        <v>88202</v>
-      </c>
-      <c r="G237" s="2">
-        <f t="shared" si="13"/>
         <v>347</v>
       </c>
       <c r="H237" s="1"/>
@@ -8180,21 +8331,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18055555555555558</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E238" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>88202</v>
       </c>
       <c r="F238" s="2">
         <v>12</v>
       </c>
       <c r="G238" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>359</v>
       </c>
       <c r="H238" s="1"/>
@@ -8207,18 +8358,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E239" s="7">
+        <f t="shared" si="11"/>
+        <v>88202</v>
+      </c>
+      <c r="G239" s="2">
         <f t="shared" si="12"/>
-        <v>88202</v>
-      </c>
-      <c r="G239" s="2">
-        <f t="shared" si="13"/>
         <v>359</v>
       </c>
       <c r="H239" s="1" t="s">
@@ -8236,19 +8387,19 @@
         <v>0</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C240" s="4"/>
       <c r="E240" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>88202</v>
       </c>
       <c r="F240" s="2">
         <v>30</v>
       </c>
       <c r="G240" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>389</v>
       </c>
       <c r="H240" s="1"/>
@@ -8261,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C241" s="4"/>
@@ -8269,11 +8420,11 @@
         <v>5000</v>
       </c>
       <c r="E241" s="7">
+        <f t="shared" si="11"/>
+        <v>93202</v>
+      </c>
+      <c r="G241" s="2">
         <f t="shared" si="12"/>
-        <v>93202</v>
-      </c>
-      <c r="G241" s="2">
-        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H241" s="1"/>
@@ -8286,16 +8437,16 @@
         <v>0</v>
       </c>
       <c r="B242" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C242" s="4"/>
       <c r="E242" s="7">
+        <f t="shared" si="11"/>
+        <v>93202</v>
+      </c>
+      <c r="G242" s="2">
         <f t="shared" si="12"/>
-        <v>93202</v>
-      </c>
-      <c r="G242" s="2">
-        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -8313,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C243" s="4"/>
       <c r="E243" s="7">
+        <f t="shared" si="11"/>
+        <v>93202</v>
+      </c>
+      <c r="G243" s="2">
         <f t="shared" si="12"/>
-        <v>93202</v>
-      </c>
-      <c r="G243" s="2">
-        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -8340,16 +8491,16 @@
         <v>0</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C244" s="4"/>
       <c r="E244" s="7">
+        <f t="shared" si="11"/>
+        <v>93202</v>
+      </c>
+      <c r="G244" s="2">
         <f t="shared" si="12"/>
-        <v>93202</v>
-      </c>
-      <c r="G244" s="2">
-        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -8367,16 +8518,16 @@
         <v>0</v>
       </c>
       <c r="B245" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C245" s="4"/>
       <c r="E245" s="7">
+        <f t="shared" si="11"/>
+        <v>93202</v>
+      </c>
+      <c r="G245" s="2">
         <f t="shared" si="12"/>
-        <v>93202</v>
-      </c>
-      <c r="G245" s="2">
-        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -8394,21 +8545,21 @@
         <v>0</v>
       </c>
       <c r="B246" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E246" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>93202</v>
       </c>
       <c r="F246" s="2">
         <v>-85</v>
       </c>
       <c r="G246" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>304</v>
       </c>
       <c r="H246" s="1"/>
@@ -8421,7 +8572,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B247" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18402777777777779</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -8431,11 +8582,11 @@
         <v>-147</v>
       </c>
       <c r="E247" s="7">
+        <f t="shared" si="11"/>
+        <v>93055</v>
+      </c>
+      <c r="G247" s="2">
         <f t="shared" si="12"/>
-        <v>93055</v>
-      </c>
-      <c r="G247" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H247" s="1"/>
@@ -8448,18 +8599,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18472222222222223</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E248" s="7">
+        <f t="shared" si="11"/>
+        <v>93055</v>
+      </c>
+      <c r="G248" s="2">
         <f t="shared" si="12"/>
-        <v>93055</v>
-      </c>
-      <c r="G248" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H248" s="1"/>
@@ -8472,7 +8623,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18680555555555556</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -8482,11 +8633,11 @@
         <v>380</v>
       </c>
       <c r="E249" s="7">
+        <f t="shared" si="11"/>
+        <v>93435</v>
+      </c>
+      <c r="G249" s="2">
         <f t="shared" si="12"/>
-        <v>93435</v>
-      </c>
-      <c r="G249" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H249" s="1"/>
@@ -8499,7 +8650,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -8509,11 +8660,11 @@
         <v>380</v>
       </c>
       <c r="E250" s="7">
+        <f t="shared" si="11"/>
+        <v>93815</v>
+      </c>
+      <c r="G250" s="2">
         <f t="shared" si="12"/>
-        <v>93815</v>
-      </c>
-      <c r="G250" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H250" s="1"/>
@@ -8526,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C251" s="4"/>
@@ -8534,11 +8685,11 @@
         <v>2000</v>
       </c>
       <c r="E251" s="7">
+        <f t="shared" si="11"/>
+        <v>95815</v>
+      </c>
+      <c r="G251" s="2">
         <f t="shared" si="12"/>
-        <v>95815</v>
-      </c>
-      <c r="G251" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H251" s="1"/>
@@ -8551,7 +8702,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18888888888888888</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -8561,11 +8712,11 @@
         <v>380</v>
       </c>
       <c r="E252" s="7">
+        <f t="shared" si="11"/>
+        <v>96195</v>
+      </c>
+      <c r="G252" s="2">
         <f t="shared" si="12"/>
-        <v>96195</v>
-      </c>
-      <c r="G252" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H252" s="1"/>
@@ -8578,7 +8729,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19027777777777777</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -8588,11 +8739,11 @@
         <v>720</v>
       </c>
       <c r="E253" s="7">
+        <f t="shared" si="11"/>
+        <v>96915</v>
+      </c>
+      <c r="G253" s="2">
         <f t="shared" si="12"/>
-        <v>96915</v>
-      </c>
-      <c r="G253" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H253" s="1"/>
@@ -8605,7 +8756,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B254" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19097222222222227</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -8615,11 +8766,11 @@
         <v>820</v>
       </c>
       <c r="E254" s="7">
+        <f t="shared" si="11"/>
+        <v>97735</v>
+      </c>
+      <c r="G254" s="2">
         <f t="shared" si="12"/>
-        <v>97735</v>
-      </c>
-      <c r="G254" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H254" s="1"/>
@@ -8632,7 +8783,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B255" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19166666666666665</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -8642,11 +8793,11 @@
         <v>820</v>
       </c>
       <c r="E255" s="7">
+        <f t="shared" si="11"/>
+        <v>98555</v>
+      </c>
+      <c r="G255" s="2">
         <f t="shared" si="12"/>
-        <v>98555</v>
-      </c>
-      <c r="G255" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H255" s="1"/>
@@ -8659,7 +8810,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B256" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19305555555555554</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -8669,11 +8820,11 @@
         <v>772</v>
       </c>
       <c r="E256" s="7">
+        <f t="shared" si="11"/>
+        <v>99327</v>
+      </c>
+      <c r="G256" s="2">
         <f t="shared" si="12"/>
-        <v>99327</v>
-      </c>
-      <c r="G256" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H256" s="1"/>
@@ -8686,7 +8837,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B257" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19444444444444442</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -8696,11 +8847,11 @@
         <v>960</v>
       </c>
       <c r="E257" s="7">
+        <f t="shared" si="11"/>
+        <v>100287</v>
+      </c>
+      <c r="G257" s="2">
         <f t="shared" si="12"/>
-        <v>100287</v>
-      </c>
-      <c r="G257" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H257" s="1"/>
@@ -8713,18 +8864,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B258" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.1958333333333333</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E258" s="7">
+        <f t="shared" si="11"/>
+        <v>100287</v>
+      </c>
+      <c r="G258" s="2">
         <f t="shared" si="12"/>
-        <v>100287</v>
-      </c>
-      <c r="G258" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -8742,7 +8893,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.1965277777777778</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -8752,11 +8903,11 @@
         <v>-147</v>
       </c>
       <c r="E259" s="7">
+        <f t="shared" si="11"/>
+        <v>100140</v>
+      </c>
+      <c r="G259" s="2">
         <f t="shared" si="12"/>
-        <v>100140</v>
-      </c>
-      <c r="G259" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H259" s="1"/>
@@ -8769,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" ref="B260:B307" si="14">B259+A260</f>
+        <f t="shared" ref="B260:B307" si="13">B259+A260</f>
         <v>0.1965277777777778</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -8779,11 +8930,11 @@
         <v>-147</v>
       </c>
       <c r="E260" s="7">
+        <f t="shared" si="11"/>
+        <v>99993</v>
+      </c>
+      <c r="G260" s="2">
         <f t="shared" si="12"/>
-        <v>99993</v>
-      </c>
-      <c r="G260" s="2">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H260" s="1"/>
@@ -8796,7 +8947,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -8806,11 +8957,11 @@
         <v>-350</v>
       </c>
       <c r="E261" s="7">
-        <f t="shared" ref="E261:E307" si="15">E260+D261</f>
+        <f t="shared" ref="E261:E307" si="14">E260+D261</f>
         <v>99643</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" ref="G261:G307" si="16">G260+F261</f>
+        <f t="shared" ref="G261:G307" si="15">G260+F261</f>
         <v>304</v>
       </c>
       <c r="H261" s="1"/>
@@ -8823,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C262" s="4"/>
@@ -8831,11 +8982,11 @@
         <v>-350</v>
       </c>
       <c r="E262" s="7">
+        <f t="shared" si="14"/>
+        <v>99293</v>
+      </c>
+      <c r="G262" s="2">
         <f t="shared" si="15"/>
-        <v>99293</v>
-      </c>
-      <c r="G262" s="2">
-        <f t="shared" si="16"/>
         <v>304</v>
       </c>
       <c r="H262" s="1"/>
@@ -8848,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -8858,11 +9009,11 @@
         <v>-350</v>
       </c>
       <c r="E263" s="7">
+        <f t="shared" si="14"/>
+        <v>98943</v>
+      </c>
+      <c r="G263" s="2">
         <f t="shared" si="15"/>
-        <v>98943</v>
-      </c>
-      <c r="G263" s="2">
-        <f t="shared" si="16"/>
         <v>304</v>
       </c>
       <c r="H263" s="1"/>
@@ -8875,21 +9026,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19861111111111107</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E264" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>98943</v>
       </c>
       <c r="F264" s="2">
         <v>5</v>
       </c>
       <c r="G264" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>309</v>
       </c>
       <c r="H264" s="1"/>
@@ -8902,7 +9053,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -8912,11 +9063,11 @@
         <v>1416</v>
       </c>
       <c r="E265" s="7">
+        <f t="shared" si="14"/>
+        <v>100359</v>
+      </c>
+      <c r="G265" s="2">
         <f t="shared" si="15"/>
-        <v>100359</v>
-      </c>
-      <c r="G265" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H265" s="1"/>
@@ -8929,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C266" s="4"/>
@@ -8937,11 +9088,11 @@
         <v>2500</v>
       </c>
       <c r="E266" s="7">
+        <f t="shared" si="14"/>
+        <v>102859</v>
+      </c>
+      <c r="G266" s="2">
         <f t="shared" si="15"/>
-        <v>102859</v>
-      </c>
-      <c r="G266" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H266" s="1"/>
@@ -8954,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C267" s="4"/>
@@ -8962,11 +9113,11 @@
         <v>-105</v>
       </c>
       <c r="E267" s="7">
+        <f t="shared" si="14"/>
+        <v>102754</v>
+      </c>
+      <c r="G267" s="2">
         <f t="shared" si="15"/>
-        <v>102754</v>
-      </c>
-      <c r="G267" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H267" s="1"/>
@@ -8979,7 +9130,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20138888888888895</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -8989,11 +9140,11 @@
         <v>1633</v>
       </c>
       <c r="E268" s="7">
+        <f t="shared" si="14"/>
+        <v>104387</v>
+      </c>
+      <c r="G268" s="2">
         <f t="shared" si="15"/>
-        <v>104387</v>
-      </c>
-      <c r="G268" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H268" s="1"/>
@@ -9006,7 +9157,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -9016,11 +9167,11 @@
         <v>-1500</v>
       </c>
       <c r="E269" s="7">
+        <f t="shared" si="14"/>
+        <v>102887</v>
+      </c>
+      <c r="G269" s="2">
         <f t="shared" si="15"/>
-        <v>102887</v>
-      </c>
-      <c r="G269" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H269" s="1"/>
@@ -9033,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C270" s="4"/>
@@ -9041,11 +9192,11 @@
         <v>-4200</v>
       </c>
       <c r="E270" s="7">
+        <f t="shared" si="14"/>
+        <v>98687</v>
+      </c>
+      <c r="G270" s="2">
         <f t="shared" si="15"/>
-        <v>98687</v>
-      </c>
-      <c r="G270" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H270" s="1"/>
@@ -9058,7 +9209,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -9068,11 +9219,11 @@
         <v>-1000</v>
       </c>
       <c r="E271" s="7">
+        <f t="shared" si="14"/>
+        <v>97687</v>
+      </c>
+      <c r="G271" s="2">
         <f t="shared" si="15"/>
-        <v>97687</v>
-      </c>
-      <c r="G271" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H271" s="1"/>
@@ -9085,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -9095,11 +9246,11 @@
         <v>-350</v>
       </c>
       <c r="E272" s="7">
+        <f t="shared" si="14"/>
+        <v>97337</v>
+      </c>
+      <c r="G272" s="2">
         <f t="shared" si="15"/>
-        <v>97337</v>
-      </c>
-      <c r="G272" s="2">
-        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H272" s="1"/>
@@ -9112,21 +9263,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20416666666666672</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E273" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>97337</v>
       </c>
       <c r="F273" s="2">
         <v>1</v>
       </c>
       <c r="G273" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="H273" s="1"/>
@@ -9139,18 +9290,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E274" s="7">
+        <f t="shared" si="14"/>
+        <v>97337</v>
+      </c>
+      <c r="G274" s="2">
         <f t="shared" si="15"/>
-        <v>97337</v>
-      </c>
-      <c r="G274" s="2">
-        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H274" s="1"/>
@@ -9163,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -9173,11 +9324,11 @@
         <v>757</v>
       </c>
       <c r="E275" s="7">
+        <f t="shared" si="14"/>
+        <v>98094</v>
+      </c>
+      <c r="G275" s="2">
         <f t="shared" si="15"/>
-        <v>98094</v>
-      </c>
-      <c r="G275" s="2">
-        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H275" s="1"/>
@@ -9192,7 +9343,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20694444444444449</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -9202,11 +9353,11 @@
         <v>1765</v>
       </c>
       <c r="E276" s="7">
+        <f t="shared" si="14"/>
+        <v>99859</v>
+      </c>
+      <c r="G276" s="2">
         <f t="shared" si="15"/>
-        <v>99859</v>
-      </c>
-      <c r="G276" s="2">
-        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H276" s="1"/>
@@ -9219,7 +9370,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -9229,11 +9380,11 @@
         <v>1398</v>
       </c>
       <c r="E277" s="7">
+        <f t="shared" si="14"/>
+        <v>101257</v>
+      </c>
+      <c r="G277" s="2">
         <f t="shared" si="15"/>
-        <v>101257</v>
-      </c>
-      <c r="G277" s="2">
-        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H277" s="1"/>
@@ -9246,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C278" s="4"/>
@@ -9254,11 +9405,11 @@
         <v>3000</v>
       </c>
       <c r="E278" s="7">
+        <f t="shared" si="14"/>
+        <v>104257</v>
+      </c>
+      <c r="G278" s="2">
         <f t="shared" si="15"/>
-        <v>104257</v>
-      </c>
-      <c r="G278" s="2">
-        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H278" s="1"/>
@@ -9271,21 +9422,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20972222222222225</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E279" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>104257</v>
       </c>
       <c r="F279" s="2">
         <v>15</v>
       </c>
       <c r="G279" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>325</v>
       </c>
       <c r="H279" s="1"/>
@@ -9301,7 +9452,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21041666666666664</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -9311,11 +9462,11 @@
         <v>0</v>
       </c>
       <c r="E280" s="7">
+        <f t="shared" si="14"/>
+        <v>104257</v>
+      </c>
+      <c r="G280" s="2">
         <f t="shared" si="15"/>
-        <v>104257</v>
-      </c>
-      <c r="G280" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H280" s="1"/>
@@ -9328,7 +9479,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21111111111111114</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -9338,11 +9489,11 @@
         <v>0</v>
       </c>
       <c r="E281" s="7">
+        <f t="shared" si="14"/>
+        <v>104257</v>
+      </c>
+      <c r="G281" s="2">
         <f t="shared" si="15"/>
-        <v>104257</v>
-      </c>
-      <c r="G281" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H281" s="1"/>
@@ -9355,7 +9506,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21250000000000002</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -9365,11 +9516,11 @@
         <v>2109</v>
       </c>
       <c r="E282" s="7">
+        <f t="shared" si="14"/>
+        <v>106366</v>
+      </c>
+      <c r="G282" s="2">
         <f t="shared" si="15"/>
-        <v>106366</v>
-      </c>
-      <c r="G282" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H282" s="1"/>
@@ -9382,7 +9533,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -9392,11 +9543,11 @@
         <v>1365</v>
       </c>
       <c r="E283" s="7">
+        <f t="shared" si="14"/>
+        <v>107731</v>
+      </c>
+      <c r="G283" s="2">
         <f t="shared" si="15"/>
-        <v>107731</v>
-      </c>
-      <c r="G283" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H283" s="1"/>
@@ -9409,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C284" s="4"/>
@@ -9417,11 +9568,11 @@
         <v>2500</v>
       </c>
       <c r="E284" s="7">
+        <f t="shared" si="14"/>
+        <v>110231</v>
+      </c>
+      <c r="G284" s="2">
         <f t="shared" si="15"/>
-        <v>110231</v>
-      </c>
-      <c r="G284" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H284" s="1"/>
@@ -9434,7 +9585,7 @@
         <v>1.3888888888889395E-3</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21597222222222223</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -9444,11 +9595,11 @@
         <v>-196</v>
       </c>
       <c r="E285" s="7">
+        <f t="shared" si="14"/>
+        <v>110035</v>
+      </c>
+      <c r="G285" s="2">
         <f t="shared" si="15"/>
-        <v>110035</v>
-      </c>
-      <c r="G285" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H285" s="1"/>
@@ -9461,7 +9612,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -9471,11 +9622,11 @@
         <v>0</v>
       </c>
       <c r="E286" s="7">
+        <f t="shared" si="14"/>
+        <v>110035</v>
+      </c>
+      <c r="G286" s="2">
         <f t="shared" si="15"/>
-        <v>110035</v>
-      </c>
-      <c r="G286" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H286" s="1"/>
@@ -9488,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -9498,11 +9649,11 @@
         <v>0</v>
       </c>
       <c r="E287" s="7">
+        <f t="shared" si="14"/>
+        <v>110035</v>
+      </c>
+      <c r="G287" s="2">
         <f t="shared" si="15"/>
-        <v>110035</v>
-      </c>
-      <c r="G287" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H287" s="1"/>
@@ -9515,7 +9666,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -9525,11 +9676,11 @@
         <v>774</v>
       </c>
       <c r="E288" s="7">
+        <f t="shared" si="14"/>
+        <v>110809</v>
+      </c>
+      <c r="G288" s="2">
         <f t="shared" si="15"/>
-        <v>110809</v>
-      </c>
-      <c r="G288" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H288" s="1"/>
@@ -9542,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C289" s="4"/>
@@ -9550,11 +9701,11 @@
         <v>2500</v>
       </c>
       <c r="E289" s="7">
+        <f t="shared" si="14"/>
+        <v>113309</v>
+      </c>
+      <c r="G289" s="2">
         <f t="shared" si="15"/>
-        <v>113309</v>
-      </c>
-      <c r="G289" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H289" s="1"/>
@@ -9567,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C290" s="4"/>
@@ -9575,11 +9726,11 @@
         <v>3789</v>
       </c>
       <c r="E290" s="7">
+        <f t="shared" si="14"/>
+        <v>117098</v>
+      </c>
+      <c r="G290" s="2">
         <f t="shared" si="15"/>
-        <v>117098</v>
-      </c>
-      <c r="G290" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H290" s="1"/>
@@ -9592,18 +9743,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.21875</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E291" s="7">
+        <f t="shared" si="14"/>
+        <v>117098</v>
+      </c>
+      <c r="G291" s="2">
         <f t="shared" si="15"/>
-        <v>117098</v>
-      </c>
-      <c r="G291" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -9621,7 +9772,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -9631,11 +9782,11 @@
         <v>1656</v>
       </c>
       <c r="E292" s="7">
+        <f t="shared" si="14"/>
+        <v>118754</v>
+      </c>
+      <c r="G292" s="2">
         <f t="shared" si="15"/>
-        <v>118754</v>
-      </c>
-      <c r="G292" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H292" s="1"/>
@@ -9648,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C293" s="4"/>
@@ -9656,11 +9807,11 @@
         <v>1600</v>
       </c>
       <c r="E293" s="7">
+        <f t="shared" si="14"/>
+        <v>120354</v>
+      </c>
+      <c r="G293" s="2">
         <f t="shared" si="15"/>
-        <v>120354</v>
-      </c>
-      <c r="G293" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H293" s="1"/>
@@ -9673,7 +9824,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22083333333333333</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -9683,11 +9834,11 @@
         <v>1519</v>
       </c>
       <c r="E294" s="7">
+        <f t="shared" si="14"/>
+        <v>121873</v>
+      </c>
+      <c r="G294" s="2">
         <f t="shared" si="15"/>
-        <v>121873</v>
-      </c>
-      <c r="G294" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H294" s="1"/>
@@ -9700,7 +9851,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22152777777777777</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -9710,11 +9861,11 @@
         <v>1830</v>
       </c>
       <c r="E295" s="7">
+        <f t="shared" si="14"/>
+        <v>123703</v>
+      </c>
+      <c r="G295" s="2">
         <f t="shared" si="15"/>
-        <v>123703</v>
-      </c>
-      <c r="G295" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H295" s="1"/>
@@ -9727,7 +9878,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -9737,11 +9888,11 @@
         <v>631</v>
       </c>
       <c r="E296" s="7">
+        <f t="shared" si="14"/>
+        <v>124334</v>
+      </c>
+      <c r="G296" s="2">
         <f t="shared" si="15"/>
-        <v>124334</v>
-      </c>
-      <c r="G296" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H296" s="1"/>
@@ -9754,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C297" s="4"/>
@@ -9762,11 +9913,11 @@
         <v>1200</v>
       </c>
       <c r="E297" s="7">
+        <f t="shared" si="14"/>
+        <v>125534</v>
+      </c>
+      <c r="G297" s="2">
         <f t="shared" si="15"/>
-        <v>125534</v>
-      </c>
-      <c r="G297" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H297" s="1"/>
@@ -9779,7 +9930,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22430555555555554</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -9789,11 +9940,11 @@
         <v>493</v>
       </c>
       <c r="E298" s="7">
+        <f t="shared" si="14"/>
+        <v>126027</v>
+      </c>
+      <c r="G298" s="2">
         <f t="shared" si="15"/>
-        <v>126027</v>
-      </c>
-      <c r="G298" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H298" s="1"/>
@@ -9806,7 +9957,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -9816,11 +9967,11 @@
         <v>-735</v>
       </c>
       <c r="E299" s="7">
+        <f t="shared" si="14"/>
+        <v>125292</v>
+      </c>
+      <c r="G299" s="2">
         <f t="shared" si="15"/>
-        <v>125292</v>
-      </c>
-      <c r="G299" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H299" s="1"/>
@@ -9833,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C300" s="4"/>
@@ -9841,11 +9992,11 @@
         <v>-2100</v>
       </c>
       <c r="E300" s="7">
+        <f t="shared" si="14"/>
+        <v>123192</v>
+      </c>
+      <c r="G300" s="2">
         <f t="shared" si="15"/>
-        <v>123192</v>
-      </c>
-      <c r="G300" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H300" s="1"/>
@@ -9858,18 +10009,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B301" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22638888888888892</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E301" s="7">
+        <f t="shared" si="14"/>
+        <v>123192</v>
+      </c>
+      <c r="G301" s="2">
         <f t="shared" si="15"/>
-        <v>123192</v>
-      </c>
-      <c r="G301" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H301" s="1"/>
@@ -9884,7 +10035,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B302" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22847222222222219</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -9894,11 +10045,11 @@
         <v>1060</v>
       </c>
       <c r="E302" s="7">
+        <f t="shared" si="14"/>
+        <v>124252</v>
+      </c>
+      <c r="G302" s="2">
         <f t="shared" si="15"/>
-        <v>124252</v>
-      </c>
-      <c r="G302" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H302" s="1"/>
@@ -9911,7 +10062,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B303" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -9921,11 +10072,11 @@
         <v>-1470</v>
       </c>
       <c r="E303" s="7">
+        <f t="shared" si="14"/>
+        <v>122782</v>
+      </c>
+      <c r="G303" s="2">
         <f t="shared" si="15"/>
-        <v>122782</v>
-      </c>
-      <c r="G303" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H303" s="1"/>
@@ -9938,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="B304" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C304" s="4"/>
@@ -9946,11 +10097,11 @@
         <v>-2100</v>
       </c>
       <c r="E304" s="7">
+        <f t="shared" si="14"/>
+        <v>120682</v>
+      </c>
+      <c r="G304" s="2">
         <f t="shared" si="15"/>
-        <v>120682</v>
-      </c>
-      <c r="G304" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H304" s="1"/>
@@ -9963,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C305" s="4"/>
@@ -9971,11 +10122,11 @@
         <v>-840</v>
       </c>
       <c r="E305" s="7">
+        <f t="shared" si="14"/>
+        <v>119842</v>
+      </c>
+      <c r="G305" s="2">
         <f t="shared" si="15"/>
-        <v>119842</v>
-      </c>
-      <c r="G305" s="2">
-        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H305" s="1"/>
@@ -9988,21 +10139,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B306" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.23055555555555557</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E306" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>119842</v>
       </c>
       <c r="F306" s="2">
         <v>3</v>
       </c>
       <c r="G306" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>328</v>
       </c>
       <c r="H306" s="1"/>
@@ -10015,18 +10166,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B307" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.23124999999999996</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E307" s="7">
+        <f t="shared" si="14"/>
+        <v>119842</v>
+      </c>
+      <c r="G307" s="2">
         <f t="shared" si="15"/>
-        <v>119842</v>
-      </c>
-      <c r="G307" s="2">
-        <f t="shared" si="16"/>
         <v>328</v>
       </c>
       <c r="H307" s="1"/>

--- a/Documents/prices.xlsx
+++ b/Documents/prices.xlsx
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="L28" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="O70" s="4">
-        <f>N70*$S$58</f>
+        <f t="shared" ref="O70:O75" si="6">N70*$S$58</f>
         <v>2000</v>
       </c>
       <c r="P70" s="4"/>
@@ -3838,7 +3838,7 @@
         <v>50</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" ref="R70:R75" si="6">O70/Q70</f>
+        <f t="shared" ref="R70:R75" si="7">O70/Q70</f>
         <v>40</v>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
         <v>5</v>
       </c>
       <c r="O71" s="4">
-        <f>N71*$S$58</f>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="P71" s="4"/>
@@ -3875,7 +3875,7 @@
         <v>140</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="O72" s="4">
-        <f>N72*$S$58</f>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="P72" s="4"/>
@@ -3915,7 +3915,7 @@
         <v>290</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.482758620689658</v>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="O73" s="4">
-        <f>N73*$S$58</f>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="P73" s="4"/>
@@ -3953,7 +3953,7 @@
         <v>600</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
         <v>50</v>
       </c>
       <c r="O74" s="4">
-        <f>N74*$S$58</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="P74" s="4"/>
@@ -3990,7 +3990,7 @@
         <v>1630</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.674846625766872</v>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
         <v>100</v>
       </c>
       <c r="O75" s="4">
-        <f>N75*$S$58</f>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="P75" s="4"/>
@@ -4037,7 +4037,7 @@
         <v>3750</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26.666666666666668</v>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" ref="B132:B195" si="7">B131+A132</f>
+        <f t="shared" ref="B132:B195" si="8">B131+A132</f>
         <v>0.1034722222222223</v>
       </c>
       <c r="C132" s="4"/>
@@ -5537,7 +5537,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10416666666666674</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -5547,11 +5547,11 @@
         <v>937</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" ref="E133:E196" si="8">E132+D133</f>
+        <f t="shared" ref="E133:E196" si="9">E132+D133</f>
         <v>54766</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G196" si="9">G132+F133</f>
+        <f t="shared" ref="G133:G196" si="10">G132+F133</f>
         <v>215</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -5568,18 +5568,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E134" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54766</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -5606,11 +5606,11 @@
         <v>1065</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55831</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="H135" s="1"/>
@@ -5622,21 +5622,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10763888888888895</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55831</v>
       </c>
       <c r="F136" s="2">
         <v>15</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H136" s="1"/>
@@ -5651,7 +5651,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -5661,11 +5661,11 @@
         <v>2739</v>
       </c>
       <c r="E137" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58570</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H137" s="1"/>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C138" s="4"/>
@@ -5685,11 +5685,11 @@
         <v>30</v>
       </c>
       <c r="E138" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58600</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H138" s="1"/>
@@ -5701,18 +5701,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E139" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58600</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H139" s="1"/>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5734,11 +5734,11 @@
         <v>-735</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57865</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H140" s="1"/>
@@ -5750,7 +5750,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -5760,11 +5760,11 @@
         <v>1624</v>
       </c>
       <c r="E141" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59489</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -5781,7 +5781,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5791,11 +5791,11 @@
         <v>1553</v>
       </c>
       <c r="E142" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61042</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H142" s="1"/>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C143" s="4"/>
@@ -5815,11 +5815,11 @@
         <v>1000</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62042</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H143" s="1"/>
@@ -5831,7 +5831,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11319444444444449</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -5841,11 +5841,11 @@
         <v>778</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62820</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="H144" s="1"/>
@@ -5857,21 +5857,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62820</v>
       </c>
       <c r="F145" s="2">
         <v>15</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H145" s="1"/>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5896,11 +5896,11 @@
         <v>1131</v>
       </c>
       <c r="E146" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63951</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H146" s="1"/>
@@ -5912,7 +5912,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11527777777777781</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -5922,11 +5922,11 @@
         <v>656</v>
       </c>
       <c r="E147" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64607</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H147" s="1"/>
@@ -5938,7 +5938,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11597222222222225</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -5948,11 +5948,11 @@
         <v>849</v>
       </c>
       <c r="E148" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65456</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H148" s="1"/>
@@ -5964,7 +5964,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11736111111111114</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -5974,11 +5974,11 @@
         <v>-735</v>
       </c>
       <c r="E149" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64721</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H149" s="1"/>
@@ -5990,7 +5990,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11805555555555558</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -6000,11 +6000,11 @@
         <v>-2100</v>
       </c>
       <c r="E150" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62621</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H150" s="1"/>
@@ -6016,7 +6016,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11875000000000002</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -6026,11 +6026,11 @@
         <v>911</v>
       </c>
       <c r="E151" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63532</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H151" s="1"/>
@@ -6042,7 +6042,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12013888888888891</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -6052,11 +6052,11 @@
         <v>948</v>
       </c>
       <c r="E152" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64480</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -6073,21 +6073,21 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E153" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64480</v>
       </c>
       <c r="F153" s="2">
         <v>15</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H153" s="1"/>
@@ -6102,18 +6102,18 @@
         <v>0</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E154" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64480</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H154" s="1"/>
@@ -6128,7 +6128,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12222222222222225</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -6138,11 +6138,11 @@
         <v>1085</v>
       </c>
       <c r="E155" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65565</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H155" s="1"/>
@@ -6154,7 +6154,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12291666666666669</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -6164,11 +6164,11 @@
         <v>-560</v>
       </c>
       <c r="E156" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65005</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H156" s="1"/>
@@ -6180,7 +6180,7 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -6190,11 +6190,11 @@
         <v>499</v>
       </c>
       <c r="E157" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65504</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H157" s="1"/>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C158" s="4"/>
@@ -6214,11 +6214,11 @@
         <v>2500</v>
       </c>
       <c r="E158" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68004</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="H158" s="1"/>
@@ -6230,21 +6230,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E159" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68004</v>
       </c>
       <c r="F159" s="2">
         <v>10</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="H159" s="1"/>
@@ -6256,7 +6256,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12638888888888891</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -6266,11 +6266,11 @@
         <v>2236</v>
       </c>
       <c r="E160" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70240</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="H160" s="1"/>
@@ -6282,7 +6282,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1277777777777778</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -6292,11 +6292,11 @@
         <v>946</v>
       </c>
       <c r="E161" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71186</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="H161" s="1"/>
@@ -6309,7 +6309,7 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12916666666666671</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -6319,11 +6319,11 @@
         <v>1970</v>
       </c>
       <c r="E162" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73156</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -6341,21 +6341,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12986111111111115</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E163" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73156</v>
       </c>
       <c r="F163" s="2">
         <v>15</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H163" s="1"/>
@@ -6371,7 +6371,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13055555555555559</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -6381,11 +6381,11 @@
         <v>1075</v>
       </c>
       <c r="E164" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74231</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H164" s="1"/>
@@ -6398,7 +6398,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -6408,11 +6408,11 @@
         <v>1401</v>
       </c>
       <c r="E165" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75632</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H165" s="1"/>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C166" s="4"/>
@@ -6433,11 +6433,11 @@
         <v>1000</v>
       </c>
       <c r="E166" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76632</v>
       </c>
       <c r="G166" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H166" s="1"/>
@@ -6450,7 +6450,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13333333333333336</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -6460,11 +6460,11 @@
         <v>-735</v>
       </c>
       <c r="E167" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75897</v>
       </c>
       <c r="G167" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H167" s="1"/>
@@ -6477,18 +6477,18 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E168" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75897</v>
       </c>
       <c r="G168" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H168" s="1"/>
@@ -6501,16 +6501,16 @@
         <v>0</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C169" s="4"/>
       <c r="E169" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75897</v>
       </c>
       <c r="G169" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H169" s="1"/>
@@ -6523,18 +6523,18 @@
         <v>0</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E170" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75897</v>
       </c>
       <c r="G170" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H170" s="1"/>
@@ -6547,7 +6547,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -6557,11 +6557,11 @@
         <v>-123</v>
       </c>
       <c r="E171" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75774</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H171" s="1"/>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C172" s="4"/>
@@ -6582,11 +6582,11 @@
         <v>-123</v>
       </c>
       <c r="E172" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75651</v>
       </c>
       <c r="G172" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H172" s="1"/>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C173" s="4"/>
@@ -6607,11 +6607,11 @@
         <v>-350</v>
       </c>
       <c r="E173" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75301</v>
       </c>
       <c r="G173" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H173" s="1"/>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C174" s="4"/>
@@ -6632,11 +6632,11 @@
         <v>-1000</v>
       </c>
       <c r="E174" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74301</v>
       </c>
       <c r="G174" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H174" s="1"/>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C175" s="4"/>
@@ -6657,11 +6657,11 @@
         <v>-123</v>
       </c>
       <c r="E175" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74178</v>
       </c>
       <c r="G175" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H175" s="1"/>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C176" s="4"/>
@@ -6682,11 +6682,11 @@
         <v>-350</v>
       </c>
       <c r="E176" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73828</v>
       </c>
       <c r="G176" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H176" s="1"/>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C177" s="4"/>
@@ -6707,11 +6707,11 @@
         <v>-1500</v>
       </c>
       <c r="E177" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72328</v>
       </c>
       <c r="G177" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H177" s="1"/>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C178" s="4"/>
@@ -6732,11 +6732,11 @@
         <v>-196</v>
       </c>
       <c r="E178" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72132</v>
       </c>
       <c r="G178" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H178" s="1"/>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C179" s="4"/>
@@ -6757,11 +6757,11 @@
         <v>-350</v>
       </c>
       <c r="E179" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71782</v>
       </c>
       <c r="G179" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H179" s="1"/>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C180" s="4"/>
@@ -6782,11 +6782,11 @@
         <v>-350</v>
       </c>
       <c r="E180" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71432</v>
       </c>
       <c r="G180" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H180" s="1"/>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C181" s="4"/>
@@ -6807,11 +6807,11 @@
         <v>-350</v>
       </c>
       <c r="E181" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71082</v>
       </c>
       <c r="G181" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H181" s="1"/>
@@ -6824,7 +6824,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13819444444444445</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -6834,11 +6834,11 @@
         <v>1638</v>
       </c>
       <c r="E182" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72720</v>
       </c>
       <c r="G182" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H182" s="1"/>
@@ -6851,7 +6851,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13958333333333334</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -6861,11 +6861,11 @@
         <v>1478</v>
       </c>
       <c r="E183" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74198</v>
       </c>
       <c r="G183" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -6883,7 +6883,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14097222222222222</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -6893,11 +6893,11 @@
         <v>0</v>
       </c>
       <c r="E184" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74198</v>
       </c>
       <c r="G184" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H184" s="1"/>
@@ -6910,7 +6910,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1423611111111111</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -6920,11 +6920,11 @@
         <v>2138</v>
       </c>
       <c r="E185" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76336</v>
       </c>
       <c r="G185" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H185" s="1"/>
@@ -6937,7 +6937,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14374999999999999</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -6947,11 +6947,11 @@
         <v>-350</v>
       </c>
       <c r="E186" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75986</v>
       </c>
       <c r="G186" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H186" s="1"/>
@@ -6964,7 +6964,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14444444444444449</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -6974,11 +6974,11 @@
         <v>501</v>
       </c>
       <c r="E187" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76487</v>
       </c>
       <c r="G187" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -6996,21 +6996,21 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14513888888888887</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E188" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76487</v>
       </c>
       <c r="F188" s="2">
         <v>15</v>
       </c>
       <c r="G188" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H188" s="1"/>
@@ -7026,7 +7026,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -7036,11 +7036,11 @@
         <v>681</v>
       </c>
       <c r="E189" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77168</v>
       </c>
       <c r="G189" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H189" s="1"/>
@@ -7053,18 +7053,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14652777777777776</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E190" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77168</v>
       </c>
       <c r="G190" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -7082,18 +7082,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14722222222222225</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E191" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77168</v>
       </c>
       <c r="G191" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H191" s="1"/>
@@ -7109,18 +7109,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1479166666666667</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E192" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77168</v>
       </c>
       <c r="G192" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H192" s="1"/>
@@ -7133,7 +7133,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -7143,11 +7143,11 @@
         <v>1858</v>
       </c>
       <c r="E193" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79026</v>
       </c>
       <c r="G193" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H193" s="1"/>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -7170,11 +7170,11 @@
         <v>1488</v>
       </c>
       <c r="E194" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80514</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H194" s="1"/>
@@ -7187,7 +7187,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14930555555555558</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -7197,11 +7197,11 @@
         <v>1313</v>
       </c>
       <c r="E195" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>81827</v>
       </c>
       <c r="G195" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H195" s="1"/>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" ref="B196:B259" si="10">B195+A196</f>
+        <f t="shared" ref="B196:B259" si="11">B195+A196</f>
         <v>0.14930555555555558</v>
       </c>
       <c r="C196" s="4"/>
@@ -7222,11 +7222,11 @@
         <v>2500</v>
       </c>
       <c r="E196" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84327</v>
       </c>
       <c r="G196" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="H196" s="1"/>
@@ -7239,7 +7239,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C197" s="4" t="s">
@@ -7249,11 +7249,11 @@
         <v>-1500</v>
       </c>
       <c r="E197" s="7">
-        <f t="shared" ref="E197:E260" si="11">E196+D197</f>
+        <f t="shared" ref="E197:E260" si="12">E196+D197</f>
         <v>82827</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G260" si="12">G196+F197</f>
+        <f t="shared" ref="G197:G260" si="13">G196+F197</f>
         <v>300</v>
       </c>
       <c r="H197" s="1"/>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -7276,11 +7276,11 @@
         <v>1298</v>
       </c>
       <c r="E198" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84125</v>
       </c>
       <c r="G198" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H198" s="1"/>
@@ -7293,7 +7293,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15208333333333335</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -7303,11 +7303,11 @@
         <v>763</v>
       </c>
       <c r="E199" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84888</v>
       </c>
       <c r="G199" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -7325,7 +7325,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -7335,11 +7335,11 @@
         <v>1919</v>
       </c>
       <c r="E200" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>86807</v>
       </c>
       <c r="G200" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H200" s="1"/>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C201" s="4"/>
@@ -7360,11 +7360,11 @@
         <v>2500</v>
       </c>
       <c r="E201" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89307</v>
       </c>
       <c r="G201" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="H201" s="1"/>
@@ -7377,21 +7377,21 @@
         <v>0</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E202" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89307</v>
       </c>
       <c r="F202" s="2">
         <v>15</v>
       </c>
       <c r="G202" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H202" s="1"/>
@@ -7407,7 +7407,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B203" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15347222222222223</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -7417,11 +7417,11 @@
         <v>813</v>
       </c>
       <c r="E203" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>90120</v>
       </c>
       <c r="G203" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -7439,18 +7439,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B204" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15486111111111112</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E204" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>90120</v>
       </c>
       <c r="G204" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -7468,7 +7468,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -7478,11 +7478,11 @@
         <v>1861</v>
       </c>
       <c r="E205" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91981</v>
       </c>
       <c r="G205" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -7500,18 +7500,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E206" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91981</v>
       </c>
       <c r="G206" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -7539,11 +7539,11 @@
         <v>494</v>
       </c>
       <c r="E207" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>92475</v>
       </c>
       <c r="G207" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H207" s="1"/>
@@ -7556,7 +7556,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15902777777777777</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -7566,11 +7566,11 @@
         <v>0</v>
       </c>
       <c r="E208" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>92475</v>
       </c>
       <c r="G208" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H208" s="1"/>
@@ -7583,7 +7583,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C209" s="4" t="s">
@@ -7593,11 +7593,11 @@
         <v>1854</v>
       </c>
       <c r="E209" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94329</v>
       </c>
       <c r="G209" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H209" s="1"/>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -7620,11 +7620,11 @@
         <v>1322</v>
       </c>
       <c r="E210" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95651</v>
       </c>
       <c r="G210" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H210" s="1"/>
@@ -7637,7 +7637,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16111111111111115</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -7647,11 +7647,11 @@
         <v>1217</v>
       </c>
       <c r="E211" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96868</v>
       </c>
       <c r="G211" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -7669,18 +7669,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16250000000000003</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E212" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96868</v>
       </c>
       <c r="G212" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H212" s="1"/>
@@ -7693,18 +7693,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E213" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96868</v>
       </c>
       <c r="G213" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H213" s="1"/>
@@ -7717,18 +7717,18 @@
         <v>0</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E214" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96868</v>
       </c>
       <c r="G214" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H214" s="1"/>
@@ -7741,18 +7741,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1645833333333333</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E215" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96868</v>
       </c>
       <c r="G215" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H215" s="1"/>
@@ -7765,7 +7765,7 @@
         <v>3.4722222222222654E-3</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -7775,11 +7775,11 @@
         <v>-840</v>
       </c>
       <c r="E216" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96028</v>
       </c>
       <c r="G216" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H216" s="1"/>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -7802,11 +7802,11 @@
         <v>-525</v>
       </c>
       <c r="E217" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95503</v>
       </c>
       <c r="G217" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H217" s="1"/>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C218" s="4"/>
@@ -7827,11 +7827,11 @@
         <v>-392</v>
       </c>
       <c r="E218" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95111</v>
       </c>
       <c r="G218" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H218" s="1"/>
@@ -7844,18 +7844,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16944444444444445</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E219" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95111</v>
       </c>
       <c r="G219" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="H219" s="1"/>
@@ -7868,21 +7868,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17013888888888895</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E220" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95111</v>
       </c>
       <c r="F220" s="2">
         <v>7</v>
       </c>
       <c r="G220" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>322</v>
       </c>
       <c r="H220" s="1"/>
@@ -7895,16 +7895,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17083333333333334</v>
       </c>
       <c r="C221" s="4"/>
       <c r="E221" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95111</v>
       </c>
       <c r="G221" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>322</v>
       </c>
       <c r="H221" s="1"/>
@@ -7917,21 +7917,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17152777777777783</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E222" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95111</v>
       </c>
       <c r="F222" s="2">
         <v>15</v>
       </c>
       <c r="G222" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H222" s="1"/>
@@ -7947,16 +7947,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17222222222222222</v>
       </c>
       <c r="C223" s="4"/>
       <c r="E223" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95111</v>
       </c>
       <c r="G223" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H223" s="1"/>
@@ -7969,7 +7969,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -7979,11 +7979,11 @@
         <v>-350</v>
       </c>
       <c r="E224" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94761</v>
       </c>
       <c r="G224" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H224" s="1"/>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C225" s="4"/>
@@ -8004,11 +8004,11 @@
         <v>-350</v>
       </c>
       <c r="E225" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94411</v>
       </c>
       <c r="G225" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H225" s="1"/>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C226" s="4"/>
@@ -8029,11 +8029,11 @@
         <v>-1000</v>
       </c>
       <c r="E226" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93411</v>
       </c>
       <c r="G226" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H226" s="1"/>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C227" s="4"/>
@@ -8054,11 +8054,11 @@
         <v>-350</v>
       </c>
       <c r="E227" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93061</v>
       </c>
       <c r="G227" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H227" s="1"/>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C228" s="4"/>
@@ -8079,11 +8079,11 @@
         <v>-1000</v>
       </c>
       <c r="E228" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>92061</v>
       </c>
       <c r="G228" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H228" s="1"/>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C229" s="4"/>
@@ -8104,11 +8104,11 @@
         <v>-1000</v>
       </c>
       <c r="E229" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91061</v>
       </c>
       <c r="G229" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H229" s="1"/>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C230" s="4"/>
@@ -8129,11 +8129,11 @@
         <v>-350</v>
       </c>
       <c r="E230" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>90711</v>
       </c>
       <c r="G230" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H230" s="1"/>
@@ -8146,7 +8146,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -8156,11 +8156,11 @@
         <v>-1000</v>
       </c>
       <c r="E231" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89711</v>
       </c>
       <c r="G231" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H231" s="1"/>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C232" s="4"/>
@@ -8181,11 +8181,11 @@
         <v>-350</v>
       </c>
       <c r="E232" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89361</v>
       </c>
       <c r="G232" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H232" s="1"/>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C233" s="4"/>
@@ -8206,11 +8206,11 @@
         <v>-350</v>
       </c>
       <c r="E233" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89011</v>
       </c>
       <c r="G233" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H233" s="1"/>
@@ -8223,7 +8223,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17777777777777776</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -8233,11 +8233,11 @@
         <v>-1000</v>
       </c>
       <c r="E234" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88011</v>
       </c>
       <c r="G234" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H234" s="1"/>
@@ -8250,7 +8250,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17847222222222225</v>
       </c>
       <c r="C235" s="4" t="s">
@@ -8260,11 +8260,11 @@
         <v>541</v>
       </c>
       <c r="E235" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88552</v>
       </c>
       <c r="G235" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
       <c r="H235" s="1"/>
@@ -8277,21 +8277,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1791666666666667</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E236" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88552</v>
       </c>
       <c r="F236" s="2">
         <v>10</v>
       </c>
       <c r="G236" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>347</v>
       </c>
       <c r="H236" s="1"/>
@@ -8304,7 +8304,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17986111111111114</v>
       </c>
       <c r="C237" s="4" t="s">
@@ -8314,11 +8314,11 @@
         <v>-350</v>
       </c>
       <c r="E237" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88202</v>
       </c>
       <c r="G237" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>347</v>
       </c>
       <c r="H237" s="1"/>
@@ -8331,21 +8331,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18055555555555558</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E238" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88202</v>
       </c>
       <c r="F238" s="2">
         <v>12</v>
       </c>
       <c r="G238" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>359</v>
       </c>
       <c r="H238" s="1"/>
@@ -8358,18 +8358,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E239" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88202</v>
       </c>
       <c r="G239" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>359</v>
       </c>
       <c r="H239" s="1" t="s">
@@ -8387,19 +8387,19 @@
         <v>0</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C240" s="4"/>
       <c r="E240" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88202</v>
       </c>
       <c r="F240" s="2">
         <v>30</v>
       </c>
       <c r="G240" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H240" s="1"/>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C241" s="4"/>
@@ -8420,11 +8420,11 @@
         <v>5000</v>
       </c>
       <c r="E241" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93202</v>
       </c>
       <c r="G241" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H241" s="1"/>
@@ -8437,16 +8437,16 @@
         <v>0</v>
       </c>
       <c r="B242" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C242" s="4"/>
       <c r="E242" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93202</v>
       </c>
       <c r="G242" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C243" s="4"/>
       <c r="E243" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93202</v>
       </c>
       <c r="G243" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -8491,16 +8491,16 @@
         <v>0</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C244" s="4"/>
       <c r="E244" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93202</v>
       </c>
       <c r="G244" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -8518,16 +8518,16 @@
         <v>0</v>
       </c>
       <c r="B245" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C245" s="4"/>
       <c r="E245" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93202</v>
       </c>
       <c r="G245" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -8545,21 +8545,21 @@
         <v>0</v>
       </c>
       <c r="B246" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E246" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93202</v>
       </c>
       <c r="F246" s="2">
         <v>-85</v>
       </c>
       <c r="G246" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H246" s="1"/>
@@ -8572,7 +8572,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B247" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18402777777777779</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -8582,11 +8582,11 @@
         <v>-147</v>
       </c>
       <c r="E247" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93055</v>
       </c>
       <c r="G247" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H247" s="1"/>
@@ -8599,18 +8599,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18472222222222223</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E248" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93055</v>
       </c>
       <c r="G248" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H248" s="1"/>
@@ -8623,7 +8623,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18680555555555556</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -8633,11 +8633,11 @@
         <v>380</v>
       </c>
       <c r="E249" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93435</v>
       </c>
       <c r="G249" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H249" s="1"/>
@@ -8650,7 +8650,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -8660,11 +8660,11 @@
         <v>380</v>
       </c>
       <c r="E250" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93815</v>
       </c>
       <c r="G250" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H250" s="1"/>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C251" s="4"/>
@@ -8685,11 +8685,11 @@
         <v>2000</v>
       </c>
       <c r="E251" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95815</v>
       </c>
       <c r="G251" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H251" s="1"/>
@@ -8702,7 +8702,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18888888888888888</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -8712,11 +8712,11 @@
         <v>380</v>
       </c>
       <c r="E252" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96195</v>
       </c>
       <c r="G252" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H252" s="1"/>
@@ -8729,7 +8729,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19027777777777777</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -8739,11 +8739,11 @@
         <v>720</v>
       </c>
       <c r="E253" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96915</v>
       </c>
       <c r="G253" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H253" s="1"/>
@@ -8756,7 +8756,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B254" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19097222222222227</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -8766,11 +8766,11 @@
         <v>820</v>
       </c>
       <c r="E254" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>97735</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H254" s="1"/>
@@ -8783,7 +8783,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B255" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19166666666666665</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -8793,11 +8793,11 @@
         <v>820</v>
       </c>
       <c r="E255" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>98555</v>
       </c>
       <c r="G255" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H255" s="1"/>
@@ -8810,7 +8810,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B256" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19305555555555554</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -8820,11 +8820,11 @@
         <v>772</v>
       </c>
       <c r="E256" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99327</v>
       </c>
       <c r="G256" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H256" s="1"/>
@@ -8837,7 +8837,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B257" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19444444444444442</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -8847,11 +8847,11 @@
         <v>960</v>
       </c>
       <c r="E257" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100287</v>
       </c>
       <c r="G257" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H257" s="1"/>
@@ -8864,18 +8864,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B258" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1958333333333333</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E258" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100287</v>
       </c>
       <c r="G258" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -8893,7 +8893,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1965277777777778</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -8903,11 +8903,11 @@
         <v>-147</v>
       </c>
       <c r="E259" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100140</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H259" s="1"/>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" ref="B260:B307" si="13">B259+A260</f>
+        <f t="shared" ref="B260:B307" si="14">B259+A260</f>
         <v>0.1965277777777778</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -8930,11 +8930,11 @@
         <v>-147</v>
       </c>
       <c r="E260" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99993</v>
       </c>
       <c r="G260" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="H260" s="1"/>
@@ -8947,7 +8947,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -8957,11 +8957,11 @@
         <v>-350</v>
       </c>
       <c r="E261" s="7">
-        <f t="shared" ref="E261:E307" si="14">E260+D261</f>
+        <f t="shared" ref="E261:E307" si="15">E260+D261</f>
         <v>99643</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" ref="G261:G307" si="15">G260+F261</f>
+        <f t="shared" ref="G261:G307" si="16">G260+F261</f>
         <v>304</v>
       </c>
       <c r="H261" s="1"/>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C262" s="4"/>
@@ -8982,11 +8982,11 @@
         <v>-350</v>
       </c>
       <c r="E262" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99293</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>304</v>
       </c>
       <c r="H262" s="1"/>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -9009,11 +9009,11 @@
         <v>-350</v>
       </c>
       <c r="E263" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>98943</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>304</v>
       </c>
       <c r="H263" s="1"/>
@@ -9026,21 +9026,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19861111111111107</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E264" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>98943</v>
       </c>
       <c r="F264" s="2">
         <v>5</v>
       </c>
       <c r="G264" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H264" s="1"/>
@@ -9053,7 +9053,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -9063,11 +9063,11 @@
         <v>1416</v>
       </c>
       <c r="E265" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>100359</v>
       </c>
       <c r="G265" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H265" s="1"/>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C266" s="4"/>
@@ -9088,11 +9088,11 @@
         <v>2500</v>
       </c>
       <c r="E266" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>102859</v>
       </c>
       <c r="G266" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H266" s="1"/>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C267" s="4"/>
@@ -9113,11 +9113,11 @@
         <v>-105</v>
       </c>
       <c r="E267" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>102754</v>
       </c>
       <c r="G267" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H267" s="1"/>
@@ -9130,7 +9130,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20138888888888895</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -9140,11 +9140,11 @@
         <v>1633</v>
       </c>
       <c r="E268" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104387</v>
       </c>
       <c r="G268" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H268" s="1"/>
@@ -9157,7 +9157,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -9167,11 +9167,11 @@
         <v>-1500</v>
       </c>
       <c r="E269" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>102887</v>
       </c>
       <c r="G269" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H269" s="1"/>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C270" s="4"/>
@@ -9192,11 +9192,11 @@
         <v>-4200</v>
       </c>
       <c r="E270" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>98687</v>
       </c>
       <c r="G270" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H270" s="1"/>
@@ -9209,7 +9209,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -9219,11 +9219,11 @@
         <v>-1000</v>
       </c>
       <c r="E271" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97687</v>
       </c>
       <c r="G271" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H271" s="1"/>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -9246,11 +9246,11 @@
         <v>-350</v>
       </c>
       <c r="E272" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97337</v>
       </c>
       <c r="G272" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="H272" s="1"/>
@@ -9263,21 +9263,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20416666666666672</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E273" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97337</v>
       </c>
       <c r="F273" s="2">
         <v>1</v>
       </c>
       <c r="G273" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H273" s="1"/>
@@ -9290,18 +9290,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E274" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97337</v>
       </c>
       <c r="G274" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H274" s="1"/>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -9324,11 +9324,11 @@
         <v>757</v>
       </c>
       <c r="E275" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>98094</v>
       </c>
       <c r="G275" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H275" s="1"/>
@@ -9343,7 +9343,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20694444444444449</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -9353,11 +9353,11 @@
         <v>1765</v>
       </c>
       <c r="E276" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99859</v>
       </c>
       <c r="G276" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H276" s="1"/>
@@ -9370,7 +9370,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -9380,11 +9380,11 @@
         <v>1398</v>
       </c>
       <c r="E277" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>101257</v>
       </c>
       <c r="G277" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H277" s="1"/>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C278" s="4"/>
@@ -9405,11 +9405,11 @@
         <v>3000</v>
       </c>
       <c r="E278" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104257</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="H278" s="1"/>
@@ -9422,21 +9422,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20972222222222225</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E279" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104257</v>
       </c>
       <c r="F279" s="2">
         <v>15</v>
       </c>
       <c r="G279" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H279" s="1"/>
@@ -9452,7 +9452,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21041666666666664</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -9462,11 +9462,11 @@
         <v>0</v>
       </c>
       <c r="E280" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104257</v>
       </c>
       <c r="G280" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H280" s="1"/>
@@ -9479,7 +9479,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21111111111111114</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -9489,11 +9489,11 @@
         <v>0</v>
       </c>
       <c r="E281" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104257</v>
       </c>
       <c r="G281" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H281" s="1"/>
@@ -9506,7 +9506,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21250000000000002</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -9516,11 +9516,11 @@
         <v>2109</v>
       </c>
       <c r="E282" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>106366</v>
       </c>
       <c r="G282" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H282" s="1"/>
@@ -9533,7 +9533,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -9543,11 +9543,11 @@
         <v>1365</v>
       </c>
       <c r="E283" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>107731</v>
       </c>
       <c r="G283" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H283" s="1"/>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C284" s="4"/>
@@ -9568,11 +9568,11 @@
         <v>2500</v>
       </c>
       <c r="E284" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110231</v>
       </c>
       <c r="G284" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H284" s="1"/>
@@ -9585,7 +9585,7 @@
         <v>1.3888888888889395E-3</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21597222222222223</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -9595,11 +9595,11 @@
         <v>-196</v>
       </c>
       <c r="E285" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110035</v>
       </c>
       <c r="G285" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H285" s="1"/>
@@ -9612,7 +9612,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -9622,11 +9622,11 @@
         <v>0</v>
       </c>
       <c r="E286" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110035</v>
       </c>
       <c r="G286" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H286" s="1"/>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -9649,11 +9649,11 @@
         <v>0</v>
       </c>
       <c r="E287" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110035</v>
       </c>
       <c r="G287" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H287" s="1"/>
@@ -9666,7 +9666,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -9676,11 +9676,11 @@
         <v>774</v>
       </c>
       <c r="E288" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110809</v>
       </c>
       <c r="G288" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H288" s="1"/>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C289" s="4"/>
@@ -9701,11 +9701,11 @@
         <v>2500</v>
       </c>
       <c r="E289" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>113309</v>
       </c>
       <c r="G289" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H289" s="1"/>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C290" s="4"/>
@@ -9726,11 +9726,11 @@
         <v>3789</v>
       </c>
       <c r="E290" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>117098</v>
       </c>
       <c r="G290" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H290" s="1"/>
@@ -9743,18 +9743,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21875</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E291" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>117098</v>
       </c>
       <c r="G291" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -9772,7 +9772,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -9782,11 +9782,11 @@
         <v>1656</v>
       </c>
       <c r="E292" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>118754</v>
       </c>
       <c r="G292" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H292" s="1"/>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C293" s="4"/>
@@ -9807,11 +9807,11 @@
         <v>1600</v>
       </c>
       <c r="E293" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>120354</v>
       </c>
       <c r="G293" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H293" s="1"/>
@@ -9824,7 +9824,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22083333333333333</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -9834,11 +9834,11 @@
         <v>1519</v>
       </c>
       <c r="E294" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>121873</v>
       </c>
       <c r="G294" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H294" s="1"/>
@@ -9851,7 +9851,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22152777777777777</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -9861,11 +9861,11 @@
         <v>1830</v>
       </c>
       <c r="E295" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>123703</v>
       </c>
       <c r="G295" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H295" s="1"/>
@@ -9878,7 +9878,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -9888,11 +9888,11 @@
         <v>631</v>
       </c>
       <c r="E296" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>124334</v>
       </c>
       <c r="G296" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H296" s="1"/>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C297" s="4"/>
@@ -9913,11 +9913,11 @@
         <v>1200</v>
       </c>
       <c r="E297" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>125534</v>
       </c>
       <c r="G297" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H297" s="1"/>
@@ -9930,7 +9930,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22430555555555554</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -9940,11 +9940,11 @@
         <v>493</v>
       </c>
       <c r="E298" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>126027</v>
       </c>
       <c r="G298" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H298" s="1"/>
@@ -9957,7 +9957,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -9967,11 +9967,11 @@
         <v>-735</v>
       </c>
       <c r="E299" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>125292</v>
       </c>
       <c r="G299" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H299" s="1"/>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C300" s="4"/>
@@ -9992,11 +9992,11 @@
         <v>-2100</v>
       </c>
       <c r="E300" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>123192</v>
       </c>
       <c r="G300" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H300" s="1"/>
@@ -10009,18 +10009,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B301" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22638888888888892</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E301" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>123192</v>
       </c>
       <c r="G301" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H301" s="1"/>
@@ -10035,7 +10035,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B302" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22847222222222219</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -10045,11 +10045,11 @@
         <v>1060</v>
       </c>
       <c r="E302" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>124252</v>
       </c>
       <c r="G302" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H302" s="1"/>
@@ -10062,7 +10062,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B303" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -10072,11 +10072,11 @@
         <v>-1470</v>
       </c>
       <c r="E303" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>122782</v>
       </c>
       <c r="G303" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H303" s="1"/>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="B304" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C304" s="4"/>
@@ -10097,11 +10097,11 @@
         <v>-2100</v>
       </c>
       <c r="E304" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>120682</v>
       </c>
       <c r="G304" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H304" s="1"/>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C305" s="4"/>
@@ -10122,11 +10122,11 @@
         <v>-840</v>
       </c>
       <c r="E305" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>119842</v>
       </c>
       <c r="G305" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="H305" s="1"/>
@@ -10139,21 +10139,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B306" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.23055555555555557</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E306" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>119842</v>
       </c>
       <c r="F306" s="2">
         <v>3</v>
       </c>
       <c r="G306" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>328</v>
       </c>
       <c r="H306" s="1"/>
@@ -10166,18 +10166,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B307" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.23124999999999996</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E307" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>119842</v>
       </c>
       <c r="G307" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>328</v>
       </c>
       <c r="H307" s="1"/>

--- a/Documents/prices.xlsx
+++ b/Documents/prices.xlsx
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/prices.xlsx
+++ b/Documents/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="273">
   <si>
     <t>دلار به تومن</t>
   </si>
@@ -827,6 +827,12 @@
   </si>
   <si>
     <t>our game:</t>
+  </si>
+  <si>
+    <t>30000-33200</t>
+  </si>
+  <si>
+    <t>35-39-43</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1201,7 @@
   <dimension ref="A1:Z326"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,9 +3521,11 @@
       <c r="N60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2">
-        <v>30000</v>
+      <c r="O60" s="2">
+        <v>75</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="Q60" s="2">
         <v>58</v>
@@ -3591,8 +3599,8 @@
       <c r="N62" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O62" s="2">
-        <v>35</v>
+      <c r="O62" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>

--- a/Documents/prices.xlsx
+++ b/Documents/prices.xlsx
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/prices.xlsx
+++ b/Documents/prices.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
@@ -893,6 +893,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,8 +1230,7 @@
     <col min="19" max="19" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2488,11 +2490,15 @@
       <c r="Q30" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="W30" s="9">
+        <f>X30/(1-Y30/100)</f>
+        <v>5714.2857142857147</v>
+      </c>
       <c r="X30" s="2">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Y30" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -2536,11 +2542,15 @@
       <c r="Q31" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="W31" s="9">
+        <f t="shared" ref="W31:W39" si="3">X31/(1-Y31/100)</f>
+        <v>9750</v>
+      </c>
       <c r="X31" s="2">
         <v>3900</v>
       </c>
       <c r="Y31" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -2584,6 +2594,10 @@
       <c r="Q32" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="W32" s="9">
+        <f t="shared" si="3"/>
+        <v>16333.33333333333</v>
+      </c>
       <c r="X32" s="2">
         <v>4900</v>
       </c>
@@ -2626,6 +2640,10 @@
       <c r="Q33" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="W33" s="9">
+        <f t="shared" si="3"/>
+        <v>19800</v>
+      </c>
       <c r="X33" s="2">
         <v>9900</v>
       </c>
@@ -2668,6 +2686,10 @@
       </c>
       <c r="Q34" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="3"/>
+        <v>25000</v>
       </c>
       <c r="X34" s="2">
         <v>15000</v>
@@ -2712,6 +2734,10 @@
       <c r="Q35" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="W35" s="9">
+        <f t="shared" si="3"/>
+        <v>18000</v>
+      </c>
       <c r="X35" s="2">
         <v>9900</v>
       </c>
@@ -2753,6 +2779,10 @@
       <c r="Q36" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="W36" s="9">
+        <f t="shared" si="3"/>
+        <v>29230.76923076923</v>
+      </c>
       <c r="X36" s="2">
         <v>19000</v>
       </c>
@@ -2794,6 +2824,10 @@
       <c r="Q37" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="W37" s="9">
+        <f t="shared" si="3"/>
+        <v>72500</v>
+      </c>
       <c r="X37" s="2">
         <v>29000</v>
       </c>
@@ -2835,6 +2869,10 @@
       <c r="Q38" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="W38" s="9">
+        <f t="shared" si="3"/>
+        <v>82857.14285714287</v>
+      </c>
       <c r="X38" s="2">
         <v>29000</v>
       </c>
@@ -2875,6 +2913,10 @@
       </c>
       <c r="Q39" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="3"/>
+        <v>116000</v>
       </c>
       <c r="X39" s="2">
         <v>29000</v>
@@ -3755,7 +3797,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" ref="B68:B131" si="3">B67+A68</f>
+        <f t="shared" ref="B68:B131" si="4">B67+A68</f>
         <v>5.3472222222222254E-2</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3780,18 +3822,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" ref="E69:E132" si="4">E68+D69</f>
+        <f t="shared" ref="E69:E132" si="5">E68+D69</f>
         <v>33800</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G132" si="5">G68+F69</f>
+        <f t="shared" ref="G69:G132" si="6">G68+F69</f>
         <v>155</v>
       </c>
       <c r="H69" s="1"/>
@@ -3815,18 +3857,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4861111111111138E-2</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33800</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H70" s="1"/>
@@ -3838,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" ref="O70:O75" si="6">N70*$S$58</f>
+        <f t="shared" ref="O70:O75" si="7">N70*$S$58</f>
         <v>2000</v>
       </c>
       <c r="P70" s="4"/>
@@ -3846,7 +3888,7 @@
         <v>50</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" ref="R70:R75" si="7">O70/Q70</f>
+        <f t="shared" ref="R70:R75" si="8">O70/Q70</f>
         <v>40</v>
       </c>
     </row>
@@ -3855,18 +3897,18 @@
         <v>0</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4861111111111138E-2</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33800</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H71" s="1"/>
@@ -3875,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="P71" s="4"/>
@@ -3883,7 +3925,7 @@
         <v>140</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -3892,7 +3934,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3902,11 +3944,11 @@
         <v>-735</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33065</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H72" s="1"/>
@@ -3915,7 +3957,7 @@
         <v>10</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="P72" s="4"/>
@@ -3923,7 +3965,7 @@
         <v>290</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.482758620689658</v>
       </c>
     </row>
@@ -3932,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="C73" s="4"/>
@@ -3940,11 +3982,11 @@
         <v>-1470</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31595</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H73" s="1"/>
@@ -3953,7 +3995,7 @@
         <v>20</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
       <c r="P73" s="4"/>
@@ -3961,7 +4003,7 @@
         <v>600</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -3970,18 +4012,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7638888888888906E-2</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31595</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H74" s="1"/>
@@ -3990,7 +4032,7 @@
         <v>50</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
       <c r="P74" s="4"/>
@@ -3998,7 +4040,7 @@
         <v>1630</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.674846625766872</v>
       </c>
     </row>
@@ -4007,7 +4049,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8333333333333348E-2</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -4017,11 +4059,11 @@
         <v>1070</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32665</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -4037,7 +4079,7 @@
         <v>100</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
       <c r="P75" s="4"/>
@@ -4045,7 +4087,7 @@
         <v>3750</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26.666666666666668</v>
       </c>
     </row>
@@ -4054,18 +4096,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32665</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H76" s="1"/>
@@ -4080,7 +4122,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.041666666666673E-2</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4090,11 +4132,11 @@
         <v>256</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32921</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -4114,18 +4156,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32921</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H78" s="1"/>
@@ -4137,18 +4179,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1805555555555614E-2</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32921</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H79" s="1"/>
@@ -4163,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1805555555555614E-2</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -4173,11 +4215,11 @@
         <v>1022</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33943</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -4194,7 +4236,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -4204,11 +4246,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33943</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H81" s="1"/>
@@ -4220,7 +4262,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -4230,11 +4272,11 @@
         <v>1301</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35244</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H82" s="1"/>
@@ -4246,18 +4288,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4583333333333381E-2</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35244</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H83" s="1"/>
@@ -4269,18 +4311,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B84" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5277777777777768E-2</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35244</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H84" s="1"/>
@@ -4292,7 +4334,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B85" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -4302,11 +4344,11 @@
         <v>-350</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34894</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H85" s="1"/>
@@ -4318,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C86" s="4"/>
@@ -4326,11 +4368,11 @@
         <v>-350</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34544</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H86" s="1"/>
@@ -4342,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C87" s="4"/>
@@ -4350,11 +4392,11 @@
         <v>-350</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34194</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H87" s="1"/>
@@ -4366,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -4376,11 +4418,11 @@
         <v>1150</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35344</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H88" s="1"/>
@@ -4392,7 +4434,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -4402,11 +4444,11 @@
         <v>1797</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37141</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -4423,21 +4465,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37141</v>
       </c>
       <c r="F90" s="2">
         <v>15</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H90" s="1"/>
@@ -4452,18 +4494,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8750000000000033E-2</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37141</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -4480,7 +4522,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -4490,11 +4532,11 @@
         <v>2164</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39305</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H92" s="1"/>
@@ -4506,7 +4548,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0138888888888917E-2</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -4516,11 +4558,11 @@
         <v>655</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39960</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -4537,18 +4579,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0833333333333415E-2</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39960</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H94" s="1"/>
@@ -4560,7 +4602,7 @@
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="B95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -4570,11 +4612,11 @@
         <v>0</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39960</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H95" s="1"/>
@@ -4586,7 +4628,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B96" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -4596,11 +4638,11 @@
         <v>1073</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41033</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -4617,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -4627,11 +4669,11 @@
         <v>1190</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42223</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H97" s="1"/>
@@ -4643,18 +4685,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7777777777777835E-2</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42223</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H98" s="1"/>
@@ -4669,18 +4711,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B99" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42223</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H99" s="1"/>
@@ -4695,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4705,11 +4747,11 @@
         <v>-123</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42100</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H100" s="1"/>
@@ -4721,18 +4763,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B101" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42100</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H101" s="1"/>
@@ -4744,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -4754,11 +4796,11 @@
         <v>1354</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43454</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H102" s="1"/>
@@ -4770,7 +4812,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.986111111111116E-2</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -4780,11 +4822,11 @@
         <v>798</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44252</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="H103" s="1"/>
@@ -4796,21 +4838,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0555555555555602E-2</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44252</v>
       </c>
       <c r="F104" s="2">
         <v>15</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H104" s="1"/>
@@ -4827,7 +4869,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1250000000000044E-2</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -4837,11 +4879,11 @@
         <v>1576</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45828</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H105" s="1"/>
@@ -4853,18 +4895,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1944444444444486E-2</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45828</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H106" s="1"/>
@@ -4879,18 +4921,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2638888888888928E-2</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45828</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H107" s="1"/>
@@ -4905,18 +4947,18 @@
         <v>0</v>
       </c>
       <c r="B108" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2638888888888928E-2</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45828</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H108" s="1"/>
@@ -4931,18 +4973,18 @@
         <v>0</v>
       </c>
       <c r="B109" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2638888888888928E-2</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45828</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H109" s="1"/>
@@ -4957,7 +4999,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="B110" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4967,11 +5009,11 @@
         <v>-350</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45478</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H110" s="1"/>
@@ -4983,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C111" s="4"/>
@@ -4991,11 +5033,11 @@
         <v>-123</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45355</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H111" s="1"/>
@@ -5007,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C112" s="4"/>
@@ -5015,11 +5057,11 @@
         <v>-123</v>
       </c>
       <c r="E112" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45232</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H112" s="1"/>
@@ -5031,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="B113" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5416666666666696E-2</v>
       </c>
       <c r="C113" s="4"/>
@@ -5039,11 +5081,11 @@
         <v>-350</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44882</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H113" s="1"/>
@@ -5055,7 +5097,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B114" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6111111111111138E-2</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -5065,11 +5107,11 @@
         <v>658</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45540</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H114" s="1"/>
@@ -5081,7 +5123,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B115" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7500000000000022E-2</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -5091,11 +5133,11 @@
         <v>688</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46228</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H115" s="1"/>
@@ -5107,7 +5149,7 @@
         <v>1.388888888888995E-3</v>
       </c>
       <c r="B116" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8888888888889017E-2</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -5117,11 +5159,11 @@
         <v>744</v>
       </c>
       <c r="E116" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46972</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H116" s="1"/>
@@ -5133,7 +5175,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B117" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0277777777777901E-2</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -5143,11 +5185,11 @@
         <v>1423</v>
       </c>
       <c r="E117" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48395</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H117" s="1"/>
@@ -5159,21 +5201,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B118" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1666666666666785E-2</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E118" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48395</v>
       </c>
       <c r="F118" s="2">
         <v>15</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="H118" s="1"/>
@@ -5188,18 +5230,18 @@
         <v>0</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1666666666666785E-2</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48395</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="H119" s="1"/>
@@ -5214,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1666666666666785E-2</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -5224,11 +5266,11 @@
         <v>915</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49310</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="H120" s="1"/>
@@ -5240,7 +5282,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3055555555555669E-2</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -5250,11 +5292,11 @@
         <v>1189</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50499</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="H121" s="1"/>
@@ -5266,7 +5308,7 @@
         <v>6.9444444444433095E-4</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.375E-2</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -5276,11 +5318,11 @@
         <v>1006</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51505</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="H122" s="1"/>
@@ -5292,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.375E-2</v>
       </c>
       <c r="C123" s="4"/>
@@ -5300,11 +5342,11 @@
         <v>2500</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54005</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="H123" s="1"/>
@@ -5316,21 +5358,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B124" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54005</v>
       </c>
       <c r="F124" s="2">
         <v>15</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H124" s="1"/>
@@ -5345,18 +5387,18 @@
         <v>0</v>
       </c>
       <c r="B125" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54005</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H125" s="1"/>
@@ -5368,18 +5410,18 @@
         <v>4.1666666666667629E-3</v>
       </c>
       <c r="B126" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9305555555555647E-2</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54005</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H126" s="1"/>
@@ -5391,7 +5433,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B127" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -5401,11 +5443,11 @@
         <v>805</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54810</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H127" s="1"/>
@@ -5417,7 +5459,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B128" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10069444444444453</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -5427,11 +5469,11 @@
         <v>1224</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56034</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H128" s="1"/>
@@ -5443,18 +5485,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B129" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10208333333333341</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56034</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H129" s="1"/>
@@ -5469,18 +5511,18 @@
         <v>0</v>
       </c>
       <c r="B130" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10208333333333341</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56034</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H130" s="1"/>
@@ -5495,7 +5537,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1034722222222223</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -5505,11 +5547,11 @@
         <v>-735</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55299</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H131" s="1"/>
@@ -5521,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" ref="B132:B195" si="8">B131+A132</f>
+        <f t="shared" ref="B132:B195" si="9">B131+A132</f>
         <v>0.1034722222222223</v>
       </c>
       <c r="C132" s="4"/>
@@ -5529,11 +5571,11 @@
         <v>-1470</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53829</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="H132" s="1"/>
@@ -5545,7 +5587,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10416666666666674</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -5555,11 +5597,11 @@
         <v>937</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" ref="E133:E196" si="9">E132+D133</f>
+        <f t="shared" ref="E133:E196" si="10">E132+D133</f>
         <v>54766</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G196" si="10">G132+F133</f>
+        <f t="shared" ref="G133:G196" si="11">G132+F133</f>
         <v>215</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -5576,18 +5618,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E134" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54766</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>215</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -5604,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -5614,11 +5656,11 @@
         <v>1065</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55831</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>215</v>
       </c>
       <c r="H135" s="1"/>
@@ -5630,21 +5672,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10763888888888895</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55831</v>
       </c>
       <c r="F136" s="2">
         <v>15</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H136" s="1"/>
@@ -5659,7 +5701,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -5669,11 +5711,11 @@
         <v>2739</v>
       </c>
       <c r="E137" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58570</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H137" s="1"/>
@@ -5685,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C138" s="4"/>
@@ -5693,11 +5735,11 @@
         <v>30</v>
       </c>
       <c r="E138" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58600</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H138" s="1"/>
@@ -5709,18 +5751,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E139" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58600</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H139" s="1"/>
@@ -5732,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5742,11 +5784,11 @@
         <v>-735</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57865</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H140" s="1"/>
@@ -5758,7 +5800,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -5768,11 +5810,11 @@
         <v>1624</v>
       </c>
       <c r="E141" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59489</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -5789,7 +5831,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5799,11 +5841,11 @@
         <v>1553</v>
       </c>
       <c r="E142" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61042</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H142" s="1"/>
@@ -5815,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C143" s="4"/>
@@ -5823,11 +5865,11 @@
         <v>1000</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62042</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H143" s="1"/>
@@ -5839,7 +5881,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11319444444444449</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -5849,11 +5891,11 @@
         <v>778</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62820</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="H144" s="1"/>
@@ -5865,21 +5907,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62820</v>
       </c>
       <c r="F145" s="2">
         <v>15</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H145" s="1"/>
@@ -5894,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5904,11 +5946,11 @@
         <v>1131</v>
       </c>
       <c r="E146" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63951</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H146" s="1"/>
@@ -5920,7 +5962,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11527777777777781</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -5930,11 +5972,11 @@
         <v>656</v>
       </c>
       <c r="E147" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64607</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H147" s="1"/>
@@ -5946,7 +5988,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11597222222222225</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -5956,11 +5998,11 @@
         <v>849</v>
       </c>
       <c r="E148" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65456</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H148" s="1"/>
@@ -5972,7 +6014,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11736111111111114</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -5982,11 +6024,11 @@
         <v>-735</v>
       </c>
       <c r="E149" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64721</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H149" s="1"/>
@@ -5998,7 +6040,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11805555555555558</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -6008,11 +6050,11 @@
         <v>-2100</v>
       </c>
       <c r="E150" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62621</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H150" s="1"/>
@@ -6024,7 +6066,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11875000000000002</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -6034,11 +6076,11 @@
         <v>911</v>
       </c>
       <c r="E151" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63532</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H151" s="1"/>
@@ -6050,7 +6092,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12013888888888891</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -6060,11 +6102,11 @@
         <v>948</v>
       </c>
       <c r="E152" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64480</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -6081,21 +6123,21 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E153" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64480</v>
       </c>
       <c r="F153" s="2">
         <v>15</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H153" s="1"/>
@@ -6110,18 +6152,18 @@
         <v>0</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E154" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64480</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H154" s="1"/>
@@ -6136,7 +6178,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12222222222222225</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -6146,11 +6188,11 @@
         <v>1085</v>
       </c>
       <c r="E155" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65565</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H155" s="1"/>
@@ -6162,7 +6204,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12291666666666669</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -6172,11 +6214,11 @@
         <v>-560</v>
       </c>
       <c r="E156" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65005</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H156" s="1"/>
@@ -6188,7 +6230,7 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -6198,11 +6240,11 @@
         <v>499</v>
       </c>
       <c r="E157" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65504</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H157" s="1"/>
@@ -6214,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C158" s="4"/>
@@ -6222,11 +6264,11 @@
         <v>2500</v>
       </c>
       <c r="E158" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68004</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H158" s="1"/>
@@ -6238,21 +6280,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E159" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68004</v>
       </c>
       <c r="F159" s="2">
         <v>10</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>270</v>
       </c>
       <c r="H159" s="1"/>
@@ -6264,7 +6306,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12638888888888891</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -6274,11 +6316,11 @@
         <v>2236</v>
       </c>
       <c r="E160" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>70240</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>270</v>
       </c>
       <c r="H160" s="1"/>
@@ -6290,7 +6332,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1277777777777778</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -6300,11 +6342,11 @@
         <v>946</v>
       </c>
       <c r="E161" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>71186</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>270</v>
       </c>
       <c r="H161" s="1"/>
@@ -6317,7 +6359,7 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12916666666666671</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -6327,11 +6369,11 @@
         <v>1970</v>
       </c>
       <c r="E162" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73156</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>270</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -6349,21 +6391,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12986111111111115</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E163" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73156</v>
       </c>
       <c r="F163" s="2">
         <v>15</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H163" s="1"/>
@@ -6379,7 +6421,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13055555555555559</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -6389,11 +6431,11 @@
         <v>1075</v>
       </c>
       <c r="E164" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74231</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H164" s="1"/>
@@ -6406,7 +6448,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -6416,11 +6458,11 @@
         <v>1401</v>
       </c>
       <c r="E165" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75632</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H165" s="1"/>
@@ -6433,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C166" s="4"/>
@@ -6441,11 +6483,11 @@
         <v>1000</v>
       </c>
       <c r="E166" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76632</v>
       </c>
       <c r="G166" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H166" s="1"/>
@@ -6458,7 +6500,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13333333333333336</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -6468,11 +6510,11 @@
         <v>-735</v>
       </c>
       <c r="E167" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75897</v>
       </c>
       <c r="G167" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H167" s="1"/>
@@ -6485,18 +6527,18 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E168" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75897</v>
       </c>
       <c r="G168" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H168" s="1"/>
@@ -6509,16 +6551,16 @@
         <v>0</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C169" s="4"/>
       <c r="E169" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75897</v>
       </c>
       <c r="G169" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H169" s="1"/>
@@ -6531,18 +6573,18 @@
         <v>0</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E170" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75897</v>
       </c>
       <c r="G170" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H170" s="1"/>
@@ -6555,7 +6597,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -6565,11 +6607,11 @@
         <v>-123</v>
       </c>
       <c r="E171" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75774</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H171" s="1"/>
@@ -6582,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C172" s="4"/>
@@ -6590,11 +6632,11 @@
         <v>-123</v>
       </c>
       <c r="E172" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75651</v>
       </c>
       <c r="G172" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H172" s="1"/>
@@ -6607,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C173" s="4"/>
@@ -6615,11 +6657,11 @@
         <v>-350</v>
       </c>
       <c r="E173" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75301</v>
       </c>
       <c r="G173" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H173" s="1"/>
@@ -6632,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C174" s="4"/>
@@ -6640,11 +6682,11 @@
         <v>-1000</v>
       </c>
       <c r="E174" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74301</v>
       </c>
       <c r="G174" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H174" s="1"/>
@@ -6657,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C175" s="4"/>
@@ -6665,11 +6707,11 @@
         <v>-123</v>
       </c>
       <c r="E175" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74178</v>
       </c>
       <c r="G175" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H175" s="1"/>
@@ -6682,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C176" s="4"/>
@@ -6690,11 +6732,11 @@
         <v>-350</v>
       </c>
       <c r="E176" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73828</v>
       </c>
       <c r="G176" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H176" s="1"/>
@@ -6707,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C177" s="4"/>
@@ -6715,11 +6757,11 @@
         <v>-1500</v>
       </c>
       <c r="E177" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72328</v>
       </c>
       <c r="G177" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H177" s="1"/>
@@ -6732,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C178" s="4"/>
@@ -6740,11 +6782,11 @@
         <v>-196</v>
       </c>
       <c r="E178" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72132</v>
       </c>
       <c r="G178" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H178" s="1"/>
@@ -6757,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C179" s="4"/>
@@ -6765,11 +6807,11 @@
         <v>-350</v>
       </c>
       <c r="E179" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>71782</v>
       </c>
       <c r="G179" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H179" s="1"/>
@@ -6782,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C180" s="4"/>
@@ -6790,11 +6832,11 @@
         <v>-350</v>
       </c>
       <c r="E180" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>71432</v>
       </c>
       <c r="G180" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H180" s="1"/>
@@ -6807,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C181" s="4"/>
@@ -6815,11 +6857,11 @@
         <v>-350</v>
       </c>
       <c r="E181" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>71082</v>
       </c>
       <c r="G181" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H181" s="1"/>
@@ -6832,7 +6874,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13819444444444445</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -6842,11 +6884,11 @@
         <v>1638</v>
       </c>
       <c r="E182" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72720</v>
       </c>
       <c r="G182" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H182" s="1"/>
@@ -6859,7 +6901,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13958333333333334</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -6869,11 +6911,11 @@
         <v>1478</v>
       </c>
       <c r="E183" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74198</v>
       </c>
       <c r="G183" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -6891,7 +6933,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14097222222222222</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -6901,11 +6943,11 @@
         <v>0</v>
       </c>
       <c r="E184" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74198</v>
       </c>
       <c r="G184" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H184" s="1"/>
@@ -6918,7 +6960,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1423611111111111</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -6928,11 +6970,11 @@
         <v>2138</v>
       </c>
       <c r="E185" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76336</v>
       </c>
       <c r="G185" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H185" s="1"/>
@@ -6945,7 +6987,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14374999999999999</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -6955,11 +6997,11 @@
         <v>-350</v>
       </c>
       <c r="E186" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75986</v>
       </c>
       <c r="G186" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H186" s="1"/>
@@ -6972,7 +7014,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14444444444444449</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -6982,11 +7024,11 @@
         <v>501</v>
       </c>
       <c r="E187" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76487</v>
       </c>
       <c r="G187" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -7004,21 +7046,21 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14513888888888887</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E188" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76487</v>
       </c>
       <c r="F188" s="2">
         <v>15</v>
       </c>
       <c r="G188" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H188" s="1"/>
@@ -7034,7 +7076,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -7044,11 +7086,11 @@
         <v>681</v>
       </c>
       <c r="E189" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77168</v>
       </c>
       <c r="G189" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H189" s="1"/>
@@ -7061,18 +7103,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14652777777777776</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E190" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77168</v>
       </c>
       <c r="G190" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -7090,18 +7132,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14722222222222225</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E191" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77168</v>
       </c>
       <c r="G191" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H191" s="1"/>
@@ -7117,18 +7159,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1479166666666667</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E192" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77168</v>
       </c>
       <c r="G192" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H192" s="1"/>
@@ -7141,7 +7183,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -7151,11 +7193,11 @@
         <v>1858</v>
       </c>
       <c r="E193" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>79026</v>
       </c>
       <c r="G193" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H193" s="1"/>
@@ -7168,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -7178,11 +7220,11 @@
         <v>1488</v>
       </c>
       <c r="E194" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80514</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H194" s="1"/>
@@ -7195,7 +7237,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14930555555555558</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -7205,11 +7247,11 @@
         <v>1313</v>
       </c>
       <c r="E195" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81827</v>
       </c>
       <c r="G195" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H195" s="1"/>
@@ -7222,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" ref="B196:B259" si="11">B195+A196</f>
+        <f t="shared" ref="B196:B259" si="12">B195+A196</f>
         <v>0.14930555555555558</v>
       </c>
       <c r="C196" s="4"/>
@@ -7230,11 +7272,11 @@
         <v>2500</v>
       </c>
       <c r="E196" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84327</v>
       </c>
       <c r="G196" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="H196" s="1"/>
@@ -7247,7 +7289,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C197" s="4" t="s">
@@ -7257,11 +7299,11 @@
         <v>-1500</v>
       </c>
       <c r="E197" s="7">
-        <f t="shared" ref="E197:E260" si="12">E196+D197</f>
+        <f t="shared" ref="E197:E260" si="13">E196+D197</f>
         <v>82827</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G260" si="13">G196+F197</f>
+        <f t="shared" ref="G197:G260" si="14">G196+F197</f>
         <v>300</v>
       </c>
       <c r="H197" s="1"/>
@@ -7274,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -7284,11 +7326,11 @@
         <v>1298</v>
       </c>
       <c r="E198" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>84125</v>
       </c>
       <c r="G198" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="H198" s="1"/>
@@ -7301,7 +7343,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15208333333333335</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -7311,11 +7353,11 @@
         <v>763</v>
       </c>
       <c r="E199" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>84888</v>
       </c>
       <c r="G199" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -7333,7 +7375,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -7343,11 +7385,11 @@
         <v>1919</v>
       </c>
       <c r="E200" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>86807</v>
       </c>
       <c r="G200" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="H200" s="1"/>
@@ -7360,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C201" s="4"/>
@@ -7368,11 +7410,11 @@
         <v>2500</v>
       </c>
       <c r="E201" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89307</v>
       </c>
       <c r="G201" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="H201" s="1"/>
@@ -7385,21 +7427,21 @@
         <v>0</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E202" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89307</v>
       </c>
       <c r="F202" s="2">
         <v>15</v>
       </c>
       <c r="G202" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H202" s="1"/>
@@ -7415,7 +7457,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B203" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15347222222222223</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -7425,11 +7467,11 @@
         <v>813</v>
       </c>
       <c r="E203" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90120</v>
       </c>
       <c r="G203" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -7447,18 +7489,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B204" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15486111111111112</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E204" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90120</v>
       </c>
       <c r="G204" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -7476,7 +7518,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -7486,11 +7528,11 @@
         <v>1861</v>
       </c>
       <c r="E205" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91981</v>
       </c>
       <c r="G205" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -7508,18 +7550,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E206" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91981</v>
       </c>
       <c r="G206" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -7537,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -7547,11 +7589,11 @@
         <v>494</v>
       </c>
       <c r="E207" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>92475</v>
       </c>
       <c r="G207" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H207" s="1"/>
@@ -7564,7 +7606,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15902777777777777</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -7574,11 +7616,11 @@
         <v>0</v>
       </c>
       <c r="E208" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>92475</v>
       </c>
       <c r="G208" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H208" s="1"/>
@@ -7591,7 +7633,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C209" s="4" t="s">
@@ -7601,11 +7643,11 @@
         <v>1854</v>
       </c>
       <c r="E209" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>94329</v>
       </c>
       <c r="G209" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H209" s="1"/>
@@ -7618,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -7628,11 +7670,11 @@
         <v>1322</v>
       </c>
       <c r="E210" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95651</v>
       </c>
       <c r="G210" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H210" s="1"/>
@@ -7645,7 +7687,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16111111111111115</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -7655,11 +7697,11 @@
         <v>1217</v>
       </c>
       <c r="E211" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96868</v>
       </c>
       <c r="G211" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -7677,18 +7719,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16250000000000003</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E212" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96868</v>
       </c>
       <c r="G212" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H212" s="1"/>
@@ -7701,18 +7743,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E213" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96868</v>
       </c>
       <c r="G213" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H213" s="1"/>
@@ -7725,18 +7767,18 @@
         <v>0</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E214" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96868</v>
       </c>
       <c r="G214" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H214" s="1"/>
@@ -7749,18 +7791,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1645833333333333</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E215" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96868</v>
       </c>
       <c r="G215" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H215" s="1"/>
@@ -7773,7 +7815,7 @@
         <v>3.4722222222222654E-3</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -7783,11 +7825,11 @@
         <v>-840</v>
       </c>
       <c r="E216" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96028</v>
       </c>
       <c r="G216" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H216" s="1"/>
@@ -7800,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -7810,11 +7852,11 @@
         <v>-525</v>
       </c>
       <c r="E217" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95503</v>
       </c>
       <c r="G217" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H217" s="1"/>
@@ -7827,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C218" s="4"/>
@@ -7835,11 +7877,11 @@
         <v>-392</v>
       </c>
       <c r="E218" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95111</v>
       </c>
       <c r="G218" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H218" s="1"/>
@@ -7852,18 +7894,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16944444444444445</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E219" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95111</v>
       </c>
       <c r="G219" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="H219" s="1"/>
@@ -7876,21 +7918,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17013888888888895</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E220" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95111</v>
       </c>
       <c r="F220" s="2">
         <v>7</v>
       </c>
       <c r="G220" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>322</v>
       </c>
       <c r="H220" s="1"/>
@@ -7903,16 +7945,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17083333333333334</v>
       </c>
       <c r="C221" s="4"/>
       <c r="E221" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95111</v>
       </c>
       <c r="G221" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>322</v>
       </c>
       <c r="H221" s="1"/>
@@ -7925,21 +7967,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17152777777777783</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E222" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95111</v>
       </c>
       <c r="F222" s="2">
         <v>15</v>
       </c>
       <c r="G222" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H222" s="1"/>
@@ -7955,16 +7997,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17222222222222222</v>
       </c>
       <c r="C223" s="4"/>
       <c r="E223" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95111</v>
       </c>
       <c r="G223" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H223" s="1"/>
@@ -7977,7 +8019,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -7987,11 +8029,11 @@
         <v>-350</v>
       </c>
       <c r="E224" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>94761</v>
       </c>
       <c r="G224" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H224" s="1"/>
@@ -8004,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C225" s="4"/>
@@ -8012,11 +8054,11 @@
         <v>-350</v>
       </c>
       <c r="E225" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>94411</v>
       </c>
       <c r="G225" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H225" s="1"/>
@@ -8029,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C226" s="4"/>
@@ -8037,11 +8079,11 @@
         <v>-1000</v>
       </c>
       <c r="E226" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93411</v>
       </c>
       <c r="G226" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H226" s="1"/>
@@ -8054,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C227" s="4"/>
@@ -8062,11 +8104,11 @@
         <v>-350</v>
       </c>
       <c r="E227" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93061</v>
       </c>
       <c r="G227" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H227" s="1"/>
@@ -8079,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C228" s="4"/>
@@ -8087,11 +8129,11 @@
         <v>-1000</v>
       </c>
       <c r="E228" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>92061</v>
       </c>
       <c r="G228" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H228" s="1"/>
@@ -8104,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C229" s="4"/>
@@ -8112,11 +8154,11 @@
         <v>-1000</v>
       </c>
       <c r="E229" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91061</v>
       </c>
       <c r="G229" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H229" s="1"/>
@@ -8129,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C230" s="4"/>
@@ -8137,11 +8179,11 @@
         <v>-350</v>
       </c>
       <c r="E230" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90711</v>
       </c>
       <c r="G230" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H230" s="1"/>
@@ -8154,7 +8196,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -8164,11 +8206,11 @@
         <v>-1000</v>
       </c>
       <c r="E231" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89711</v>
       </c>
       <c r="G231" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H231" s="1"/>
@@ -8181,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C232" s="4"/>
@@ -8189,11 +8231,11 @@
         <v>-350</v>
       </c>
       <c r="E232" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89361</v>
       </c>
       <c r="G232" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H232" s="1"/>
@@ -8206,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C233" s="4"/>
@@ -8214,11 +8256,11 @@
         <v>-350</v>
       </c>
       <c r="E233" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89011</v>
       </c>
       <c r="G233" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H233" s="1"/>
@@ -8231,7 +8273,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17777777777777776</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -8241,11 +8283,11 @@
         <v>-1000</v>
       </c>
       <c r="E234" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88011</v>
       </c>
       <c r="G234" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H234" s="1"/>
@@ -8258,7 +8300,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17847222222222225</v>
       </c>
       <c r="C235" s="4" t="s">
@@ -8268,11 +8310,11 @@
         <v>541</v>
       </c>
       <c r="E235" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88552</v>
       </c>
       <c r="G235" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="H235" s="1"/>
@@ -8285,21 +8327,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1791666666666667</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E236" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88552</v>
       </c>
       <c r="F236" s="2">
         <v>10</v>
       </c>
       <c r="G236" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>347</v>
       </c>
       <c r="H236" s="1"/>
@@ -8312,7 +8354,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17986111111111114</v>
       </c>
       <c r="C237" s="4" t="s">
@@ -8322,11 +8364,11 @@
         <v>-350</v>
       </c>
       <c r="E237" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88202</v>
       </c>
       <c r="G237" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>347</v>
       </c>
       <c r="H237" s="1"/>
@@ -8339,21 +8381,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18055555555555558</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E238" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88202</v>
       </c>
       <c r="F238" s="2">
         <v>12</v>
       </c>
       <c r="G238" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>359</v>
       </c>
       <c r="H238" s="1"/>
@@ -8366,18 +8408,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E239" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88202</v>
       </c>
       <c r="G239" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>359</v>
       </c>
       <c r="H239" s="1" t="s">
@@ -8395,19 +8437,19 @@
         <v>0</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C240" s="4"/>
       <c r="E240" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88202</v>
       </c>
       <c r="F240" s="2">
         <v>30</v>
       </c>
       <c r="G240" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
       <c r="H240" s="1"/>
@@ -8420,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C241" s="4"/>
@@ -8428,11 +8470,11 @@
         <v>5000</v>
       </c>
       <c r="E241" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93202</v>
       </c>
       <c r="G241" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
       <c r="H241" s="1"/>
@@ -8445,16 +8487,16 @@
         <v>0</v>
       </c>
       <c r="B242" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C242" s="4"/>
       <c r="E242" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93202</v>
       </c>
       <c r="G242" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -8472,16 +8514,16 @@
         <v>0</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C243" s="4"/>
       <c r="E243" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93202</v>
       </c>
       <c r="G243" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -8499,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C244" s="4"/>
       <c r="E244" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93202</v>
       </c>
       <c r="G244" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -8526,16 +8568,16 @@
         <v>0</v>
       </c>
       <c r="B245" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C245" s="4"/>
       <c r="E245" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93202</v>
       </c>
       <c r="G245" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -8553,21 +8595,21 @@
         <v>0</v>
       </c>
       <c r="B246" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E246" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93202</v>
       </c>
       <c r="F246" s="2">
         <v>-85</v>
       </c>
       <c r="G246" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H246" s="1"/>
@@ -8580,7 +8622,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B247" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18402777777777779</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -8590,11 +8632,11 @@
         <v>-147</v>
       </c>
       <c r="E247" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93055</v>
       </c>
       <c r="G247" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H247" s="1"/>
@@ -8607,18 +8649,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18472222222222223</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E248" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93055</v>
       </c>
       <c r="G248" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H248" s="1"/>
@@ -8631,7 +8673,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18680555555555556</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -8641,11 +8683,11 @@
         <v>380</v>
       </c>
       <c r="E249" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93435</v>
       </c>
       <c r="G249" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H249" s="1"/>
@@ -8658,7 +8700,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -8668,11 +8710,11 @@
         <v>380</v>
       </c>
       <c r="E250" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93815</v>
       </c>
       <c r="G250" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H250" s="1"/>
@@ -8685,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C251" s="4"/>
@@ -8693,11 +8735,11 @@
         <v>2000</v>
       </c>
       <c r="E251" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95815</v>
       </c>
       <c r="G251" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H251" s="1"/>
@@ -8710,7 +8752,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18888888888888888</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -8720,11 +8762,11 @@
         <v>380</v>
       </c>
       <c r="E252" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96195</v>
       </c>
       <c r="G252" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H252" s="1"/>
@@ -8737,7 +8779,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19027777777777777</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -8747,11 +8789,11 @@
         <v>720</v>
       </c>
       <c r="E253" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96915</v>
       </c>
       <c r="G253" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H253" s="1"/>
@@ -8764,7 +8806,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B254" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19097222222222227</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -8774,11 +8816,11 @@
         <v>820</v>
       </c>
       <c r="E254" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97735</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H254" s="1"/>
@@ -8791,7 +8833,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B255" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19166666666666665</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -8801,11 +8843,11 @@
         <v>820</v>
       </c>
       <c r="E255" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>98555</v>
       </c>
       <c r="G255" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H255" s="1"/>
@@ -8818,7 +8860,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B256" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19305555555555554</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -8828,11 +8870,11 @@
         <v>772</v>
       </c>
       <c r="E256" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99327</v>
       </c>
       <c r="G256" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H256" s="1"/>
@@ -8845,7 +8887,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B257" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19444444444444442</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -8855,11 +8897,11 @@
         <v>960</v>
       </c>
       <c r="E257" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100287</v>
       </c>
       <c r="G257" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H257" s="1"/>
@@ -8872,18 +8914,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B258" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1958333333333333</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E258" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100287</v>
       </c>
       <c r="G258" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -8901,7 +8943,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1965277777777778</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -8911,11 +8953,11 @@
         <v>-147</v>
       </c>
       <c r="E259" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100140</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H259" s="1"/>
@@ -8928,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" ref="B260:B307" si="14">B259+A260</f>
+        <f t="shared" ref="B260:B307" si="15">B259+A260</f>
         <v>0.1965277777777778</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -8938,11 +8980,11 @@
         <v>-147</v>
       </c>
       <c r="E260" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99993</v>
       </c>
       <c r="G260" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="H260" s="1"/>
@@ -8955,7 +8997,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -8965,11 +9007,11 @@
         <v>-350</v>
       </c>
       <c r="E261" s="7">
-        <f t="shared" ref="E261:E307" si="15">E260+D261</f>
+        <f t="shared" ref="E261:E307" si="16">E260+D261</f>
         <v>99643</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" ref="G261:G307" si="16">G260+F261</f>
+        <f t="shared" ref="G261:G307" si="17">G260+F261</f>
         <v>304</v>
       </c>
       <c r="H261" s="1"/>
@@ -8982,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C262" s="4"/>
@@ -8990,11 +9032,11 @@
         <v>-350</v>
       </c>
       <c r="E262" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99293</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>304</v>
       </c>
       <c r="H262" s="1"/>
@@ -9007,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -9017,11 +9059,11 @@
         <v>-350</v>
       </c>
       <c r="E263" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>98943</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>304</v>
       </c>
       <c r="H263" s="1"/>
@@ -9034,21 +9076,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19861111111111107</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E264" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>98943</v>
       </c>
       <c r="F264" s="2">
         <v>5</v>
       </c>
       <c r="G264" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H264" s="1"/>
@@ -9061,7 +9103,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -9071,11 +9113,11 @@
         <v>1416</v>
       </c>
       <c r="E265" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100359</v>
       </c>
       <c r="G265" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H265" s="1"/>
@@ -9088,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C266" s="4"/>
@@ -9096,11 +9138,11 @@
         <v>2500</v>
       </c>
       <c r="E266" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>102859</v>
       </c>
       <c r="G266" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H266" s="1"/>
@@ -9113,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C267" s="4"/>
@@ -9121,11 +9163,11 @@
         <v>-105</v>
       </c>
       <c r="E267" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>102754</v>
       </c>
       <c r="G267" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H267" s="1"/>
@@ -9138,7 +9180,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20138888888888895</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -9148,11 +9190,11 @@
         <v>1633</v>
       </c>
       <c r="E268" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104387</v>
       </c>
       <c r="G268" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H268" s="1"/>
@@ -9165,7 +9207,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -9175,11 +9217,11 @@
         <v>-1500</v>
       </c>
       <c r="E269" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>102887</v>
       </c>
       <c r="G269" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H269" s="1"/>
@@ -9192,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C270" s="4"/>
@@ -9200,11 +9242,11 @@
         <v>-4200</v>
       </c>
       <c r="E270" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>98687</v>
       </c>
       <c r="G270" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H270" s="1"/>
@@ -9217,7 +9259,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -9227,11 +9269,11 @@
         <v>-1000</v>
       </c>
       <c r="E271" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97687</v>
       </c>
       <c r="G271" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H271" s="1"/>
@@ -9244,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -9254,11 +9296,11 @@
         <v>-350</v>
       </c>
       <c r="E272" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97337</v>
       </c>
       <c r="G272" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>309</v>
       </c>
       <c r="H272" s="1"/>
@@ -9271,21 +9313,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20416666666666672</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E273" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97337</v>
       </c>
       <c r="F273" s="2">
         <v>1</v>
       </c>
       <c r="G273" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>310</v>
       </c>
       <c r="H273" s="1"/>
@@ -9298,18 +9340,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E274" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97337</v>
       </c>
       <c r="G274" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>310</v>
       </c>
       <c r="H274" s="1"/>
@@ -9322,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -9332,11 +9374,11 @@
         <v>757</v>
       </c>
       <c r="E275" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>98094</v>
       </c>
       <c r="G275" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>310</v>
       </c>
       <c r="H275" s="1"/>
@@ -9351,7 +9393,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20694444444444449</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -9361,11 +9403,11 @@
         <v>1765</v>
       </c>
       <c r="E276" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99859</v>
       </c>
       <c r="G276" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>310</v>
       </c>
       <c r="H276" s="1"/>
@@ -9378,7 +9420,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -9388,11 +9430,11 @@
         <v>1398</v>
       </c>
       <c r="E277" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>101257</v>
       </c>
       <c r="G277" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>310</v>
       </c>
       <c r="H277" s="1"/>
@@ -9405,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C278" s="4"/>
@@ -9413,11 +9455,11 @@
         <v>3000</v>
       </c>
       <c r="E278" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104257</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>310</v>
       </c>
       <c r="H278" s="1"/>
@@ -9430,21 +9472,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20972222222222225</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E279" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104257</v>
       </c>
       <c r="F279" s="2">
         <v>15</v>
       </c>
       <c r="G279" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H279" s="1"/>
@@ -9460,7 +9502,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21041666666666664</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -9470,11 +9512,11 @@
         <v>0</v>
       </c>
       <c r="E280" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104257</v>
       </c>
       <c r="G280" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H280" s="1"/>
@@ -9487,7 +9529,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21111111111111114</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -9497,11 +9539,11 @@
         <v>0</v>
       </c>
       <c r="E281" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104257</v>
       </c>
       <c r="G281" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H281" s="1"/>
@@ -9514,7 +9556,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21250000000000002</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -9524,11 +9566,11 @@
         <v>2109</v>
       </c>
       <c r="E282" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>106366</v>
       </c>
       <c r="G282" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H282" s="1"/>
@@ -9541,7 +9583,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -9551,11 +9593,11 @@
         <v>1365</v>
       </c>
       <c r="E283" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>107731</v>
       </c>
       <c r="G283" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H283" s="1"/>
@@ -9568,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C284" s="4"/>
@@ -9576,11 +9618,11 @@
         <v>2500</v>
       </c>
       <c r="E284" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>110231</v>
       </c>
       <c r="G284" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H284" s="1"/>
@@ -9593,7 +9635,7 @@
         <v>1.3888888888889395E-3</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21597222222222223</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -9603,11 +9645,11 @@
         <v>-196</v>
       </c>
       <c r="E285" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>110035</v>
       </c>
       <c r="G285" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H285" s="1"/>
@@ -9620,7 +9662,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -9630,11 +9672,11 @@
         <v>0</v>
       </c>
       <c r="E286" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>110035</v>
       </c>
       <c r="G286" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H286" s="1"/>
@@ -9647,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -9657,11 +9699,11 @@
         <v>0</v>
       </c>
       <c r="E287" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>110035</v>
       </c>
       <c r="G287" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H287" s="1"/>
@@ -9674,7 +9716,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -9684,11 +9726,11 @@
         <v>774</v>
       </c>
       <c r="E288" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>110809</v>
       </c>
       <c r="G288" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H288" s="1"/>
@@ -9701,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C289" s="4"/>
@@ -9709,11 +9751,11 @@
         <v>2500</v>
       </c>
       <c r="E289" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>113309</v>
       </c>
       <c r="G289" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H289" s="1"/>
@@ -9726,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C290" s="4"/>
@@ -9734,11 +9776,11 @@
         <v>3789</v>
       </c>
       <c r="E290" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>117098</v>
       </c>
       <c r="G290" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H290" s="1"/>
@@ -9751,18 +9793,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21875</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E291" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>117098</v>
       </c>
       <c r="G291" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -9780,7 +9822,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -9790,11 +9832,11 @@
         <v>1656</v>
       </c>
       <c r="E292" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>118754</v>
       </c>
       <c r="G292" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H292" s="1"/>
@@ -9807,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C293" s="4"/>
@@ -9815,11 +9857,11 @@
         <v>1600</v>
       </c>
       <c r="E293" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>120354</v>
       </c>
       <c r="G293" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H293" s="1"/>
@@ -9832,7 +9874,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22083333333333333</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -9842,11 +9884,11 @@
         <v>1519</v>
       </c>
       <c r="E294" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>121873</v>
       </c>
       <c r="G294" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H294" s="1"/>
@@ -9859,7 +9901,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22152777777777777</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -9869,11 +9911,11 @@
         <v>1830</v>
       </c>
       <c r="E295" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>123703</v>
       </c>
       <c r="G295" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H295" s="1"/>
@@ -9886,7 +9928,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -9896,11 +9938,11 @@
         <v>631</v>
       </c>
       <c r="E296" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>124334</v>
       </c>
       <c r="G296" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H296" s="1"/>
@@ -9913,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C297" s="4"/>
@@ -9921,11 +9963,11 @@
         <v>1200</v>
       </c>
       <c r="E297" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>125534</v>
       </c>
       <c r="G297" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H297" s="1"/>
@@ -9938,7 +9980,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22430555555555554</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -9948,11 +9990,11 @@
         <v>493</v>
       </c>
       <c r="E298" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>126027</v>
       </c>
       <c r="G298" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H298" s="1"/>
@@ -9965,7 +10007,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -9975,11 +10017,11 @@
         <v>-735</v>
       </c>
       <c r="E299" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>125292</v>
       </c>
       <c r="G299" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H299" s="1"/>
@@ -9992,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C300" s="4"/>
@@ -10000,11 +10042,11 @@
         <v>-2100</v>
       </c>
       <c r="E300" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>123192</v>
       </c>
       <c r="G300" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H300" s="1"/>
@@ -10017,18 +10059,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B301" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22638888888888892</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E301" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>123192</v>
       </c>
       <c r="G301" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H301" s="1"/>
@@ -10043,7 +10085,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B302" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22847222222222219</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -10053,11 +10095,11 @@
         <v>1060</v>
       </c>
       <c r="E302" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>124252</v>
       </c>
       <c r="G302" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H302" s="1"/>
@@ -10070,7 +10112,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B303" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -10080,11 +10122,11 @@
         <v>-1470</v>
       </c>
       <c r="E303" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>122782</v>
       </c>
       <c r="G303" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H303" s="1"/>
@@ -10097,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="B304" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C304" s="4"/>
@@ -10105,11 +10147,11 @@
         <v>-2100</v>
       </c>
       <c r="E304" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>120682</v>
       </c>
       <c r="G304" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H304" s="1"/>
@@ -10122,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C305" s="4"/>
@@ -10130,11 +10172,11 @@
         <v>-840</v>
       </c>
       <c r="E305" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>119842</v>
       </c>
       <c r="G305" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>325</v>
       </c>
       <c r="H305" s="1"/>
@@ -10147,21 +10189,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B306" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.23055555555555557</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E306" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>119842</v>
       </c>
       <c r="F306" s="2">
         <v>3</v>
       </c>
       <c r="G306" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>328</v>
       </c>
       <c r="H306" s="1"/>
@@ -10174,18 +10216,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B307" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.23124999999999996</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E307" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>119842</v>
       </c>
       <c r="G307" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>328</v>
       </c>
       <c r="H307" s="1"/>

--- a/Documents/prices.xlsx
+++ b/Documents/prices.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="273">
   <si>
     <t>دلار به تومن</t>
   </si>
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" topLeftCell="L40" workbookViewId="0">
+      <selection activeCell="T87" sqref="T87:T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,7 +3713,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>1.3888888888889395E-3</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="H66" s="1"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="H67" s="1"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2.0833333333333259E-3</v>
       </c>
@@ -3817,7 +3817,7 @@
       <c r="H68" s="1"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>0</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2.0833333333333259E-3</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>34.482758620689658</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>0</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>30.674846625766872</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>6.9444444444444198E-4</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -4146,12 +4146,21 @@
         <v>1</v>
       </c>
       <c r="L77" s="7"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -4172,9 +4181,23 @@
       </c>
       <c r="H78" s="1"/>
       <c r="L78" s="7"/>
-      <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N78" s="2">
+        <v>2</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" ref="O78:O84" si="9">N78*$S$58</f>
+        <v>2000</v>
+      </c>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="2">
+        <v>50</v>
+      </c>
+      <c r="R78" s="1">
+        <f t="shared" ref="R78:R84" si="10">O78/Q78</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -4198,9 +4221,31 @@
         <v>246</v>
       </c>
       <c r="L79" s="7"/>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N79" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="9"/>
+        <v>4900</v>
+      </c>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="2">
+        <v>140</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="S79" s="2">
+        <f>O79/$R$78</f>
+        <v>122.5</v>
+      </c>
+      <c r="T79" s="2">
+        <f>Q79/S79</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>0</v>
       </c>
@@ -4229,9 +4274,31 @@
         <v>1</v>
       </c>
       <c r="L80" s="7"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N80" s="2">
+        <v>10</v>
+      </c>
+      <c r="O80" s="4">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="2">
+        <v>290</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="10"/>
+        <v>34.482758620689658</v>
+      </c>
+      <c r="S80" s="2">
+        <f t="shared" ref="S80:S83" si="11">O80/$R$78</f>
+        <v>250</v>
+      </c>
+      <c r="T80" s="2">
+        <f t="shared" ref="T80:T83" si="12">Q80/S80</f>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -4255,9 +4322,31 @@
       </c>
       <c r="H81" s="1"/>
       <c r="L81" s="7"/>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="2">
+        <v>19</v>
+      </c>
+      <c r="O81" s="4">
+        <f t="shared" si="9"/>
+        <v>19000</v>
+      </c>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="2">
+        <v>600</v>
+      </c>
+      <c r="R81" s="1">
+        <f t="shared" si="10"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="S81" s="2">
+        <f t="shared" si="11"/>
+        <v>475</v>
+      </c>
+      <c r="T81" s="2">
+        <f t="shared" si="12"/>
+        <v>1.263157894736842</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -4281,9 +4370,31 @@
       </c>
       <c r="H82" s="1"/>
       <c r="L82" s="7"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N82" s="2">
+        <v>49</v>
+      </c>
+      <c r="O82" s="4">
+        <f t="shared" si="9"/>
+        <v>49000</v>
+      </c>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="2">
+        <v>1630</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="10"/>
+        <v>30.061349693251532</v>
+      </c>
+      <c r="S82" s="2">
+        <f t="shared" si="11"/>
+        <v>1225</v>
+      </c>
+      <c r="T82" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3306122448979592</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -4304,9 +4415,31 @@
       </c>
       <c r="H83" s="1"/>
       <c r="L83" s="7"/>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="2">
+        <v>99</v>
+      </c>
+      <c r="O83" s="4">
+        <f t="shared" si="9"/>
+        <v>99000</v>
+      </c>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="2">
+        <v>3750</v>
+      </c>
+      <c r="R83" s="1">
+        <f t="shared" si="10"/>
+        <v>26.4</v>
+      </c>
+      <c r="S83" s="2">
+        <f t="shared" si="11"/>
+        <v>2475</v>
+      </c>
+      <c r="T83" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5151515151515151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -4327,9 +4460,8 @@
       </c>
       <c r="H84" s="1"/>
       <c r="L84" s="7"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -4353,9 +4485,21 @@
       </c>
       <c r="H85" s="1"/>
       <c r="L85" s="7"/>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>0</v>
       </c>
@@ -4377,9 +4521,23 @@
       </c>
       <c r="H86" s="1"/>
       <c r="L86" s="7"/>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="2">
+        <v>2</v>
+      </c>
+      <c r="O86" s="4">
+        <f t="shared" ref="O86:O91" si="13">N86*$S$58</f>
+        <v>2000</v>
+      </c>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="2">
+        <v>50</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" ref="R86:R91" si="14">O86/Q86</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>0</v>
       </c>
@@ -4401,9 +4559,31 @@
       </c>
       <c r="H87" s="1"/>
       <c r="L87" s="7"/>
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O87" s="4">
+        <f t="shared" si="13"/>
+        <v>4900</v>
+      </c>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="2">
+        <v>140</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="S87" s="2">
+        <f>O87/$R$86</f>
+        <v>122.5</v>
+      </c>
+      <c r="T87" s="2">
+        <f>Q87/S87-1</f>
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>0</v>
       </c>
@@ -4427,9 +4607,31 @@
       </c>
       <c r="H88" s="1"/>
       <c r="L88" s="7"/>
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="2">
+        <v>15</v>
+      </c>
+      <c r="O88" s="4">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="2">
+        <v>450</v>
+      </c>
+      <c r="R88" s="1">
+        <f t="shared" si="14"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S88" s="2">
+        <f t="shared" ref="S88:S91" si="15">O88/$R$86</f>
+        <v>375</v>
+      </c>
+      <c r="T88" s="2">
+        <f t="shared" ref="T88:T91" si="16">Q88/S88-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -4458,9 +4660,31 @@
         <v>1</v>
       </c>
       <c r="L89" s="7"/>
-      <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="2">
+        <v>49</v>
+      </c>
+      <c r="O89" s="4">
+        <f t="shared" si="13"/>
+        <v>49000</v>
+      </c>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="2">
+        <v>1600</v>
+      </c>
+      <c r="R89" s="1">
+        <f t="shared" si="14"/>
+        <v>30.625</v>
+      </c>
+      <c r="S89" s="2">
+        <f t="shared" si="15"/>
+        <v>1225</v>
+      </c>
+      <c r="T89" s="2">
+        <f t="shared" si="16"/>
+        <v>0.30612244897959173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -4487,9 +4711,31 @@
         <v>45</v>
       </c>
       <c r="L90" s="7"/>
-      <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="2">
+        <v>99</v>
+      </c>
+      <c r="O90" s="4">
+        <f t="shared" si="13"/>
+        <v>99000</v>
+      </c>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="2">
+        <v>3700</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" si="14"/>
+        <v>26.756756756756758</v>
+      </c>
+      <c r="S90" s="2">
+        <f t="shared" si="15"/>
+        <v>2475</v>
+      </c>
+      <c r="T90" s="2">
+        <f t="shared" si="16"/>
+        <v>0.49494949494949503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -4515,9 +4761,31 @@
         <v>1</v>
       </c>
       <c r="L91" s="7"/>
-      <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="2">
+        <v>199</v>
+      </c>
+      <c r="O91" s="4">
+        <f t="shared" si="13"/>
+        <v>199000</v>
+      </c>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="2">
+        <v>8000</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" si="14"/>
+        <v>24.875</v>
+      </c>
+      <c r="S91" s="2">
+        <f t="shared" si="15"/>
+        <v>4975</v>
+      </c>
+      <c r="T91" s="2">
+        <f t="shared" si="16"/>
+        <v>0.6080402010050252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>6.9444444444438647E-4</v>
       </c>
@@ -4543,7 +4811,7 @@
       <c r="L92" s="7"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -4574,7 +4842,7 @@
       <c r="L93" s="7"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>6.9444444444449749E-4</v>
       </c>
@@ -4597,7 +4865,7 @@
       <c r="L94" s="7"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>4.1666666666666519E-3</v>
       </c>
@@ -4623,7 +4891,7 @@
       <c r="L95" s="7"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>1.388888888888884E-3</v>
       </c>
@@ -5563,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" ref="B132:B195" si="9">B131+A132</f>
+        <f t="shared" ref="B132:B195" si="17">B131+A132</f>
         <v>0.1034722222222223</v>
       </c>
       <c r="C132" s="4"/>
@@ -5587,7 +5855,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.10416666666666674</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -5597,11 +5865,11 @@
         <v>937</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" ref="E133:E196" si="10">E132+D133</f>
+        <f t="shared" ref="E133:E196" si="18">E132+D133</f>
         <v>54766</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G196" si="11">G132+F133</f>
+        <f t="shared" ref="G133:G196" si="19">G132+F133</f>
         <v>215</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -5618,18 +5886,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E134" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>54766</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>215</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -5646,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.10625000000000007</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -5656,11 +5924,11 @@
         <v>1065</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>55831</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>215</v>
       </c>
       <c r="H135" s="1"/>
@@ -5672,21 +5940,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.10763888888888895</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>55831</v>
       </c>
       <c r="F136" s="2">
         <v>15</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H136" s="1"/>
@@ -5701,7 +5969,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -5711,11 +5979,11 @@
         <v>2739</v>
       </c>
       <c r="E137" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>58570</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H137" s="1"/>
@@ -5727,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.10902777777777783</v>
       </c>
       <c r="C138" s="4"/>
@@ -5735,11 +6003,11 @@
         <v>30</v>
       </c>
       <c r="E138" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>58600</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H138" s="1"/>
@@ -5751,18 +6019,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E139" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>58600</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H139" s="1"/>
@@ -5774,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11041666666666672</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5784,11 +6052,11 @@
         <v>-735</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>57865</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H140" s="1"/>
@@ -5800,7 +6068,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -5810,11 +6078,11 @@
         <v>1624</v>
       </c>
       <c r="E141" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>59489</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -5831,7 +6099,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5841,11 +6109,11 @@
         <v>1553</v>
       </c>
       <c r="E142" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>61042</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H142" s="1"/>
@@ -5857,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11250000000000004</v>
       </c>
       <c r="C143" s="4"/>
@@ -5865,11 +6133,11 @@
         <v>1000</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>62042</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H143" s="1"/>
@@ -5881,7 +6149,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11319444444444449</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -5891,11 +6159,11 @@
         <v>778</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>62820</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="H144" s="1"/>
@@ -5907,21 +6175,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>62820</v>
       </c>
       <c r="F145" s="2">
         <v>15</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H145" s="1"/>
@@ -5936,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11388888888888893</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5946,11 +6214,11 @@
         <v>1131</v>
       </c>
       <c r="E146" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>63951</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H146" s="1"/>
@@ -5962,7 +6230,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11527777777777781</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -5972,11 +6240,11 @@
         <v>656</v>
       </c>
       <c r="E147" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>64607</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H147" s="1"/>
@@ -5988,7 +6256,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11597222222222225</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -5998,11 +6266,11 @@
         <v>849</v>
       </c>
       <c r="E148" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>65456</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H148" s="1"/>
@@ -6014,7 +6282,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11736111111111114</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -6024,11 +6292,11 @@
         <v>-735</v>
       </c>
       <c r="E149" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>64721</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H149" s="1"/>
@@ -6040,7 +6308,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11805555555555558</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -6050,11 +6318,11 @@
         <v>-2100</v>
       </c>
       <c r="E150" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>62621</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H150" s="1"/>
@@ -6066,7 +6334,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.11875000000000002</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -6076,11 +6344,11 @@
         <v>911</v>
       </c>
       <c r="E151" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>63532</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H151" s="1"/>
@@ -6092,7 +6360,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12013888888888891</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -6102,11 +6370,11 @@
         <v>948</v>
       </c>
       <c r="E152" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>64480</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -6123,21 +6391,21 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E153" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>64480</v>
       </c>
       <c r="F153" s="2">
         <v>15</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
       <c r="H153" s="1"/>
@@ -6152,18 +6420,18 @@
         <v>0</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1215277777777778</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E154" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>64480</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
       <c r="H154" s="1"/>
@@ -6178,7 +6446,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12222222222222225</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -6188,11 +6456,11 @@
         <v>1085</v>
       </c>
       <c r="E155" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>65565</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
       <c r="H155" s="1"/>
@@ -6204,7 +6472,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12291666666666669</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -6214,11 +6482,11 @@
         <v>-560</v>
       </c>
       <c r="E156" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>65005</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
       <c r="H156" s="1"/>
@@ -6230,7 +6498,7 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -6240,11 +6508,11 @@
         <v>499</v>
       </c>
       <c r="E157" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>65504</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
       <c r="H157" s="1"/>
@@ -6256,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12361111111111114</v>
       </c>
       <c r="C158" s="4"/>
@@ -6264,11 +6532,11 @@
         <v>2500</v>
       </c>
       <c r="E158" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>68004</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
       <c r="H158" s="1"/>
@@ -6280,21 +6548,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E159" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>68004</v>
       </c>
       <c r="F159" s="2">
         <v>10</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>270</v>
       </c>
       <c r="H159" s="1"/>
@@ -6306,7 +6574,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12638888888888891</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -6316,11 +6584,11 @@
         <v>2236</v>
       </c>
       <c r="E160" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>70240</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>270</v>
       </c>
       <c r="H160" s="1"/>
@@ -6332,7 +6600,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1277777777777778</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -6342,11 +6610,11 @@
         <v>946</v>
       </c>
       <c r="E161" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>71186</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>270</v>
       </c>
       <c r="H161" s="1"/>
@@ -6359,7 +6627,7 @@
         <v>1.3888888888888978E-3</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12916666666666671</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -6369,11 +6637,11 @@
         <v>1970</v>
       </c>
       <c r="E162" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>73156</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>270</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -6391,21 +6659,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12986111111111115</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E163" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>73156</v>
       </c>
       <c r="F163" s="2">
         <v>15</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H163" s="1"/>
@@ -6421,7 +6689,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13055555555555559</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -6431,11 +6699,11 @@
         <v>1075</v>
       </c>
       <c r="E164" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>74231</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H164" s="1"/>
@@ -6448,7 +6716,7 @@
         <v>1.3888888888888909E-3</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -6458,11 +6726,11 @@
         <v>1401</v>
       </c>
       <c r="E165" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75632</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H165" s="1"/>
@@ -6475,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13194444444444448</v>
       </c>
       <c r="C166" s="4"/>
@@ -6483,11 +6751,11 @@
         <v>1000</v>
       </c>
       <c r="E166" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>76632</v>
       </c>
       <c r="G166" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H166" s="1"/>
@@ -6500,7 +6768,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13333333333333336</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -6510,11 +6778,11 @@
         <v>-735</v>
       </c>
       <c r="E167" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75897</v>
       </c>
       <c r="G167" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H167" s="1"/>
@@ -6527,18 +6795,18 @@
         <v>6.9444444444444892E-4</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E168" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75897</v>
       </c>
       <c r="G168" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H168" s="1"/>
@@ -6551,16 +6819,16 @@
         <v>0</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C169" s="4"/>
       <c r="E169" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75897</v>
       </c>
       <c r="G169" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H169" s="1"/>
@@ -6573,18 +6841,18 @@
         <v>0</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1340277777777778</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E170" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75897</v>
       </c>
       <c r="G170" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H170" s="1"/>
@@ -6597,7 +6865,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -6607,11 +6875,11 @@
         <v>-123</v>
       </c>
       <c r="E171" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75774</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H171" s="1"/>
@@ -6624,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C172" s="4"/>
@@ -6632,11 +6900,11 @@
         <v>-123</v>
       </c>
       <c r="E172" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75651</v>
       </c>
       <c r="G172" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H172" s="1"/>
@@ -6649,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C173" s="4"/>
@@ -6657,11 +6925,11 @@
         <v>-350</v>
       </c>
       <c r="E173" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75301</v>
       </c>
       <c r="G173" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H173" s="1"/>
@@ -6674,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C174" s="4"/>
@@ -6682,11 +6950,11 @@
         <v>-1000</v>
       </c>
       <c r="E174" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>74301</v>
       </c>
       <c r="G174" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H174" s="1"/>
@@ -6699,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C175" s="4"/>
@@ -6707,11 +6975,11 @@
         <v>-123</v>
       </c>
       <c r="E175" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>74178</v>
       </c>
       <c r="G175" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H175" s="1"/>
@@ -6724,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C176" s="4"/>
@@ -6732,11 +7000,11 @@
         <v>-350</v>
       </c>
       <c r="E176" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>73828</v>
       </c>
       <c r="G176" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H176" s="1"/>
@@ -6749,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C177" s="4"/>
@@ -6757,11 +7025,11 @@
         <v>-1500</v>
       </c>
       <c r="E177" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>72328</v>
       </c>
       <c r="G177" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H177" s="1"/>
@@ -6774,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C178" s="4"/>
@@ -6782,11 +7050,11 @@
         <v>-196</v>
       </c>
       <c r="E178" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>72132</v>
       </c>
       <c r="G178" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H178" s="1"/>
@@ -6799,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C179" s="4"/>
@@ -6807,11 +7075,11 @@
         <v>-350</v>
       </c>
       <c r="E179" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>71782</v>
       </c>
       <c r="G179" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H179" s="1"/>
@@ -6824,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C180" s="4"/>
@@ -6832,11 +7100,11 @@
         <v>-350</v>
       </c>
       <c r="E180" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>71432</v>
       </c>
       <c r="G180" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H180" s="1"/>
@@ -6849,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13611111111111107</v>
       </c>
       <c r="C181" s="4"/>
@@ -6857,11 +7125,11 @@
         <v>-350</v>
       </c>
       <c r="E181" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>71082</v>
       </c>
       <c r="G181" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H181" s="1"/>
@@ -6874,7 +7142,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13819444444444445</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -6884,11 +7152,11 @@
         <v>1638</v>
       </c>
       <c r="E182" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>72720</v>
       </c>
       <c r="G182" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H182" s="1"/>
@@ -6901,7 +7169,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13958333333333334</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -6911,11 +7179,11 @@
         <v>1478</v>
       </c>
       <c r="E183" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>74198</v>
       </c>
       <c r="G183" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -6933,7 +7201,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14097222222222222</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -6943,11 +7211,11 @@
         <v>0</v>
       </c>
       <c r="E184" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>74198</v>
       </c>
       <c r="G184" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H184" s="1"/>
@@ -6960,7 +7228,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1423611111111111</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -6970,11 +7238,11 @@
         <v>2138</v>
       </c>
       <c r="E185" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>76336</v>
       </c>
       <c r="G185" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H185" s="1"/>
@@ -6987,7 +7255,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14374999999999999</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -6997,11 +7265,11 @@
         <v>-350</v>
       </c>
       <c r="E186" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75986</v>
       </c>
       <c r="G186" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H186" s="1"/>
@@ -7014,7 +7282,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14444444444444449</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -7024,11 +7292,11 @@
         <v>501</v>
       </c>
       <c r="E187" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>76487</v>
       </c>
       <c r="G187" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>285</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -7046,21 +7314,21 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14513888888888887</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E188" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>76487</v>
       </c>
       <c r="F188" s="2">
         <v>15</v>
       </c>
       <c r="G188" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H188" s="1"/>
@@ -7076,7 +7344,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14583333333333337</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -7086,11 +7354,11 @@
         <v>681</v>
       </c>
       <c r="E189" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>77168</v>
       </c>
       <c r="G189" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H189" s="1"/>
@@ -7103,18 +7371,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14652777777777776</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E190" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>77168</v>
       </c>
       <c r="G190" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -7132,18 +7400,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14722222222222225</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E191" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>77168</v>
       </c>
       <c r="G191" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H191" s="1"/>
@@ -7159,18 +7427,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1479166666666667</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E192" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>77168</v>
       </c>
       <c r="G192" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H192" s="1"/>
@@ -7183,7 +7451,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -7193,11 +7461,11 @@
         <v>1858</v>
       </c>
       <c r="E193" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>79026</v>
       </c>
       <c r="G193" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H193" s="1"/>
@@ -7210,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14861111111111114</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -7220,11 +7488,11 @@
         <v>1488</v>
       </c>
       <c r="E194" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>80514</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H194" s="1"/>
@@ -7237,7 +7505,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14930555555555558</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -7247,11 +7515,11 @@
         <v>1313</v>
       </c>
       <c r="E195" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>81827</v>
       </c>
       <c r="G195" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H195" s="1"/>
@@ -7264,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" ref="B196:B259" si="12">B195+A196</f>
+        <f t="shared" ref="B196:B259" si="20">B195+A196</f>
         <v>0.14930555555555558</v>
       </c>
       <c r="C196" s="4"/>
@@ -7272,11 +7540,11 @@
         <v>2500</v>
       </c>
       <c r="E196" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>84327</v>
       </c>
       <c r="G196" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="H196" s="1"/>
@@ -7289,7 +7557,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C197" s="4" t="s">
@@ -7299,11 +7567,11 @@
         <v>-1500</v>
       </c>
       <c r="E197" s="7">
-        <f t="shared" ref="E197:E260" si="13">E196+D197</f>
+        <f t="shared" ref="E197:E260" si="21">E196+D197</f>
         <v>82827</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G260" si="14">G196+F197</f>
+        <f t="shared" ref="G197:G260" si="22">G196+F197</f>
         <v>300</v>
       </c>
       <c r="H197" s="1"/>
@@ -7316,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15069444444444446</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -7326,11 +7594,11 @@
         <v>1298</v>
       </c>
       <c r="E198" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>84125</v>
       </c>
       <c r="G198" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="H198" s="1"/>
@@ -7343,7 +7611,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15208333333333335</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -7353,11 +7621,11 @@
         <v>763</v>
       </c>
       <c r="E199" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>84888</v>
       </c>
       <c r="G199" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -7375,7 +7643,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -7385,11 +7653,11 @@
         <v>1919</v>
       </c>
       <c r="E200" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>86807</v>
       </c>
       <c r="G200" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="H200" s="1"/>
@@ -7402,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C201" s="4"/>
@@ -7410,11 +7678,11 @@
         <v>2500</v>
       </c>
       <c r="E201" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>89307</v>
       </c>
       <c r="G201" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="H201" s="1"/>
@@ -7427,21 +7695,21 @@
         <v>0</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E202" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>89307</v>
       </c>
       <c r="F202" s="2">
         <v>15</v>
       </c>
       <c r="G202" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H202" s="1"/>
@@ -7457,7 +7725,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B203" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15347222222222223</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -7467,11 +7735,11 @@
         <v>813</v>
       </c>
       <c r="E203" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>90120</v>
       </c>
       <c r="G203" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -7489,18 +7757,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B204" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15486111111111112</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E204" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>90120</v>
       </c>
       <c r="G204" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -7518,7 +7786,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -7528,11 +7796,11 @@
         <v>1861</v>
       </c>
       <c r="E205" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>91981</v>
       </c>
       <c r="G205" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -7550,18 +7818,18 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E206" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>91981</v>
       </c>
       <c r="G206" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -7579,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15763888888888888</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -7589,11 +7857,11 @@
         <v>494</v>
       </c>
       <c r="E207" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>92475</v>
       </c>
       <c r="G207" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H207" s="1"/>
@@ -7606,7 +7874,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15902777777777777</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -7616,11 +7884,11 @@
         <v>0</v>
       </c>
       <c r="E208" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>92475</v>
       </c>
       <c r="G208" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H208" s="1"/>
@@ -7633,7 +7901,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C209" s="4" t="s">
@@ -7643,11 +7911,11 @@
         <v>1854</v>
       </c>
       <c r="E209" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>94329</v>
       </c>
       <c r="G209" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H209" s="1"/>
@@ -7660,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -7670,11 +7938,11 @@
         <v>1322</v>
       </c>
       <c r="E210" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95651</v>
       </c>
       <c r="G210" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H210" s="1"/>
@@ -7687,7 +7955,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16111111111111115</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -7697,11 +7965,11 @@
         <v>1217</v>
       </c>
       <c r="E211" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96868</v>
       </c>
       <c r="G211" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -7719,18 +7987,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16250000000000003</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E212" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96868</v>
       </c>
       <c r="G212" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H212" s="1"/>
@@ -7743,18 +8011,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E213" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96868</v>
       </c>
       <c r="G213" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H213" s="1"/>
@@ -7767,18 +8035,18 @@
         <v>0</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16388888888888892</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E214" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96868</v>
       </c>
       <c r="G214" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H214" s="1"/>
@@ -7791,18 +8059,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.1645833333333333</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E215" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96868</v>
       </c>
       <c r="G215" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H215" s="1"/>
@@ -7815,7 +8083,7 @@
         <v>3.4722222222222654E-3</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -7825,11 +8093,11 @@
         <v>-840</v>
       </c>
       <c r="E216" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96028</v>
       </c>
       <c r="G216" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H216" s="1"/>
@@ -7842,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -7852,11 +8120,11 @@
         <v>-525</v>
       </c>
       <c r="E217" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95503</v>
       </c>
       <c r="G217" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H217" s="1"/>
@@ -7869,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16805555555555557</v>
       </c>
       <c r="C218" s="4"/>
@@ -7877,11 +8145,11 @@
         <v>-392</v>
       </c>
       <c r="E218" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95111</v>
       </c>
       <c r="G218" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H218" s="1"/>
@@ -7894,18 +8162,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16944444444444445</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E219" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95111</v>
       </c>
       <c r="G219" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>315</v>
       </c>
       <c r="H219" s="1"/>
@@ -7918,21 +8186,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17013888888888895</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E220" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95111</v>
       </c>
       <c r="F220" s="2">
         <v>7</v>
       </c>
       <c r="G220" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>322</v>
       </c>
       <c r="H220" s="1"/>
@@ -7945,16 +8213,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17083333333333334</v>
       </c>
       <c r="C221" s="4"/>
       <c r="E221" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95111</v>
       </c>
       <c r="G221" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>322</v>
       </c>
       <c r="H221" s="1"/>
@@ -7967,21 +8235,21 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17152777777777783</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E222" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95111</v>
       </c>
       <c r="F222" s="2">
         <v>15</v>
       </c>
       <c r="G222" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H222" s="1"/>
@@ -7997,16 +8265,16 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17222222222222222</v>
       </c>
       <c r="C223" s="4"/>
       <c r="E223" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95111</v>
       </c>
       <c r="G223" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H223" s="1"/>
@@ -8019,7 +8287,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -8029,11 +8297,11 @@
         <v>-350</v>
       </c>
       <c r="E224" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>94761</v>
       </c>
       <c r="G224" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H224" s="1"/>
@@ -8046,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C225" s="4"/>
@@ -8054,11 +8322,11 @@
         <v>-350</v>
       </c>
       <c r="E225" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>94411</v>
       </c>
       <c r="G225" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H225" s="1"/>
@@ -8071,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C226" s="4"/>
@@ -8079,11 +8347,11 @@
         <v>-1000</v>
       </c>
       <c r="E226" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93411</v>
       </c>
       <c r="G226" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H226" s="1"/>
@@ -8096,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C227" s="4"/>
@@ -8104,11 +8372,11 @@
         <v>-350</v>
       </c>
       <c r="E227" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93061</v>
       </c>
       <c r="G227" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H227" s="1"/>
@@ -8121,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C228" s="4"/>
@@ -8129,11 +8397,11 @@
         <v>-1000</v>
       </c>
       <c r="E228" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>92061</v>
       </c>
       <c r="G228" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H228" s="1"/>
@@ -8146,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C229" s="4"/>
@@ -8154,11 +8422,11 @@
         <v>-1000</v>
       </c>
       <c r="E229" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>91061</v>
       </c>
       <c r="G229" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H229" s="1"/>
@@ -8171,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C230" s="4"/>
@@ -8179,11 +8447,11 @@
         <v>-350</v>
       </c>
       <c r="E230" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>90711</v>
       </c>
       <c r="G230" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H230" s="1"/>
@@ -8196,7 +8464,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -8206,11 +8474,11 @@
         <v>-1000</v>
       </c>
       <c r="E231" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>89711</v>
       </c>
       <c r="G231" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H231" s="1"/>
@@ -8223,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C232" s="4"/>
@@ -8231,11 +8499,11 @@
         <v>-350</v>
       </c>
       <c r="E232" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>89361</v>
       </c>
       <c r="G232" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H232" s="1"/>
@@ -8248,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17708333333333337</v>
       </c>
       <c r="C233" s="4"/>
@@ -8256,11 +8524,11 @@
         <v>-350</v>
       </c>
       <c r="E233" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>89011</v>
       </c>
       <c r="G233" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H233" s="1"/>
@@ -8273,7 +8541,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17777777777777776</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -8283,11 +8551,11 @@
         <v>-1000</v>
       </c>
       <c r="E234" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88011</v>
       </c>
       <c r="G234" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H234" s="1"/>
@@ -8300,7 +8568,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17847222222222225</v>
       </c>
       <c r="C235" s="4" t="s">
@@ -8310,11 +8578,11 @@
         <v>541</v>
       </c>
       <c r="E235" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88552</v>
       </c>
       <c r="G235" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="H235" s="1"/>
@@ -8327,21 +8595,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.1791666666666667</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E236" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88552</v>
       </c>
       <c r="F236" s="2">
         <v>10</v>
       </c>
       <c r="G236" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>347</v>
       </c>
       <c r="H236" s="1"/>
@@ -8354,7 +8622,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17986111111111114</v>
       </c>
       <c r="C237" s="4" t="s">
@@ -8364,11 +8632,11 @@
         <v>-350</v>
       </c>
       <c r="E237" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88202</v>
       </c>
       <c r="G237" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>347</v>
       </c>
       <c r="H237" s="1"/>
@@ -8381,21 +8649,21 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18055555555555558</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E238" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88202</v>
       </c>
       <c r="F238" s="2">
         <v>12</v>
       </c>
       <c r="G238" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>359</v>
       </c>
       <c r="H238" s="1"/>
@@ -8408,18 +8676,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E239" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88202</v>
       </c>
       <c r="G239" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>359</v>
       </c>
       <c r="H239" s="1" t="s">
@@ -8437,19 +8705,19 @@
         <v>0</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C240" s="4"/>
       <c r="E240" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88202</v>
       </c>
       <c r="F240" s="2">
         <v>30</v>
       </c>
       <c r="G240" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>389</v>
       </c>
       <c r="H240" s="1"/>
@@ -8462,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C241" s="4"/>
@@ -8470,11 +8738,11 @@
         <v>5000</v>
       </c>
       <c r="E241" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93202</v>
       </c>
       <c r="G241" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>389</v>
       </c>
       <c r="H241" s="1"/>
@@ -8487,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="B242" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C242" s="4"/>
       <c r="E242" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93202</v>
       </c>
       <c r="G242" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>389</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -8514,16 +8782,16 @@
         <v>0</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C243" s="4"/>
       <c r="E243" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93202</v>
       </c>
       <c r="G243" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>389</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -8541,16 +8809,16 @@
         <v>0</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C244" s="4"/>
       <c r="E244" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93202</v>
       </c>
       <c r="G244" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>389</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -8568,16 +8836,16 @@
         <v>0</v>
       </c>
       <c r="B245" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C245" s="4"/>
       <c r="E245" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93202</v>
       </c>
       <c r="G245" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>389</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -8595,21 +8863,21 @@
         <v>0</v>
       </c>
       <c r="B246" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18194444444444446</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E246" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93202</v>
       </c>
       <c r="F246" s="2">
         <v>-85</v>
       </c>
       <c r="G246" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H246" s="1"/>
@@ -8622,7 +8890,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B247" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18402777777777779</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -8632,11 +8900,11 @@
         <v>-147</v>
       </c>
       <c r="E247" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93055</v>
       </c>
       <c r="G247" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H247" s="1"/>
@@ -8649,18 +8917,18 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18472222222222223</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E248" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93055</v>
       </c>
       <c r="G248" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H248" s="1"/>
@@ -8673,7 +8941,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18680555555555556</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -8683,11 +8951,11 @@
         <v>380</v>
       </c>
       <c r="E249" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93435</v>
       </c>
       <c r="G249" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H249" s="1"/>
@@ -8700,7 +8968,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -8710,11 +8978,11 @@
         <v>380</v>
       </c>
       <c r="E250" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>93815</v>
       </c>
       <c r="G250" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H250" s="1"/>
@@ -8727,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18819444444444444</v>
       </c>
       <c r="C251" s="4"/>
@@ -8735,11 +9003,11 @@
         <v>2000</v>
       </c>
       <c r="E251" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>95815</v>
       </c>
       <c r="G251" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H251" s="1"/>
@@ -8752,7 +9020,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18888888888888888</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -8762,11 +9030,11 @@
         <v>380</v>
       </c>
       <c r="E252" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96195</v>
       </c>
       <c r="G252" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H252" s="1"/>
@@ -8779,7 +9047,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.19027777777777777</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -8789,11 +9057,11 @@
         <v>720</v>
       </c>
       <c r="E253" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>96915</v>
       </c>
       <c r="G253" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H253" s="1"/>
@@ -8806,7 +9074,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B254" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.19097222222222227</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -8816,11 +9084,11 @@
         <v>820</v>
       </c>
       <c r="E254" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>97735</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H254" s="1"/>
@@ -8833,7 +9101,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B255" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.19166666666666665</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -8843,11 +9111,11 @@
         <v>820</v>
       </c>
       <c r="E255" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>98555</v>
       </c>
       <c r="G255" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H255" s="1"/>
@@ -8860,7 +9128,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B256" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.19305555555555554</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -8870,11 +9138,11 @@
         <v>772</v>
       </c>
       <c r="E256" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>99327</v>
       </c>
       <c r="G256" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H256" s="1"/>
@@ -8887,7 +9155,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B257" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.19444444444444442</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -8897,11 +9165,11 @@
         <v>960</v>
       </c>
       <c r="E257" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>100287</v>
       </c>
       <c r="G257" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H257" s="1"/>
@@ -8914,18 +9182,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B258" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.1958333333333333</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E258" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>100287</v>
       </c>
       <c r="G258" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -8943,7 +9211,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.1965277777777778</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -8953,11 +9221,11 @@
         <v>-147</v>
       </c>
       <c r="E259" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>100140</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H259" s="1"/>
@@ -8970,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" ref="B260:B307" si="15">B259+A260</f>
+        <f t="shared" ref="B260:B307" si="23">B259+A260</f>
         <v>0.1965277777777778</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -8980,11 +9248,11 @@
         <v>-147</v>
       </c>
       <c r="E260" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>99993</v>
       </c>
       <c r="G260" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="H260" s="1"/>
@@ -8997,7 +9265,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -9007,11 +9275,11 @@
         <v>-350</v>
       </c>
       <c r="E261" s="7">
-        <f t="shared" ref="E261:E307" si="16">E260+D261</f>
+        <f t="shared" ref="E261:E307" si="24">E260+D261</f>
         <v>99643</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" ref="G261:G307" si="17">G260+F261</f>
+        <f t="shared" ref="G261:G307" si="25">G260+F261</f>
         <v>304</v>
       </c>
       <c r="H261" s="1"/>
@@ -9024,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C262" s="4"/>
@@ -9032,11 +9300,11 @@
         <v>-350</v>
       </c>
       <c r="E262" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>99293</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>304</v>
       </c>
       <c r="H262" s="1"/>
@@ -9049,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19722222222222219</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -9059,11 +9327,11 @@
         <v>-350</v>
       </c>
       <c r="E263" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>98943</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>304</v>
       </c>
       <c r="H263" s="1"/>
@@ -9076,21 +9344,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19861111111111107</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E264" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>98943</v>
       </c>
       <c r="F264" s="2">
         <v>5</v>
       </c>
       <c r="G264" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H264" s="1"/>
@@ -9103,7 +9371,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -9113,11 +9381,11 @@
         <v>1416</v>
       </c>
       <c r="E265" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>100359</v>
       </c>
       <c r="G265" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H265" s="1"/>
@@ -9130,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C266" s="4"/>
@@ -9138,11 +9406,11 @@
         <v>2500</v>
       </c>
       <c r="E266" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>102859</v>
       </c>
       <c r="G266" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H266" s="1"/>
@@ -9155,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19930555555555557</v>
       </c>
       <c r="C267" s="4"/>
@@ -9163,11 +9431,11 @@
         <v>-105</v>
       </c>
       <c r="E267" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>102754</v>
       </c>
       <c r="G267" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H267" s="1"/>
@@ -9180,7 +9448,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20138888888888895</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -9190,11 +9458,11 @@
         <v>1633</v>
       </c>
       <c r="E268" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>104387</v>
       </c>
       <c r="G268" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H268" s="1"/>
@@ -9207,7 +9475,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -9217,11 +9485,11 @@
         <v>-1500</v>
       </c>
       <c r="E269" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>102887</v>
       </c>
       <c r="G269" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H269" s="1"/>
@@ -9234,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="C270" s="4"/>
@@ -9242,11 +9510,11 @@
         <v>-4200</v>
       </c>
       <c r="E270" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>98687</v>
       </c>
       <c r="G270" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H270" s="1"/>
@@ -9259,7 +9527,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -9269,11 +9537,11 @@
         <v>-1000</v>
       </c>
       <c r="E271" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>97687</v>
       </c>
       <c r="G271" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H271" s="1"/>
@@ -9286,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20277777777777783</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -9296,11 +9564,11 @@
         <v>-350</v>
       </c>
       <c r="E272" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>97337</v>
       </c>
       <c r="G272" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>309</v>
       </c>
       <c r="H272" s="1"/>
@@ -9313,21 +9581,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20416666666666672</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E273" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>97337</v>
       </c>
       <c r="F273" s="2">
         <v>1</v>
       </c>
       <c r="G273" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="H273" s="1"/>
@@ -9340,18 +9608,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E274" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>97337</v>
       </c>
       <c r="G274" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="H274" s="1"/>
@@ -9364,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -9374,11 +9642,11 @@
         <v>757</v>
       </c>
       <c r="E275" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>98094</v>
       </c>
       <c r="G275" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="H275" s="1"/>
@@ -9393,7 +9661,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20694444444444449</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -9403,11 +9671,11 @@
         <v>1765</v>
       </c>
       <c r="E276" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>99859</v>
       </c>
       <c r="G276" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="H276" s="1"/>
@@ -9420,7 +9688,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -9430,11 +9698,11 @@
         <v>1398</v>
       </c>
       <c r="E277" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>101257</v>
       </c>
       <c r="G277" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="H277" s="1"/>
@@ -9447,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="C278" s="4"/>
@@ -9455,11 +9723,11 @@
         <v>3000</v>
       </c>
       <c r="E278" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>104257</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="H278" s="1"/>
@@ -9472,21 +9740,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20972222222222225</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E279" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>104257</v>
       </c>
       <c r="F279" s="2">
         <v>15</v>
       </c>
       <c r="G279" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H279" s="1"/>
@@ -9502,7 +9770,7 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21041666666666664</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -9512,11 +9780,11 @@
         <v>0</v>
       </c>
       <c r="E280" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>104257</v>
       </c>
       <c r="G280" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H280" s="1"/>
@@ -9529,7 +9797,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21111111111111114</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -9539,11 +9807,11 @@
         <v>0</v>
       </c>
       <c r="E281" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>104257</v>
       </c>
       <c r="G281" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H281" s="1"/>
@@ -9556,7 +9824,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21250000000000002</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -9566,11 +9834,11 @@
         <v>2109</v>
       </c>
       <c r="E282" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>106366</v>
       </c>
       <c r="G282" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H282" s="1"/>
@@ -9583,7 +9851,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -9593,11 +9861,11 @@
         <v>1365</v>
       </c>
       <c r="E283" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>107731</v>
       </c>
       <c r="G283" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H283" s="1"/>
@@ -9610,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21458333333333329</v>
       </c>
       <c r="C284" s="4"/>
@@ -9618,11 +9886,11 @@
         <v>2500</v>
       </c>
       <c r="E284" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>110231</v>
       </c>
       <c r="G284" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H284" s="1"/>
@@ -9635,7 +9903,7 @@
         <v>1.3888888888889395E-3</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21597222222222223</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -9645,11 +9913,11 @@
         <v>-196</v>
       </c>
       <c r="E285" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>110035</v>
       </c>
       <c r="G285" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H285" s="1"/>
@@ -9662,7 +9930,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -9672,11 +9940,11 @@
         <v>0</v>
       </c>
       <c r="E286" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>110035</v>
       </c>
       <c r="G286" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H286" s="1"/>
@@ -9689,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -9699,11 +9967,11 @@
         <v>0</v>
       </c>
       <c r="E287" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>110035</v>
       </c>
       <c r="G287" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H287" s="1"/>
@@ -9716,7 +9984,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -9726,11 +9994,11 @@
         <v>774</v>
       </c>
       <c r="E288" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>110809</v>
       </c>
       <c r="G288" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H288" s="1"/>
@@ -9743,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C289" s="4"/>
@@ -9751,11 +10019,11 @@
         <v>2500</v>
       </c>
       <c r="E289" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>113309</v>
       </c>
       <c r="G289" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H289" s="1"/>
@@ -9768,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21736111111111112</v>
       </c>
       <c r="C290" s="4"/>
@@ -9776,11 +10044,11 @@
         <v>3789</v>
       </c>
       <c r="E290" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>117098</v>
       </c>
       <c r="G290" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H290" s="1"/>
@@ -9793,18 +10061,18 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21875</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E291" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>117098</v>
       </c>
       <c r="G291" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -9822,7 +10090,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -9832,11 +10100,11 @@
         <v>1656</v>
       </c>
       <c r="E292" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>118754</v>
       </c>
       <c r="G292" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H292" s="1"/>
@@ -9849,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22013888888888888</v>
       </c>
       <c r="C293" s="4"/>
@@ -9857,11 +10125,11 @@
         <v>1600</v>
       </c>
       <c r="E293" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>120354</v>
       </c>
       <c r="G293" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H293" s="1"/>
@@ -9874,7 +10142,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22083333333333333</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -9884,11 +10152,11 @@
         <v>1519</v>
       </c>
       <c r="E294" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>121873</v>
       </c>
       <c r="G294" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H294" s="1"/>
@@ -9901,7 +10169,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22152777777777777</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -9911,11 +10179,11 @@
         <v>1830</v>
       </c>
       <c r="E295" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>123703</v>
       </c>
       <c r="G295" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H295" s="1"/>
@@ -9928,7 +10196,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -9938,11 +10206,11 @@
         <v>631</v>
       </c>
       <c r="E296" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>124334</v>
       </c>
       <c r="G296" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H296" s="1"/>
@@ -9955,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22291666666666665</v>
       </c>
       <c r="C297" s="4"/>
@@ -9963,11 +10231,11 @@
         <v>1200</v>
       </c>
       <c r="E297" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>125534</v>
       </c>
       <c r="G297" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H297" s="1"/>
@@ -9980,7 +10248,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22430555555555554</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -9990,11 +10258,11 @@
         <v>493</v>
       </c>
       <c r="E298" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>126027</v>
       </c>
       <c r="G298" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H298" s="1"/>
@@ -10007,7 +10275,7 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -10017,11 +10285,11 @@
         <v>-735</v>
       </c>
       <c r="E299" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>125292</v>
       </c>
       <c r="G299" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H299" s="1"/>
@@ -10034,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22569444444444442</v>
       </c>
       <c r="C300" s="4"/>
@@ -10042,11 +10310,11 @@
         <v>-2100</v>
       </c>
       <c r="E300" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>123192</v>
       </c>
       <c r="G300" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H300" s="1"/>
@@ -10059,18 +10327,18 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B301" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22638888888888892</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E301" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>123192</v>
       </c>
       <c r="G301" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H301" s="1"/>
@@ -10085,7 +10353,7 @@
         <v>2.0833333333332704E-3</v>
       </c>
       <c r="B302" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22847222222222219</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -10095,11 +10363,11 @@
         <v>1060</v>
       </c>
       <c r="E302" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>124252</v>
       </c>
       <c r="G302" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H302" s="1"/>
@@ -10112,7 +10380,7 @@
         <v>6.9444444444449749E-4</v>
       </c>
       <c r="B303" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -10122,11 +10390,11 @@
         <v>-1470</v>
       </c>
       <c r="E303" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>122782</v>
       </c>
       <c r="G303" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H303" s="1"/>
@@ -10139,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="B304" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C304" s="4"/>
@@ -10147,11 +10415,11 @@
         <v>-2100</v>
       </c>
       <c r="E304" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>120682</v>
       </c>
       <c r="G304" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H304" s="1"/>
@@ -10164,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="C305" s="4"/>
@@ -10172,11 +10440,11 @@
         <v>-840</v>
       </c>
       <c r="E305" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>119842</v>
       </c>
       <c r="G305" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="H305" s="1"/>
@@ -10189,21 +10457,21 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="B306" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.23055555555555557</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E306" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>119842</v>
       </c>
       <c r="F306" s="2">
         <v>3</v>
       </c>
       <c r="G306" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>328</v>
       </c>
       <c r="H306" s="1"/>
@@ -10216,18 +10484,18 @@
         <v>6.9444444444438647E-4</v>
       </c>
       <c r="B307" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.23124999999999996</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E307" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>119842</v>
       </c>
       <c r="G307" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>328</v>
       </c>
       <c r="H307" s="1"/>
